--- a/Extracted.xlsx
+++ b/Extracted.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet name="Extracted Data" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -377,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -410,6 +411,18 @@
       <c r="I1" t="str">
         <v>Time</v>
       </c>
+      <c r="J1" t="str">
+        <v>Type</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L1" t="str">
+        <v>Gradable</v>
+      </c>
+      <c r="M1" t="str">
+        <v>LODescription</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -439,6 +452,18 @@
       <c r="I2" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J2" t="str">
+        <v>Static</v>
+      </c>
+      <c r="K2" t="str">
+        <v>Select All That Apply</v>
+      </c>
+      <c r="L2" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M2" t="str">
+        <v>01-01  Define tax, taxpayer, incidence, and jurisdiction.</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -468,6 +493,18 @@
       <c r="I3" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J3" t="str">
+        <v>Static</v>
+      </c>
+      <c r="K3" t="str">
+        <v>Multiple Choice</v>
+      </c>
+      <c r="L3" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M3" t="str">
+        <v>01-01  Define tax, taxpayer, incidence, and jurisdiction., 01-05  Describe the taxes levied by the federal government.</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -497,6 +534,18 @@
       <c r="I4" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J4" t="str">
+        <v>Static</v>
+      </c>
+      <c r="K4" t="str">
+        <v>Multiple Choice</v>
+      </c>
+      <c r="L4" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M4" t="str">
+        <v>01-01  Define tax, taxpayer, incidence, and jurisdiction., 01-05  Describe the taxes levied by the federal government.</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -526,6 +575,18 @@
       <c r="I5" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J5" t="str">
+        <v>Algorithimic</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L5" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M5" t="str">
+        <v>01-02  Express the relationship between tax base, rate, and revenue as a formula.</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -555,6 +616,18 @@
       <c r="I6" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J6" t="str">
+        <v>Static</v>
+      </c>
+      <c r="K6" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L6" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M6" t="str">
+        <v>01-02  Express the relationship between tax base, rate, and revenue as a formula.</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -584,6 +657,18 @@
       <c r="I7" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J7" t="str">
+        <v>Algorithimic</v>
+      </c>
+      <c r="K7" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L7" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M7" t="str">
+        <v>01-02  Express the relationship between tax base, rate, and revenue as a formula., 01-03  Describe the taxes levied by local governments.</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -613,6 +698,18 @@
       <c r="I8" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J8" t="str">
+        <v>Static</v>
+      </c>
+      <c r="K8" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L8" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M8" t="str">
+        <v>01-02  Express the relationship between tax base, rate, and revenue as a formula., 01-03  Describe the taxes levied by local governments.</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -642,6 +739,18 @@
       <c r="I9" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J9" t="str">
+        <v>Algorithimic</v>
+      </c>
+      <c r="K9" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L9" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M9" t="str">
+        <v>01-02  Express the relationship between tax base, rate, and revenue as a formula., 01-03  Describe the taxes levied by local governments.</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -671,6 +780,18 @@
       <c r="I10" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J10" t="str">
+        <v>Static</v>
+      </c>
+      <c r="K10" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L10" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M10" t="str">
+        <v>01-02  Express the relationship between tax base, rate, and revenue as a formula., 01-03  Describe the taxes levied by local governments.</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -700,6 +821,18 @@
       <c r="I11" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J11" t="str">
+        <v>Algorithimic</v>
+      </c>
+      <c r="K11" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L11" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M11" t="str">
+        <v>01-03  Describe the taxes levied by local governments.</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -729,6 +862,18 @@
       <c r="I12" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J12" t="str">
+        <v>Static</v>
+      </c>
+      <c r="K12" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L12" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M12" t="str">
+        <v>01-03  Describe the taxes levied by local governments.</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -758,6 +903,18 @@
       <c r="I13" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J13" t="str">
+        <v>Algorithimic</v>
+      </c>
+      <c r="K13" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L13" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M13" t="str">
+        <v>01-04  Describe the taxes levied by state governments.</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -787,6 +944,18 @@
       <c r="I14" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J14" t="str">
+        <v>Static</v>
+      </c>
+      <c r="K14" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L14" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M14" t="str">
+        <v>01-04  Describe the taxes levied by state governments.</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -816,6 +985,18 @@
       <c r="I15" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J15" t="str">
+        <v>Algorithimic</v>
+      </c>
+      <c r="K15" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L15" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M15" t="str">
+        <v>01-04  Describe the taxes levied by state governments.</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -845,6 +1026,18 @@
       <c r="I16" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J16" t="str">
+        <v>Static</v>
+      </c>
+      <c r="K16" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L16" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M16" t="str">
+        <v>01-04  Describe the taxes levied by state governments.</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -874,6 +1067,18 @@
       <c r="I17" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J17" t="str">
+        <v>Algorithimic</v>
+      </c>
+      <c r="K17" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L17" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M17" t="str">
+        <v>01-04  Describe the taxes levied by state governments.</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -903,6 +1108,18 @@
       <c r="I18" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J18" t="str">
+        <v>Static</v>
+      </c>
+      <c r="K18" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L18" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M18" t="str">
+        <v>01-04  Describe the taxes levied by state governments.</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -932,6 +1149,18 @@
       <c r="I19" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J19" t="str">
+        <v>Algorithimic</v>
+      </c>
+      <c r="K19" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L19" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M19" t="str">
+        <v>01-04  Describe the taxes levied by state governments.</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -961,6 +1190,18 @@
       <c r="I20" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J20" t="str">
+        <v>Static</v>
+      </c>
+      <c r="K20" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L20" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M20" t="str">
+        <v>01-04  Describe the taxes levied by state governments.</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -990,6 +1231,18 @@
       <c r="I21" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J21" t="str">
+        <v>Algorithimic</v>
+      </c>
+      <c r="K21" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L21" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M21" t="str">
+        <v>01-04  Describe the taxes levied by state governments.</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -1019,6 +1272,18 @@
       <c r="I22" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J22" t="str">
+        <v>Static</v>
+      </c>
+      <c r="K22" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L22" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M22" t="str">
+        <v>01-04  Describe the taxes levied by state governments.</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -1048,6 +1313,18 @@
       <c r="I23" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J23" t="str">
+        <v>Static</v>
+      </c>
+      <c r="K23" t="str">
+        <v>Multiple Choice</v>
+      </c>
+      <c r="L23" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M23" t="str">
+        <v>01-03  Describe the taxes levied by local governments., 01-04  Describe the taxes levied by state governments.</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -1077,6 +1354,18 @@
       <c r="I24" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J24" t="str">
+        <v>Algorithimic</v>
+      </c>
+      <c r="K24" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L24" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M24" t="str">
+        <v>01-06  Explain the structure of the value-added tax levied by foreign governments.</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -1106,6 +1395,18 @@
       <c r="I25" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J25" t="str">
+        <v>Static</v>
+      </c>
+      <c r="K25" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L25" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M25" t="str">
+        <v>01-06  Explain the structure of the value-added tax levied by foreign governments.</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -1135,6 +1436,18 @@
       <c r="I26" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J26" t="str">
+        <v>Algorithimic</v>
+      </c>
+      <c r="K26" t="str">
+        <v/>
+      </c>
+      <c r="L26" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M26" t="str">
+        <v>01-06  Explain the structure of the value-added tax levied by foreign governments.</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -1164,6 +1477,18 @@
       <c r="I27" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J27" t="str">
+        <v>Static</v>
+      </c>
+      <c r="K27" t="str">
+        <v/>
+      </c>
+      <c r="L27" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M27" t="str">
+        <v>01-06  Explain the structure of the value-added tax levied by foreign governments.</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -1193,6 +1518,18 @@
       <c r="I28" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J28" t="str">
+        <v>Algorithimic</v>
+      </c>
+      <c r="K28" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L28" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M28" t="str">
+        <v>02-01  Explain the concept of sufficiency of a good tax.</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -1222,6 +1559,18 @@
       <c r="I29" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J29" t="str">
+        <v>Static</v>
+      </c>
+      <c r="K29" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L29" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M29" t="str">
+        <v>02-01  Explain the concept of sufficiency of a good tax.</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -1251,6 +1600,18 @@
       <c r="I30" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J30" t="str">
+        <v>Algorithimic</v>
+      </c>
+      <c r="K30" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L30" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M30" t="str">
+        <v>02-01  Explain the concept of sufficiency of a good tax.</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -1280,6 +1641,18 @@
       <c r="I31" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J31" t="str">
+        <v>Static</v>
+      </c>
+      <c r="K31" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L31" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M31" t="str">
+        <v>02-01  Explain the concept of sufficiency of a good tax.</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -1309,6 +1682,18 @@
       <c r="I32" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J32" t="str">
+        <v>Algorithimic</v>
+      </c>
+      <c r="K32" t="str">
+        <v/>
+      </c>
+      <c r="L32" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M32" t="str">
+        <v>02-01  Explain the concept of sufficiency of a good tax.</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -1338,6 +1723,18 @@
       <c r="I33" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J33" t="str">
+        <v>Static</v>
+      </c>
+      <c r="K33" t="str">
+        <v/>
+      </c>
+      <c r="L33" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M33" t="str">
+        <v>02-01  Explain the concept of sufficiency of a good tax.</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -1367,6 +1764,18 @@
       <c r="I34" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J34" t="str">
+        <v>Algorithimic</v>
+      </c>
+      <c r="K34" t="str">
+        <v/>
+      </c>
+      <c r="L34" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M34" t="str">
+        <v>02-01  Explain the concept of sufficiency of a good tax., 02-02  Differentiate between the income effect and the substitution effect.</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -1396,6 +1805,18 @@
       <c r="I35" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J35" t="str">
+        <v>Static</v>
+      </c>
+      <c r="K35" t="str">
+        <v/>
+      </c>
+      <c r="L35" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M35" t="str">
+        <v>02-01  Explain the concept of sufficiency of a good tax., 02-02  Differentiate between the income effect and the substitution effect.</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -1425,6 +1846,18 @@
       <c r="I36" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J36" t="str">
+        <v>Algorithimic</v>
+      </c>
+      <c r="K36" t="str">
+        <v/>
+      </c>
+      <c r="L36" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M36" t="str">
+        <v>02-02  Differentiate between the income effect and the substitution effect.</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -1454,6 +1887,18 @@
       <c r="I37" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J37" t="str">
+        <v>Static</v>
+      </c>
+      <c r="K37" t="str">
+        <v/>
+      </c>
+      <c r="L37" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M37" t="str">
+        <v>02-02  Differentiate between the income effect and the substitution effect.</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -1483,6 +1928,18 @@
       <c r="I38" t="str">
         <v>10 min.</v>
       </c>
+      <c r="J38" t="str">
+        <v>Algorithimic</v>
+      </c>
+      <c r="K38" t="str">
+        <v/>
+      </c>
+      <c r="L38" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M38" t="str">
+        <v>02-02  Differentiate between the income effect and the substitution effect.</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -1512,6 +1969,18 @@
       <c r="I39" t="str">
         <v>10 min.</v>
       </c>
+      <c r="J39" t="str">
+        <v>Static</v>
+      </c>
+      <c r="K39" t="str">
+        <v/>
+      </c>
+      <c r="L39" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M39" t="str">
+        <v>02-02  Differentiate between the income effect and the substitution effect.</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -1541,6 +2010,18 @@
       <c r="I40" t="str">
         <v>10 min.</v>
       </c>
+      <c r="J40" t="str">
+        <v>Algorithimic</v>
+      </c>
+      <c r="K40" t="str">
+        <v/>
+      </c>
+      <c r="L40" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M40" t="str">
+        <v>02-02  Differentiate between the income effect and the substitution effect.</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -1570,6 +2051,18 @@
       <c r="I41" t="str">
         <v>10 min.</v>
       </c>
+      <c r="J41" t="str">
+        <v>Static</v>
+      </c>
+      <c r="K41" t="str">
+        <v/>
+      </c>
+      <c r="L41" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M41" t="str">
+        <v>02-02  Differentiate between the income effect and the substitution effect.</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -1599,6 +2092,18 @@
       <c r="I42" t="str">
         <v>10 min.</v>
       </c>
+      <c r="J42" t="str">
+        <v>Algorithimic</v>
+      </c>
+      <c r="K42" t="str">
+        <v/>
+      </c>
+      <c r="L42" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M42" t="str">
+        <v>02-06  Differentiate between regressive, proportionate, and progressive rate structures., 02-07  Explain the difference between marginal and average tax rates.</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -1628,6 +2133,18 @@
       <c r="I43" t="str">
         <v>10 min.</v>
       </c>
+      <c r="J43" t="str">
+        <v>Static</v>
+      </c>
+      <c r="K43" t="str">
+        <v/>
+      </c>
+      <c r="L43" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M43" t="str">
+        <v>02-06  Differentiate between regressive, proportionate, and progressive rate structures., 02-07  Explain the difference between marginal and average tax rates.</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -1657,6 +2174,18 @@
       <c r="I44" t="str">
         <v>10 min.</v>
       </c>
+      <c r="J44" t="str">
+        <v>Algorithimic</v>
+      </c>
+      <c r="K44" t="str">
+        <v/>
+      </c>
+      <c r="L44" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M44" t="str">
+        <v>02-06  Differentiate between regressive, proportionate, and progressive rate structures., 02-07  Explain the difference between marginal and average tax rates.</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -1686,6 +2215,18 @@
       <c r="I45" t="str">
         <v>10 min.</v>
       </c>
+      <c r="J45" t="str">
+        <v>Static</v>
+      </c>
+      <c r="K45" t="str">
+        <v/>
+      </c>
+      <c r="L45" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M45" t="str">
+        <v>02-06  Differentiate between regressive, proportionate, and progressive rate structures., 02-07  Explain the difference between marginal and average tax rates.</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -1715,6 +2256,18 @@
       <c r="I46" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J46" t="str">
+        <v>Algorithimic</v>
+      </c>
+      <c r="K46" t="str">
+        <v/>
+      </c>
+      <c r="L46" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M46" t="str">
+        <v>02-07  Explain the difference between marginal and average tax rates.</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -1744,6 +2297,18 @@
       <c r="I47" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J47" t="str">
+        <v>Static</v>
+      </c>
+      <c r="K47" t="str">
+        <v/>
+      </c>
+      <c r="L47" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M47" t="str">
+        <v>02-07  Explain the difference between marginal and average tax rates.</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -1773,6 +2338,18 @@
       <c r="I48" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J48" t="str">
+        <v>Algorithimic</v>
+      </c>
+      <c r="K48" t="str">
+        <v/>
+      </c>
+      <c r="L48" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M48" t="str">
+        <v>02-05  Define horizontal and vertical equity.</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -1802,6 +2379,18 @@
       <c r="I49" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J49" t="str">
+        <v>Static</v>
+      </c>
+      <c r="K49" t="str">
+        <v/>
+      </c>
+      <c r="L49" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M49" t="str">
+        <v>02-05  Define horizontal and vertical equity.</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -1831,6 +2420,18 @@
       <c r="I50" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J50" t="str">
+        <v>Algorithimic</v>
+      </c>
+      <c r="K50" t="str">
+        <v/>
+      </c>
+      <c r="L50" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M50" t="str">
+        <v>02-07  Explain the difference between marginal and average tax rates.</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -1860,6 +2461,18 @@
       <c r="I51" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J51" t="str">
+        <v>Static</v>
+      </c>
+      <c r="K51" t="str">
+        <v/>
+      </c>
+      <c r="L51" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M51" t="str">
+        <v>02-07  Explain the difference between marginal and average tax rates.</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -1889,6 +2502,18 @@
       <c r="I52" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J52" t="str">
+        <v>Algorithimic</v>
+      </c>
+      <c r="K52" t="str">
+        <v/>
+      </c>
+      <c r="L52" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M52" t="str">
+        <v>02-07  Explain the difference between marginal and average tax rates.</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -1918,6 +2543,18 @@
       <c r="I53" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J53" t="str">
+        <v>Static</v>
+      </c>
+      <c r="K53" t="str">
+        <v/>
+      </c>
+      <c r="L53" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M53" t="str">
+        <v>02-07  Explain the difference between marginal and average tax rates.</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -1947,6 +2584,18 @@
       <c r="I54" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J54" t="str">
+        <v>Algorithimic</v>
+      </c>
+      <c r="K54" t="str">
+        <v/>
+      </c>
+      <c r="L54" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M54" t="str">
+        <v>02-06  Differentiate between regressive, proportionate, and progressive rate structures., 02-05  Define horizontal and vertical equity.</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -1976,18 +2625,30 @@
       <c r="I55" t="str">
         <v>5 min.</v>
       </c>
+      <c r="J55" t="str">
+        <v>Static</v>
+      </c>
+      <c r="K55" t="str">
+        <v/>
+      </c>
+      <c r="L55" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M55" t="str">
+        <v>02-06  Differentiate between regressive, proportionate, and progressive rate structures., 02-05  Define horizontal and vertical equity.</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I55"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M55"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2020,6 +2681,12 @@
       <c r="I1" t="str">
         <v>Time</v>
       </c>
+      <c r="J1" t="str">
+        <v>Type</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Worksheet</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -2049,6 +2716,12 @@
       <c r="I2" t="str">
         <v>01-05</v>
       </c>
+      <c r="J2" t="str">
+        <v>s</v>
+      </c>
+      <c r="K2" t="str">
+        <v>Select All That Apply</v>
+      </c>
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" t="str">
@@ -2081,6 +2754,12 @@
       <c r="I3" t="str">
         <v>01-05</v>
       </c>
+      <c r="J3" t="str">
+        <v>s</v>
+      </c>
+      <c r="K3" t="str">
+        <v>Multiple Choice</v>
+      </c>
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" t="str">
@@ -2113,6 +2792,12 @@
       <c r="I4" t="str">
         <v>01-05</v>
       </c>
+      <c r="J4" t="str">
+        <v>s</v>
+      </c>
+      <c r="K4" t="str">
+        <v>Multiple Choice</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -2142,6 +2827,12 @@
       <c r="I5" t="str">
         <v>01-05</v>
       </c>
+      <c r="J5" t="str">
+        <v>b</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Worksheet</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -2171,6 +2862,12 @@
       <c r="I6" t="str">
         <v>01-05</v>
       </c>
+      <c r="J6" t="str">
+        <v>b</v>
+      </c>
+      <c r="K6" t="str">
+        <v>Worksheet</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -2200,6 +2897,12 @@
       <c r="I7" t="str">
         <v>01-05</v>
       </c>
+      <c r="J7" t="str">
+        <v>b</v>
+      </c>
+      <c r="K7" t="str">
+        <v>Worksheet</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -2229,6 +2932,12 @@
       <c r="I8" t="str">
         <v>01-05</v>
       </c>
+      <c r="J8" t="str">
+        <v>b</v>
+      </c>
+      <c r="K8" t="str">
+        <v>Worksheet</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -2258,6 +2967,12 @@
       <c r="I9" t="str">
         <v>01-05</v>
       </c>
+      <c r="J9" t="str">
+        <v>b</v>
+      </c>
+      <c r="K9" t="str">
+        <v>Worksheet</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -2287,6 +3002,12 @@
       <c r="I10" t="str">
         <v>01-05</v>
       </c>
+      <c r="J10" t="str">
+        <v>b</v>
+      </c>
+      <c r="K10" t="str">
+        <v>Worksheet</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -2316,6 +3037,12 @@
       <c r="I11" t="str">
         <v>01-05</v>
       </c>
+      <c r="J11" t="str">
+        <v>b</v>
+      </c>
+      <c r="K11" t="str">
+        <v>Worksheet</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -2345,6 +3072,12 @@
       <c r="I12" t="str">
         <v>01-05</v>
       </c>
+      <c r="J12" t="str">
+        <v>b</v>
+      </c>
+      <c r="K12" t="str">
+        <v>Worksheet</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -2374,6 +3107,12 @@
       <c r="I13" t="str">
         <v>01-05</v>
       </c>
+      <c r="J13" t="str">
+        <v>b</v>
+      </c>
+      <c r="K13" t="str">
+        <v>Worksheet</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -2403,6 +3142,12 @@
       <c r="I14" t="str">
         <v>01-05</v>
       </c>
+      <c r="J14" t="str">
+        <v>s</v>
+      </c>
+      <c r="K14" t="str">
+        <v>Multiple Choice</v>
+      </c>
     </row>
     <row r="15" xml:space="preserve">
       <c r="A15" t="str">
@@ -2433,6 +3178,12 @@
       <c r="I15" t="str">
         <v>01-05</v>
       </c>
+      <c r="J15" t="str">
+        <v>b</v>
+      </c>
+      <c r="K15" t="str">
+        <v>Worksheet</v>
+      </c>
     </row>
     <row r="16" xml:space="preserve">
       <c r="A16" t="str">
@@ -2463,6 +3214,12 @@
       <c r="I16" t="str">
         <v>01-05</v>
       </c>
+      <c r="J16" t="str">
+        <v>b</v>
+      </c>
+      <c r="K16" t="str">
+        <v>Worksheet</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -2492,6 +3249,12 @@
       <c r="I17" t="str">
         <v>01-05</v>
       </c>
+      <c r="J17" t="str">
+        <v>b</v>
+      </c>
+      <c r="K17" t="str">
+        <v>Worksheet</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -2521,6 +3284,12 @@
       <c r="I18" t="str">
         <v>01-05</v>
       </c>
+      <c r="J18" t="str">
+        <v>b</v>
+      </c>
+      <c r="K18" t="str">
+        <v>Worksheet</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -2550,6 +3319,12 @@
       <c r="I19" t="str">
         <v>01-05</v>
       </c>
+      <c r="J19" t="str">
+        <v>b</v>
+      </c>
+      <c r="K19" t="str">
+        <v>Worksheet</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -2579,6 +3354,12 @@
       <c r="I20" t="str">
         <v>01-05</v>
       </c>
+      <c r="J20" t="str">
+        <v>b</v>
+      </c>
+      <c r="K20" t="str">
+        <v>Worksheet</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -2608,6 +3389,12 @@
       <c r="I21" t="str">
         <v>01-05</v>
       </c>
+      <c r="J21" t="str">
+        <v>b</v>
+      </c>
+      <c r="K21" t="str">
+        <v>Worksheet</v>
+      </c>
     </row>
     <row r="22" xml:space="preserve">
       <c r="A22" t="str">
@@ -2639,6 +3426,12 @@
       <c r="I22" t="str">
         <v>06-10</v>
       </c>
+      <c r="J22" t="str">
+        <v>b</v>
+      </c>
+      <c r="K22" t="str">
+        <v>Worksheet</v>
+      </c>
     </row>
     <row r="23" xml:space="preserve">
       <c r="A23" t="str">
@@ -2670,6 +3463,12 @@
       <c r="I23" t="str">
         <v>06-10</v>
       </c>
+      <c r="J23" t="str">
+        <v>b</v>
+      </c>
+      <c r="K23" t="str">
+        <v>Worksheet</v>
+      </c>
     </row>
     <row r="24" xml:space="preserve">
       <c r="A24" t="str">
@@ -2700,6 +3499,12 @@
       <c r="I24" t="str">
         <v>06-10</v>
       </c>
+      <c r="J24" t="str">
+        <v>b</v>
+      </c>
+      <c r="K24" t="str">
+        <v>Worksheet</v>
+      </c>
     </row>
     <row r="25" xml:space="preserve">
       <c r="A25" t="str">
@@ -2730,6 +3535,12 @@
       <c r="I25" t="str">
         <v>06-10</v>
       </c>
+      <c r="J25" t="str">
+        <v>b</v>
+      </c>
+      <c r="K25" t="str">
+        <v>Worksheet</v>
+      </c>
     </row>
     <row r="26" xml:space="preserve">
       <c r="A26" t="str">
@@ -2760,6 +3571,12 @@
       <c r="I26" t="str">
         <v>01-05</v>
       </c>
+      <c r="J26" t="str">
+        <v>b</v>
+      </c>
+      <c r="K26" t="str">
+        <v>Worksheet</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -2789,6 +3606,12 @@
       <c r="I27" t="str">
         <v>01-05</v>
       </c>
+      <c r="J27" t="str">
+        <v>b</v>
+      </c>
+      <c r="K27" t="str">
+        <v>Worksheet</v>
+      </c>
     </row>
     <row r="28" xml:space="preserve">
       <c r="A28" t="str">
@@ -2819,6 +3642,12 @@
       <c r="I28" t="str">
         <v>01-05</v>
       </c>
+      <c r="J28" t="str">
+        <v>b</v>
+      </c>
+      <c r="K28" t="str">
+        <v>Worksheet</v>
+      </c>
     </row>
     <row r="29" xml:space="preserve">
       <c r="A29" t="str">
@@ -2849,6 +3678,12 @@
       <c r="I29" t="str">
         <v>01-05</v>
       </c>
+      <c r="J29" t="str">
+        <v>b</v>
+      </c>
+      <c r="K29" t="str">
+        <v>Worksheet</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -2878,11 +3713,87 @@
       <c r="I30" t="str">
         <v>01-05</v>
       </c>
+      <c r="J30" t="str">
+        <v>b</v>
+      </c>
+      <c r="K30" t="str">
+        <v>Worksheet</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I30"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K30"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>LODescription</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>01-01  Define tax, taxpayer, incidence, and jurisdiction.</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>01-02  Express the relationship between tax base, rate, and revenue as a formula.</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>01-03  Describe the taxes levied by local governments.</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>01-04  Describe the taxes levied by state governments.</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>01-05  Describe the taxes levied by the federal government.</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>01-06  Explain the structure of the value-added tax levied by foreign governments.</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>02-01  Explain the concept of sufficiency of a good tax.</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>02-02  Differentiate between the income effect and the substitution effect.</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>02-06  Differentiate between regressive, proportionate, and progressive rate structures.</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>02-07  Explain the difference between marginal and average tax rates.</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:A11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Extracted.xlsx
+++ b/Extracted.xlsx
@@ -2727,9 +2727,8 @@
       <c r="A3" t="str">
         <v>AP1-2</v>
       </c>
-      <c r="B3" t="str" xml:space="preserve">
-        <v xml:space="preserve">LO 01-01_x000d_
-LO 01-05</v>
+      <c r="B3" t="str">
+        <v>LO 01-01; LO 01-05</v>
       </c>
       <c r="C3" t="str" xml:space="preserve">
         <v xml:space="preserve">Some Basic Terminology_x000d_
@@ -2765,9 +2764,8 @@
       <c r="A4" t="str">
         <v>AP1-3</v>
       </c>
-      <c r="B4" t="str" xml:space="preserve">
-        <v xml:space="preserve">LO 01-01_x000d_
-LO 01-05</v>
+      <c r="B4" t="str">
+        <v>LO 01-01; LO 01-05</v>
       </c>
       <c r="C4" t="str" xml:space="preserve">
         <v xml:space="preserve">Some Basic Terminology_x000d_
@@ -3119,7 +3117,7 @@
         <v>AP1-13</v>
       </c>
       <c r="B14" t="str">
-        <v>LO 01-03          LO 01-04</v>
+        <v>LO 01-03; LO 01-04</v>
       </c>
       <c r="C14" t="str">
         <v>Local Taxes; Retail Sales, Use, and Excise Taxes</v>
@@ -3400,9 +3398,8 @@
       <c r="A22" t="str">
         <v>AP2-6</v>
       </c>
-      <c r="B22" t="str" xml:space="preserve">
-        <v xml:space="preserve">LO 02-02_x000d_
-LO 02-02</v>
+      <c r="B22" t="str">
+        <v>LO 02-02; LO 02-02</v>
       </c>
       <c r="C22" t="str" xml:space="preserve">
         <v xml:space="preserve">Static versus Dynamic Forcasting_x000d_
@@ -3437,9 +3434,8 @@
       <c r="A23" t="str">
         <v>AP2-7</v>
       </c>
-      <c r="B23" t="str" xml:space="preserve">
-        <v xml:space="preserve">LO 02-02_x000d_
-LO 02-02</v>
+      <c r="B23" t="str">
+        <v>LO 02-02; LO 02-02</v>
       </c>
       <c r="C23" t="str" xml:space="preserve">
         <v xml:space="preserve">Static versus Dynamic Forcasting_x000d_

--- a/Extracted.xlsx
+++ b/Extracted.xlsx
@@ -503,7 +503,7 @@
         <v>automatic</v>
       </c>
       <c r="M3" t="str">
-        <v>01-01  Define tax, taxpayer, incidence, and jurisdiction., 01-05  Describe the taxes levied by the federal government.</v>
+        <v>01-01  Define tax, taxpayer, incidence, and jurisdiction.;01-05  Describe the taxes levied by the federal government.</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
         <v>automatic</v>
       </c>
       <c r="M4" t="str">
-        <v>01-01  Define tax, taxpayer, incidence, and jurisdiction., 01-05  Describe the taxes levied by the federal government.</v>
+        <v>01-01  Define tax, taxpayer, incidence, and jurisdiction.;01-05  Describe the taxes levied by the federal government.</v>
       </c>
     </row>
     <row r="5">
@@ -667,7 +667,7 @@
         <v>automatic</v>
       </c>
       <c r="M7" t="str">
-        <v>01-02  Express the relationship between tax base, rate, and revenue as a formula., 01-03  Describe the taxes levied by local governments.</v>
+        <v>01-02  Express the relationship between tax base, rate, and revenue as a formula.;01-03  Describe the taxes levied by local governments.</v>
       </c>
     </row>
     <row r="8">
@@ -708,7 +708,7 @@
         <v>automatic</v>
       </c>
       <c r="M8" t="str">
-        <v>01-02  Express the relationship between tax base, rate, and revenue as a formula., 01-03  Describe the taxes levied by local governments.</v>
+        <v>01-02  Express the relationship between tax base, rate, and revenue as a formula.;01-03  Describe the taxes levied by local governments.</v>
       </c>
     </row>
     <row r="9">
@@ -749,7 +749,7 @@
         <v>automatic</v>
       </c>
       <c r="M9" t="str">
-        <v>01-02  Express the relationship between tax base, rate, and revenue as a formula., 01-03  Describe the taxes levied by local governments.</v>
+        <v>01-02  Express the relationship between tax base, rate, and revenue as a formula.;01-03  Describe the taxes levied by local governments.</v>
       </c>
     </row>
     <row r="10">
@@ -790,7 +790,7 @@
         <v>automatic</v>
       </c>
       <c r="M10" t="str">
-        <v>01-02  Express the relationship between tax base, rate, and revenue as a formula., 01-03  Describe the taxes levied by local governments.</v>
+        <v>01-02  Express the relationship between tax base, rate, and revenue as a formula.;01-03  Describe the taxes levied by local governments.</v>
       </c>
     </row>
     <row r="11">
@@ -1323,7 +1323,7 @@
         <v>automatic</v>
       </c>
       <c r="M23" t="str">
-        <v>01-03  Describe the taxes levied by local governments., 01-04  Describe the taxes levied by state governments.</v>
+        <v>01-03  Describe the taxes levied by local governments.;01-04  Describe the taxes levied by state governments.</v>
       </c>
     </row>
     <row r="24">
@@ -1774,7 +1774,7 @@
         <v>automatic</v>
       </c>
       <c r="M34" t="str">
-        <v>02-01  Explain the concept of sufficiency of a good tax., 02-02  Differentiate between the income effect and the substitution effect.</v>
+        <v>02-01  Explain the concept of sufficiency of a good tax.;02-02  Differentiate between the income effect and the substitution effect.</v>
       </c>
     </row>
     <row r="35">
@@ -1815,7 +1815,7 @@
         <v>automatic</v>
       </c>
       <c r="M35" t="str">
-        <v>02-01  Explain the concept of sufficiency of a good tax., 02-02  Differentiate between the income effect and the substitution effect.</v>
+        <v>02-01  Explain the concept of sufficiency of a good tax.;02-02  Differentiate between the income effect and the substitution effect.</v>
       </c>
     </row>
     <row r="36">
@@ -2102,7 +2102,7 @@
         <v>automatic</v>
       </c>
       <c r="M42" t="str">
-        <v>02-06  Differentiate between regressive, proportionate, and progressive rate structures., 02-07  Explain the difference between marginal and average tax rates.</v>
+        <v>02-06  Differentiate between regressive, proportionate, and progressive rate structures.;02-07  Explain the difference between marginal and average tax rates.</v>
       </c>
     </row>
     <row r="43">
@@ -2143,7 +2143,7 @@
         <v>automatic</v>
       </c>
       <c r="M43" t="str">
-        <v>02-06  Differentiate between regressive, proportionate, and progressive rate structures., 02-07  Explain the difference between marginal and average tax rates.</v>
+        <v>02-06  Differentiate between regressive, proportionate, and progressive rate structures.;02-07  Explain the difference between marginal and average tax rates.</v>
       </c>
     </row>
     <row r="44">
@@ -2184,7 +2184,7 @@
         <v>automatic</v>
       </c>
       <c r="M44" t="str">
-        <v>02-06  Differentiate between regressive, proportionate, and progressive rate structures., 02-07  Explain the difference between marginal and average tax rates.</v>
+        <v>02-06  Differentiate between regressive, proportionate, and progressive rate structures.;02-07  Explain the difference between marginal and average tax rates.</v>
       </c>
     </row>
     <row r="45">
@@ -2225,7 +2225,7 @@
         <v>automatic</v>
       </c>
       <c r="M45" t="str">
-        <v>02-06  Differentiate between regressive, proportionate, and progressive rate structures., 02-07  Explain the difference between marginal and average tax rates.</v>
+        <v>02-06  Differentiate between regressive, proportionate, and progressive rate structures.;02-07  Explain the difference between marginal and average tax rates.</v>
       </c>
     </row>
     <row r="46">
@@ -2594,7 +2594,7 @@
         <v>automatic</v>
       </c>
       <c r="M54" t="str">
-        <v>02-06  Differentiate between regressive, proportionate, and progressive rate structures., 02-05  Define horizontal and vertical equity.</v>
+        <v>02-06  Differentiate between regressive, proportionate, and progressive rate structures.;02-05  Define horizontal and vertical equity.</v>
       </c>
     </row>
     <row r="55">
@@ -2635,7 +2635,7 @@
         <v>automatic</v>
       </c>
       <c r="M55" t="str">
-        <v>02-06  Differentiate between regressive, proportionate, and progressive rate structures., 02-05  Define horizontal and vertical equity.</v>
+        <v>02-06  Differentiate between regressive, proportionate, and progressive rate structures.;02-05  Define horizontal and vertical equity.</v>
       </c>
     </row>
   </sheetData>

--- a/Extracted.xlsx
+++ b/Extracted.xlsx
@@ -1440,7 +1440,7 @@
         <v>Algorithimic</v>
       </c>
       <c r="K26" t="str">
-        <v/>
+        <v>WK</v>
       </c>
       <c r="L26" t="str">
         <v>automatic</v>
@@ -1481,7 +1481,7 @@
         <v>Static</v>
       </c>
       <c r="K27" t="str">
-        <v/>
+        <v>WK</v>
       </c>
       <c r="L27" t="str">
         <v>automatic</v>
@@ -1686,7 +1686,7 @@
         <v>Algorithimic</v>
       </c>
       <c r="K32" t="str">
-        <v/>
+        <v>WK</v>
       </c>
       <c r="L32" t="str">
         <v>automatic</v>
@@ -1727,7 +1727,7 @@
         <v>Static</v>
       </c>
       <c r="K33" t="str">
-        <v/>
+        <v>WK</v>
       </c>
       <c r="L33" t="str">
         <v>automatic</v>
@@ -1768,7 +1768,7 @@
         <v>Algorithimic</v>
       </c>
       <c r="K34" t="str">
-        <v/>
+        <v>WK</v>
       </c>
       <c r="L34" t="str">
         <v>automatic</v>
@@ -1809,7 +1809,7 @@
         <v>Static</v>
       </c>
       <c r="K35" t="str">
-        <v/>
+        <v>WK</v>
       </c>
       <c r="L35" t="str">
         <v>automatic</v>
@@ -1850,7 +1850,7 @@
         <v>Algorithimic</v>
       </c>
       <c r="K36" t="str">
-        <v/>
+        <v>WK</v>
       </c>
       <c r="L36" t="str">
         <v>automatic</v>
@@ -1891,7 +1891,7 @@
         <v>Static</v>
       </c>
       <c r="K37" t="str">
-        <v/>
+        <v>WK</v>
       </c>
       <c r="L37" t="str">
         <v>automatic</v>
@@ -1932,7 +1932,7 @@
         <v>Algorithimic</v>
       </c>
       <c r="K38" t="str">
-        <v/>
+        <v>WK</v>
       </c>
       <c r="L38" t="str">
         <v>automatic</v>
@@ -1973,7 +1973,7 @@
         <v>Static</v>
       </c>
       <c r="K39" t="str">
-        <v/>
+        <v>WK</v>
       </c>
       <c r="L39" t="str">
         <v>automatic</v>
@@ -2014,7 +2014,7 @@
         <v>Algorithimic</v>
       </c>
       <c r="K40" t="str">
-        <v/>
+        <v>WK</v>
       </c>
       <c r="L40" t="str">
         <v>automatic</v>
@@ -2055,7 +2055,7 @@
         <v>Static</v>
       </c>
       <c r="K41" t="str">
-        <v/>
+        <v>WK</v>
       </c>
       <c r="L41" t="str">
         <v>automatic</v>
@@ -2096,7 +2096,7 @@
         <v>Algorithimic</v>
       </c>
       <c r="K42" t="str">
-        <v/>
+        <v>WK</v>
       </c>
       <c r="L42" t="str">
         <v>automatic</v>
@@ -2137,7 +2137,7 @@
         <v>Static</v>
       </c>
       <c r="K43" t="str">
-        <v/>
+        <v>WK</v>
       </c>
       <c r="L43" t="str">
         <v>automatic</v>
@@ -2178,7 +2178,7 @@
         <v>Algorithimic</v>
       </c>
       <c r="K44" t="str">
-        <v/>
+        <v>WK</v>
       </c>
       <c r="L44" t="str">
         <v>automatic</v>
@@ -2219,7 +2219,7 @@
         <v>Static</v>
       </c>
       <c r="K45" t="str">
-        <v/>
+        <v>WK</v>
       </c>
       <c r="L45" t="str">
         <v>automatic</v>
@@ -2260,7 +2260,7 @@
         <v>Algorithimic</v>
       </c>
       <c r="K46" t="str">
-        <v/>
+        <v>WK</v>
       </c>
       <c r="L46" t="str">
         <v>automatic</v>
@@ -2301,7 +2301,7 @@
         <v>Static</v>
       </c>
       <c r="K47" t="str">
-        <v/>
+        <v>WK</v>
       </c>
       <c r="L47" t="str">
         <v>automatic</v>
@@ -2342,7 +2342,7 @@
         <v>Algorithimic</v>
       </c>
       <c r="K48" t="str">
-        <v/>
+        <v>WK</v>
       </c>
       <c r="L48" t="str">
         <v>automatic</v>
@@ -2383,7 +2383,7 @@
         <v>Static</v>
       </c>
       <c r="K49" t="str">
-        <v/>
+        <v>WK</v>
       </c>
       <c r="L49" t="str">
         <v>automatic</v>
@@ -2424,7 +2424,7 @@
         <v>Algorithimic</v>
       </c>
       <c r="K50" t="str">
-        <v/>
+        <v>WK</v>
       </c>
       <c r="L50" t="str">
         <v>automatic</v>
@@ -2465,7 +2465,7 @@
         <v>Static</v>
       </c>
       <c r="K51" t="str">
-        <v/>
+        <v>WK</v>
       </c>
       <c r="L51" t="str">
         <v>automatic</v>
@@ -2506,7 +2506,7 @@
         <v>Algorithimic</v>
       </c>
       <c r="K52" t="str">
-        <v/>
+        <v>WK</v>
       </c>
       <c r="L52" t="str">
         <v>automatic</v>
@@ -2547,7 +2547,7 @@
         <v>Static</v>
       </c>
       <c r="K53" t="str">
-        <v/>
+        <v>WK</v>
       </c>
       <c r="L53" t="str">
         <v>automatic</v>
@@ -2588,7 +2588,7 @@
         <v>Algorithimic</v>
       </c>
       <c r="K54" t="str">
-        <v/>
+        <v>WK</v>
       </c>
       <c r="L54" t="str">
         <v>automatic</v>
@@ -2629,7 +2629,7 @@
         <v>Static</v>
       </c>
       <c r="K55" t="str">
-        <v/>
+        <v>WK</v>
       </c>
       <c r="L55" t="str">
         <v>automatic</v>

--- a/Extracted.xlsx
+++ b/Extracted.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -424,2224 +424,2224 @@
         <v>LODescription</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
+    <row r="56">
+      <c r="A56" t="str">
         <v>Problem 01-01 (Static) [LO 1-1]</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B56" t="str">
         <v>01-01</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C56" t="str">
         <v>Some Basic Terminology</v>
       </c>
-      <c r="D2" t="str">
-        <v>Knowledge Application</v>
-      </c>
-      <c r="E2" t="str">
+      <c r="D56" t="str">
+        <v>Knowledge Application</v>
+      </c>
+      <c r="E56" t="str">
         <v>Legal</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F56" t="str">
         <v>Decision Making</v>
       </c>
-      <c r="G2" t="str">
+      <c r="G56" t="str">
         <v>Understand</v>
       </c>
-      <c r="H2" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I2" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J2" t="str">
+      <c r="H56" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I56" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J56" t="str">
         <v>Static</v>
       </c>
-      <c r="K2" t="str">
+      <c r="K56" t="str">
         <v>Select All That Apply</v>
       </c>
-      <c r="L2" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M2" t="str">
+      <c r="L56" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M56" t="str">
         <v>01-01  Define tax, taxpayer, incidence, and jurisdiction.</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
+    <row r="57">
+      <c r="A57" t="str">
         <v>Problem 01-02 (Static) [LO 1-1, 1-5]</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B57" t="str">
         <v>01-01, 01-05</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C57" t="str">
         <v>Some Basic Terminology, Federal Income Taxes</v>
       </c>
-      <c r="D3" t="str">
-        <v>Knowledge Application</v>
-      </c>
-      <c r="E3" t="str">
+      <c r="D57" t="str">
+        <v>Knowledge Application</v>
+      </c>
+      <c r="E57" t="str">
         <v>Global, Legal</v>
       </c>
-      <c r="F3" t="str">
+      <c r="F57" t="str">
         <v>Decision Making</v>
       </c>
-      <c r="G3" t="str">
+      <c r="G57" t="str">
         <v>Understand</v>
       </c>
-      <c r="H3" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I3" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J3" t="str">
+      <c r="H57" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I57" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J57" t="str">
         <v>Static</v>
       </c>
-      <c r="K3" t="str">
+      <c r="K57" t="str">
         <v>Multiple Choice</v>
       </c>
-      <c r="L3" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M3" t="str">
+      <c r="L57" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M57" t="str">
         <v>01-01  Define tax, taxpayer, incidence, and jurisdiction.;01-05  Describe the taxes levied by the federal government.</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
+    <row r="58">
+      <c r="A58" t="str">
         <v>Problem 01-03 (Static) [LO 1-1, 1-5]</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B58" t="str">
         <v>01-01, 01-05</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C58" t="str">
         <v>Some Basic Terminology, Federal Income Taxes</v>
       </c>
-      <c r="D4" t="str">
-        <v>Knowledge Application</v>
-      </c>
-      <c r="E4" t="str">
+      <c r="D58" t="str">
+        <v>Knowledge Application</v>
+      </c>
+      <c r="E58" t="str">
         <v>Global, Legal</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F58" t="str">
         <v>Decision Making</v>
       </c>
-      <c r="G4" t="str">
+      <c r="G58" t="str">
         <v>Understand</v>
       </c>
-      <c r="H4" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I4" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J4" t="str">
+      <c r="H58" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I58" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J58" t="str">
         <v>Static</v>
       </c>
-      <c r="K4" t="str">
+      <c r="K58" t="str">
         <v>Multiple Choice</v>
       </c>
-      <c r="L4" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M4" t="str">
+      <c r="L58" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M58" t="str">
         <v>01-01  Define tax, taxpayer, incidence, and jurisdiction.;01-05  Describe the taxes levied by the federal government.</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
+    <row r="59">
+      <c r="A59" t="str">
         <v>Problem 01-04 (Algo) [LO 1-2]</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B59" t="str">
         <v>01-02</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C59" t="str">
         <v>The Relationship between Base, Rate, and Revenue</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D59" t="str">
         <v>Analytical Thinking</v>
       </c>
-      <c r="E5" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G5" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H5" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I5" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J5" t="str">
+      <c r="E59" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F59" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G59" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H59" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I59" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J59" t="str">
         <v>Algorithimic</v>
       </c>
-      <c r="K5" t="str">
-        <v>Worksheet</v>
-      </c>
-      <c r="L5" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M5" t="str">
+      <c r="K59" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L59" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M59" t="str">
         <v>01-02  Express the relationship between tax base, rate, and revenue as a formula.</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
+    <row r="60">
+      <c r="A60" t="str">
         <v>Problem 01-04 (Static) [LO 1-2]</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B60" t="str">
         <v>01-02</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C60" t="str">
         <v>The Relationship between Base, Rate, and Revenue</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D60" t="str">
         <v>Analytical Thinking</v>
       </c>
-      <c r="E6" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F6" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G6" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H6" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I6" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J6" t="str">
+      <c r="E60" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F60" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G60" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H60" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I60" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J60" t="str">
         <v>Static</v>
       </c>
-      <c r="K6" t="str">
-        <v>Worksheet</v>
-      </c>
-      <c r="L6" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M6" t="str">
+      <c r="K60" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L60" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M60" t="str">
         <v>01-02  Express the relationship between tax base, rate, and revenue as a formula.</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
+    <row r="61">
+      <c r="A61" t="str">
         <v>Problem 01-05 (Algo) [LO 1-2, 1-3]</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B61" t="str">
         <v>01-02, 01-03</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C61" t="str">
         <v>Local Taxes</v>
       </c>
-      <c r="D7" t="str">
-        <v>Knowledge Application</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G7" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H7" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I7" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J7" t="str">
+      <c r="D61" t="str">
+        <v>Knowledge Application</v>
+      </c>
+      <c r="E61" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F61" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G61" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H61" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I61" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J61" t="str">
         <v>Algorithimic</v>
       </c>
-      <c r="K7" t="str">
-        <v>Worksheet</v>
-      </c>
-      <c r="L7" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M7" t="str">
+      <c r="K61" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L61" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M61" t="str">
         <v>01-02  Express the relationship between tax base, rate, and revenue as a formula.;01-03  Describe the taxes levied by local governments.</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
+    <row r="62">
+      <c r="A62" t="str">
         <v>Problem 01-05 (Static) [LO 1-2, 1-3]</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B62" t="str">
         <v>01-02, 01-03</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C62" t="str">
         <v>Local Taxes</v>
       </c>
-      <c r="D8" t="str">
-        <v>Knowledge Application</v>
-      </c>
-      <c r="E8" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F8" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G8" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H8" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I8" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J8" t="str">
+      <c r="D62" t="str">
+        <v>Knowledge Application</v>
+      </c>
+      <c r="E62" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F62" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G62" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H62" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I62" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J62" t="str">
         <v>Static</v>
       </c>
-      <c r="K8" t="str">
-        <v>Worksheet</v>
-      </c>
-      <c r="L8" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M8" t="str">
+      <c r="K62" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L62" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M62" t="str">
         <v>01-02  Express the relationship between tax base, rate, and revenue as a formula.;01-03  Describe the taxes levied by local governments.</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="str">
+    <row r="63">
+      <c r="A63" t="str">
         <v>Problem 01-06 (Algo) [LO 1-2, 1-3]</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B63" t="str">
         <v>01-02, 01-03</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C63" t="str">
         <v>Local Taxes</v>
       </c>
-      <c r="D9" t="str">
-        <v>Knowledge Application</v>
-      </c>
-      <c r="E9" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F9" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G9" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H9" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I9" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J9" t="str">
+      <c r="D63" t="str">
+        <v>Knowledge Application</v>
+      </c>
+      <c r="E63" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F63" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G63" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H63" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I63" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J63" t="str">
         <v>Algorithimic</v>
       </c>
-      <c r="K9" t="str">
-        <v>Worksheet</v>
-      </c>
-      <c r="L9" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M9" t="str">
+      <c r="K63" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L63" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M63" t="str">
         <v>01-02  Express the relationship between tax base, rate, and revenue as a formula.;01-03  Describe the taxes levied by local governments.</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="str">
+    <row r="64">
+      <c r="A64" t="str">
         <v>Problem 01-06 (Static) [LO 1-2, 1-3]</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B64" t="str">
         <v>01-02, 01-03</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C64" t="str">
         <v>Local Taxes</v>
       </c>
-      <c r="D10" t="str">
-        <v>Knowledge Application</v>
-      </c>
-      <c r="E10" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F10" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G10" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H10" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I10" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J10" t="str">
+      <c r="D64" t="str">
+        <v>Knowledge Application</v>
+      </c>
+      <c r="E64" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F64" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G64" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H64" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I64" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J64" t="str">
         <v>Static</v>
       </c>
-      <c r="K10" t="str">
-        <v>Worksheet</v>
-      </c>
-      <c r="L10" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M10" t="str">
+      <c r="K64" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L64" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M64" t="str">
         <v>01-02  Express the relationship between tax base, rate, and revenue as a formula.;01-03  Describe the taxes levied by local governments.</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="str">
+    <row r="65">
+      <c r="A65" t="str">
         <v>Problem 01-07 (Algo) [LO 1-3]</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B65" t="str">
         <v>01-03</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C65" t="str">
         <v>Local Taxes</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D65" t="str">
         <v>Analytical Thinking</v>
       </c>
-      <c r="E11" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F11" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G11" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H11" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I11" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J11" t="str">
+      <c r="E65" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F65" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G65" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H65" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I65" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J65" t="str">
         <v>Algorithimic</v>
       </c>
-      <c r="K11" t="str">
-        <v>Worksheet</v>
-      </c>
-      <c r="L11" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M11" t="str">
+      <c r="K65" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L65" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M65" t="str">
         <v>01-03  Describe the taxes levied by local governments.</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="str">
+    <row r="66">
+      <c r="A66" t="str">
         <v>Problem 01-07 (Static) [LO 1-3]</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B66" t="str">
         <v>01-03</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C66" t="str">
         <v>Local Taxes</v>
       </c>
-      <c r="D12" t="str">
+      <c r="D66" t="str">
         <v>Analytical Thinking</v>
       </c>
-      <c r="E12" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F12" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G12" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H12" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I12" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J12" t="str">
+      <c r="E66" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F66" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G66" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H66" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I66" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J66" t="str">
         <v>Static</v>
       </c>
-      <c r="K12" t="str">
-        <v>Worksheet</v>
-      </c>
-      <c r="L12" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M12" t="str">
+      <c r="K66" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L66" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M66" t="str">
         <v>01-03  Describe the taxes levied by local governments.</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="str">
+    <row r="67">
+      <c r="A67" t="str">
         <v>Problem 01-08 (Algo) [LO 1-4]</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B67" t="str">
         <v>01-04</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C67" t="str">
         <v>Retail Sales, Use, and Excise Taxes</v>
       </c>
-      <c r="D13" t="str">
+      <c r="D67" t="str">
         <v>Analytical Thinking</v>
       </c>
-      <c r="E13" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F13" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G13" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H13" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I13" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J13" t="str">
+      <c r="E67" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F67" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G67" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H67" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I67" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J67" t="str">
         <v>Algorithimic</v>
       </c>
-      <c r="K13" t="str">
-        <v>Worksheet</v>
-      </c>
-      <c r="L13" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M13" t="str">
+      <c r="K67" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L67" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M67" t="str">
         <v>01-04  Describe the taxes levied by state governments.</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="str">
+    <row r="68">
+      <c r="A68" t="str">
         <v>Problem 01-08 (Static) [LO 1-4]</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B68" t="str">
         <v>01-04</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C68" t="str">
         <v>Retail Sales, Use, and Excise Taxes</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D68" t="str">
         <v>Analytical Thinking</v>
       </c>
-      <c r="E14" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F14" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G14" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H14" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I14" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J14" t="str">
+      <c r="E68" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F68" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G68" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H68" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I68" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J68" t="str">
         <v>Static</v>
       </c>
-      <c r="K14" t="str">
-        <v>Worksheet</v>
-      </c>
-      <c r="L14" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M14" t="str">
+      <c r="K68" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L68" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M68" t="str">
         <v>01-04  Describe the taxes levied by state governments.</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="str">
+    <row r="69">
+      <c r="A69" t="str">
         <v>Problem 01-09 (Algo) [LO 1-4]</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B69" t="str">
         <v>01-04</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C69" t="str">
         <v>Retail Sales, Use, and Excise Taxes</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D69" t="str">
         <v>Analytical Thinking</v>
       </c>
-      <c r="E15" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F15" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G15" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H15" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I15" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J15" t="str">
+      <c r="E69" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F69" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G69" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H69" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I69" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J69" t="str">
         <v>Algorithimic</v>
       </c>
-      <c r="K15" t="str">
-        <v>Worksheet</v>
-      </c>
-      <c r="L15" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M15" t="str">
+      <c r="K69" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L69" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M69" t="str">
         <v>01-04  Describe the taxes levied by state governments.</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="str">
+    <row r="70">
+      <c r="A70" t="str">
         <v>Problem 01-09 (Static) [LO 1-4]</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B70" t="str">
         <v>01-04</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C70" t="str">
         <v>Retail Sales, Use, and Excise Taxes</v>
       </c>
-      <c r="D16" t="str">
+      <c r="D70" t="str">
         <v>Analytical Thinking</v>
       </c>
-      <c r="E16" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F16" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G16" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H16" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I16" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J16" t="str">
+      <c r="E70" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F70" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G70" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H70" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I70" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J70" t="str">
         <v>Static</v>
       </c>
-      <c r="K16" t="str">
-        <v>Worksheet</v>
-      </c>
-      <c r="L16" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M16" t="str">
+      <c r="K70" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L70" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M70" t="str">
         <v>01-04  Describe the taxes levied by state governments.</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="str">
+    <row r="71">
+      <c r="A71" t="str">
         <v>Problem 01-10 (Algo) [LO 1-4]</v>
       </c>
-      <c r="B17" t="str">
+      <c r="B71" t="str">
         <v>01-04</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C71" t="str">
         <v>Retail Sales, Use, and Excise Taxes</v>
       </c>
-      <c r="D17" t="str">
-        <v>Knowledge Application</v>
-      </c>
-      <c r="E17" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F17" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G17" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H17" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I17" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J17" t="str">
+      <c r="D71" t="str">
+        <v>Knowledge Application</v>
+      </c>
+      <c r="E71" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F71" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G71" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H71" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I71" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J71" t="str">
         <v>Algorithimic</v>
       </c>
-      <c r="K17" t="str">
-        <v>Worksheet</v>
-      </c>
-      <c r="L17" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M17" t="str">
+      <c r="K71" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L71" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M71" t="str">
         <v>01-04  Describe the taxes levied by state governments.</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="str">
+    <row r="72">
+      <c r="A72" t="str">
         <v>Problem 01-10 (Static) [LO 1-4]</v>
       </c>
-      <c r="B18" t="str">
+      <c r="B72" t="str">
         <v>01-04</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C72" t="str">
         <v>Retail Sales, Use, and Excise Taxes</v>
       </c>
-      <c r="D18" t="str">
-        <v>Knowledge Application</v>
-      </c>
-      <c r="E18" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F18" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G18" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H18" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I18" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J18" t="str">
+      <c r="D72" t="str">
+        <v>Knowledge Application</v>
+      </c>
+      <c r="E72" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F72" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G72" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H72" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I72" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J72" t="str">
         <v>Static</v>
       </c>
-      <c r="K18" t="str">
-        <v>Worksheet</v>
-      </c>
-      <c r="L18" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M18" t="str">
+      <c r="K72" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L72" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M72" t="str">
         <v>01-04  Describe the taxes levied by state governments.</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="str">
+    <row r="73">
+      <c r="A73" t="str">
         <v>Problem 01-11 (Algo) [LO 1-4]</v>
       </c>
-      <c r="B19" t="str">
+      <c r="B73" t="str">
         <v>01-04</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C73" t="str">
         <v>Retail Sales, Use, and Excise Taxes</v>
       </c>
-      <c r="D19" t="str">
-        <v>Knowledge Application</v>
-      </c>
-      <c r="E19" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F19" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G19" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H19" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I19" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J19" t="str">
+      <c r="D73" t="str">
+        <v>Knowledge Application</v>
+      </c>
+      <c r="E73" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F73" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G73" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H73" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I73" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J73" t="str">
         <v>Algorithimic</v>
       </c>
-      <c r="K19" t="str">
-        <v>Worksheet</v>
-      </c>
-      <c r="L19" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M19" t="str">
+      <c r="K73" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L73" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M73" t="str">
         <v>01-04  Describe the taxes levied by state governments.</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="str">
+    <row r="74">
+      <c r="A74" t="str">
         <v>Problem 01-11 (Static) [LO 1-4]</v>
       </c>
-      <c r="B20" t="str">
+      <c r="B74" t="str">
         <v>01-04</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C74" t="str">
         <v>Retail Sales, Use, and Excise Taxes</v>
       </c>
-      <c r="D20" t="str">
-        <v>Knowledge Application</v>
-      </c>
-      <c r="E20" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F20" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G20" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H20" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I20" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J20" t="str">
+      <c r="D74" t="str">
+        <v>Knowledge Application</v>
+      </c>
+      <c r="E74" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F74" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G74" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H74" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I74" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J74" t="str">
         <v>Static</v>
       </c>
-      <c r="K20" t="str">
-        <v>Worksheet</v>
-      </c>
-      <c r="L20" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M20" t="str">
+      <c r="K74" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L74" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M74" t="str">
         <v>01-04  Describe the taxes levied by state governments.</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="str">
+    <row r="75">
+      <c r="A75" t="str">
         <v>Problem 01-12 (Algo) [LO 1-4]</v>
       </c>
-      <c r="B21" t="str">
+      <c r="B75" t="str">
         <v>01-04</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C75" t="str">
         <v>Retail Sales, Use, and Excise Taxes</v>
       </c>
-      <c r="D21" t="str">
-        <v>Knowledge Application</v>
-      </c>
-      <c r="E21" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F21" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G21" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H21" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I21" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J21" t="str">
+      <c r="D75" t="str">
+        <v>Knowledge Application</v>
+      </c>
+      <c r="E75" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F75" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G75" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H75" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I75" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J75" t="str">
         <v>Algorithimic</v>
       </c>
-      <c r="K21" t="str">
-        <v>Worksheet</v>
-      </c>
-      <c r="L21" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M21" t="str">
+      <c r="K75" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L75" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M75" t="str">
         <v>01-04  Describe the taxes levied by state governments.</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="str">
+    <row r="76">
+      <c r="A76" t="str">
         <v>Problem 01-12 (Static) [LO 1-4]</v>
       </c>
-      <c r="B22" t="str">
+      <c r="B76" t="str">
         <v>01-04</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C76" t="str">
         <v>Retail Sales, Use, and Excise Taxes</v>
       </c>
-      <c r="D22" t="str">
-        <v>Knowledge Application</v>
-      </c>
-      <c r="E22" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F22" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G22" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H22" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I22" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J22" t="str">
+      <c r="D76" t="str">
+        <v>Knowledge Application</v>
+      </c>
+      <c r="E76" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F76" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G76" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H76" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I76" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J76" t="str">
         <v>Static</v>
       </c>
-      <c r="K22" t="str">
-        <v>Worksheet</v>
-      </c>
-      <c r="L22" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M22" t="str">
+      <c r="K76" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L76" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M76" t="str">
         <v>01-04  Describe the taxes levied by state governments.</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="str">
+    <row r="77">
+      <c r="A77" t="str">
         <v>Problem 01-13 (Static) [LO 1-3,1-4]</v>
       </c>
-      <c r="B23" t="str">
+      <c r="B77" t="str">
         <v>01-03, 01-04</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C77" t="str">
         <v>Local Taxes, Retail Sales, Use, and Excise Taxes</v>
       </c>
-      <c r="D23" t="str">
+      <c r="D77" t="str">
         <v>Analytical Thinking</v>
       </c>
-      <c r="E23" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F23" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G23" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H23" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I23" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J23" t="str">
+      <c r="E77" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F77" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G77" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H77" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I77" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J77" t="str">
         <v>Static</v>
       </c>
-      <c r="K23" t="str">
+      <c r="K77" t="str">
         <v>Multiple Choice</v>
       </c>
-      <c r="L23" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M23" t="str">
+      <c r="L77" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M77" t="str">
         <v>01-03  Describe the taxes levied by local governments.;01-04  Describe the taxes levied by state governments.</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="str">
+    <row r="78">
+      <c r="A78" t="str">
         <v>Problem 01-14 (Algo) [LO 1-6]</v>
       </c>
-      <c r="B24" t="str">
+      <c r="B78" t="str">
         <v>01-06</v>
       </c>
-      <c r="C24" t="str">
+      <c r="C78" t="str">
         <v>Taxes Levied by Foreign Jurisdictions</v>
       </c>
-      <c r="D24" t="str">
-        <v>Knowledge Application</v>
-      </c>
-      <c r="E24" t="str">
+      <c r="D78" t="str">
+        <v>Knowledge Application</v>
+      </c>
+      <c r="E78" t="str">
         <v>Critical Thinking, Global</v>
       </c>
-      <c r="F24" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G24" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H24" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I24" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J24" t="str">
+      <c r="F78" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G78" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H78" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I78" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J78" t="str">
         <v>Algorithimic</v>
       </c>
-      <c r="K24" t="str">
-        <v>Worksheet</v>
-      </c>
-      <c r="L24" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M24" t="str">
+      <c r="K78" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L78" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M78" t="str">
         <v>01-06  Explain the structure of the value-added tax levied by foreign governments.</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="str">
+    <row r="79">
+      <c r="A79" t="str">
         <v>Problem 01-14 (Static) [LO 1-6]</v>
       </c>
-      <c r="B25" t="str">
+      <c r="B79" t="str">
         <v>01-06</v>
       </c>
-      <c r="C25" t="str">
+      <c r="C79" t="str">
         <v>Taxes Levied by Foreign Jurisdictions</v>
       </c>
-      <c r="D25" t="str">
-        <v>Knowledge Application</v>
-      </c>
-      <c r="E25" t="str">
+      <c r="D79" t="str">
+        <v>Knowledge Application</v>
+      </c>
+      <c r="E79" t="str">
         <v>Critical Thinking, Global</v>
       </c>
-      <c r="F25" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G25" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H25" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I25" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J25" t="str">
+      <c r="F79" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G79" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H79" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I79" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J79" t="str">
         <v>Static</v>
       </c>
-      <c r="K25" t="str">
-        <v>Worksheet</v>
-      </c>
-      <c r="L25" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M25" t="str">
+      <c r="K79" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L79" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M79" t="str">
         <v>01-06  Explain the structure of the value-added tax levied by foreign governments.</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="str">
+    <row r="80">
+      <c r="A80" t="str">
         <v>Problem 01-15 (Algo) [LO 1-6]</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B80" t="str">
         <v>01-06</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C80" t="str">
         <v>Taxes Levied by Foreign Jurisdictions</v>
       </c>
-      <c r="D26" t="str">
-        <v>Knowledge Application</v>
-      </c>
-      <c r="E26" t="str">
+      <c r="D80" t="str">
+        <v>Knowledge Application</v>
+      </c>
+      <c r="E80" t="str">
         <v>Critical Thinking, Global</v>
       </c>
-      <c r="F26" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G26" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H26" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I26" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J26" t="str">
+      <c r="F80" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G80" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H80" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I80" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J80" t="str">
         <v>Algorithimic</v>
       </c>
-      <c r="K26" t="str">
+      <c r="K80" t="str">
         <v>WK</v>
       </c>
-      <c r="L26" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M26" t="str">
+      <c r="L80" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M80" t="str">
         <v>01-06  Explain the structure of the value-added tax levied by foreign governments.</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="str">
+    <row r="81">
+      <c r="A81" t="str">
         <v>Problem 01-15 (Static) [LO 1-6]</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B81" t="str">
         <v>01-06</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C81" t="str">
         <v>Taxes Levied by Foreign Jurisdictions</v>
       </c>
-      <c r="D27" t="str">
-        <v>Knowledge Application</v>
-      </c>
-      <c r="E27" t="str">
+      <c r="D81" t="str">
+        <v>Knowledge Application</v>
+      </c>
+      <c r="E81" t="str">
         <v>Critical Thinking, Global</v>
       </c>
-      <c r="F27" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G27" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H27" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I27" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J27" t="str">
+      <c r="F81" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G81" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H81" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I81" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J81" t="str">
         <v>Static</v>
       </c>
-      <c r="K27" t="str">
+      <c r="K81" t="str">
         <v>WK</v>
       </c>
-      <c r="L27" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M27" t="str">
+      <c r="L81" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M81" t="str">
         <v>01-06  Explain the structure of the value-added tax levied by foreign governments.</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="str">
+    <row r="82">
+      <c r="A82" t="str">
         <v>Problem 02-01 (Algo) [LO 2-1]</v>
       </c>
-      <c r="B28" t="str">
+      <c r="B82" t="str">
         <v>02-01</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C82" t="str">
         <v>Static versus Dynamic Forecasting</v>
       </c>
-      <c r="D28" t="str">
-        <v>Knowledge Application</v>
-      </c>
-      <c r="E28" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F28" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G28" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H28" t="str">
+      <c r="D82" t="str">
+        <v>Knowledge Application</v>
+      </c>
+      <c r="E82" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F82" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G82" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H82" t="str">
         <v>1 Easy</v>
       </c>
-      <c r="I28" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J28" t="str">
+      <c r="I82" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J82" t="str">
         <v>Algorithimic</v>
       </c>
-      <c r="K28" t="str">
-        <v>Worksheet</v>
-      </c>
-      <c r="L28" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M28" t="str">
+      <c r="K82" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L82" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M82" t="str">
         <v>02-01  Explain the concept of sufficiency of a good tax.</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="str">
+    <row r="83">
+      <c r="A83" t="str">
         <v>Problem 02-01 (Static) [LO 2-1]</v>
       </c>
-      <c r="B29" t="str">
+      <c r="B83" t="str">
         <v>02-01</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C83" t="str">
         <v>Static versus Dynamic Forecasting</v>
       </c>
-      <c r="D29" t="str">
-        <v>Knowledge Application</v>
-      </c>
-      <c r="E29" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F29" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G29" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H29" t="str">
+      <c r="D83" t="str">
+        <v>Knowledge Application</v>
+      </c>
+      <c r="E83" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F83" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G83" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H83" t="str">
         <v>1 Easy</v>
       </c>
-      <c r="I29" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J29" t="str">
+      <c r="I83" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J83" t="str">
         <v>Static</v>
       </c>
-      <c r="K29" t="str">
-        <v>Worksheet</v>
-      </c>
-      <c r="L29" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M29" t="str">
+      <c r="K83" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L83" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M83" t="str">
         <v>02-01  Explain the concept of sufficiency of a good tax.</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="str">
+    <row r="84">
+      <c r="A84" t="str">
         <v>Problem 02-02 (Algo) [LO 2-1]</v>
       </c>
-      <c r="B30" t="str">
+      <c r="B84" t="str">
         <v>02-01</v>
       </c>
-      <c r="C30" t="str">
+      <c r="C84" t="str">
         <v>Static versus Dynamic Forecasting</v>
       </c>
-      <c r="D30" t="str">
-        <v>Knowledge Application</v>
-      </c>
-      <c r="E30" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F30" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G30" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H30" t="str">
+      <c r="D84" t="str">
+        <v>Knowledge Application</v>
+      </c>
+      <c r="E84" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F84" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G84" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H84" t="str">
         <v>1 Easy</v>
       </c>
-      <c r="I30" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J30" t="str">
+      <c r="I84" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J84" t="str">
         <v>Algorithimic</v>
       </c>
-      <c r="K30" t="str">
-        <v>Worksheet</v>
-      </c>
-      <c r="L30" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M30" t="str">
+      <c r="K84" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L84" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M84" t="str">
         <v>02-01  Explain the concept of sufficiency of a good tax.</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="str">
+    <row r="85">
+      <c r="A85" t="str">
         <v>Problem 02-02 (Static) [LO 2-1]</v>
       </c>
-      <c r="B31" t="str">
+      <c r="B85" t="str">
         <v>02-01</v>
       </c>
-      <c r="C31" t="str">
+      <c r="C85" t="str">
         <v>Static versus Dynamic Forecasting</v>
       </c>
-      <c r="D31" t="str">
-        <v>Knowledge Application</v>
-      </c>
-      <c r="E31" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F31" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G31" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H31" t="str">
+      <c r="D85" t="str">
+        <v>Knowledge Application</v>
+      </c>
+      <c r="E85" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F85" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G85" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H85" t="str">
         <v>1 Easy</v>
       </c>
-      <c r="I31" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J31" t="str">
+      <c r="I85" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J85" t="str">
         <v>Static</v>
       </c>
-      <c r="K31" t="str">
-        <v>Worksheet</v>
-      </c>
-      <c r="L31" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M31" t="str">
+      <c r="K85" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L85" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M85" t="str">
         <v>02-01  Explain the concept of sufficiency of a good tax.</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="str">
+    <row r="86">
+      <c r="A86" t="str">
         <v>Problem 02-03 (Algo) [LO 2-1]</v>
       </c>
-      <c r="B32" t="str">
+      <c r="B86" t="str">
         <v>02-01</v>
       </c>
-      <c r="C32" t="str">
+      <c r="C86" t="str">
         <v>Static versus Dynamic Forecasting</v>
       </c>
-      <c r="D32" t="str">
-        <v>Knowledge Application</v>
-      </c>
-      <c r="E32" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F32" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G32" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H32" t="str">
+      <c r="D86" t="str">
+        <v>Knowledge Application</v>
+      </c>
+      <c r="E86" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F86" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G86" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H86" t="str">
         <v>1 Easy</v>
       </c>
-      <c r="I32" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J32" t="str">
+      <c r="I86" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J86" t="str">
         <v>Algorithimic</v>
       </c>
-      <c r="K32" t="str">
+      <c r="K86" t="str">
         <v>WK</v>
       </c>
-      <c r="L32" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M32" t="str">
+      <c r="L86" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M86" t="str">
         <v>02-01  Explain the concept of sufficiency of a good tax.</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="str">
+    <row r="87">
+      <c r="A87" t="str">
         <v>Problem 02-03 (Static) [LO 2-1]</v>
       </c>
-      <c r="B33" t="str">
+      <c r="B87" t="str">
         <v>02-01</v>
       </c>
-      <c r="C33" t="str">
+      <c r="C87" t="str">
         <v>Static versus Dynamic Forecasting</v>
       </c>
-      <c r="D33" t="str">
-        <v>Knowledge Application</v>
-      </c>
-      <c r="E33" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F33" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G33" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H33" t="str">
+      <c r="D87" t="str">
+        <v>Knowledge Application</v>
+      </c>
+      <c r="E87" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F87" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G87" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H87" t="str">
         <v>1 Easy</v>
       </c>
-      <c r="I33" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J33" t="str">
+      <c r="I87" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J87" t="str">
         <v>Static</v>
       </c>
-      <c r="K33" t="str">
+      <c r="K87" t="str">
         <v>WK</v>
       </c>
-      <c r="L33" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M33" t="str">
+      <c r="L87" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M87" t="str">
         <v>02-01  Explain the concept of sufficiency of a good tax.</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="str">
+    <row r="88">
+      <c r="A88" t="str">
         <v>Problem 02-04 (Algo) [LO 2-1, 2-2]</v>
       </c>
-      <c r="B34" t="str">
+      <c r="B88" t="str">
         <v>02-01, 02-02</v>
       </c>
-      <c r="C34" t="str">
+      <c r="C88" t="str">
         <v>Static versus Dynamic Forecasting, Behavioral Responses to Rate Changes</v>
       </c>
-      <c r="D34" t="str">
+      <c r="D88" t="str">
         <v>Analytical Thinking</v>
       </c>
-      <c r="E34" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F34" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G34" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H34" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I34" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J34" t="str">
+      <c r="E88" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F88" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G88" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H88" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I88" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J88" t="str">
         <v>Algorithimic</v>
       </c>
-      <c r="K34" t="str">
+      <c r="K88" t="str">
         <v>WK</v>
       </c>
-      <c r="L34" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M34" t="str">
+      <c r="L88" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M88" t="str">
         <v>02-01  Explain the concept of sufficiency of a good tax.;02-02  Differentiate between the income effect and the substitution effect.</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="str">
+    <row r="89">
+      <c r="A89" t="str">
         <v>Problem 02-04 (Static) [LO 2-1, 2-2]</v>
       </c>
-      <c r="B35" t="str">
+      <c r="B89" t="str">
         <v>02-01, 02-02</v>
       </c>
-      <c r="C35" t="str">
+      <c r="C89" t="str">
         <v>Static versus Dynamic Forecasting, Behavioral Responses to Rate Changes</v>
       </c>
-      <c r="D35" t="str">
+      <c r="D89" t="str">
         <v>Analytical Thinking</v>
       </c>
-      <c r="E35" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F35" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G35" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H35" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I35" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J35" t="str">
+      <c r="E89" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F89" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G89" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H89" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I89" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J89" t="str">
         <v>Static</v>
       </c>
-      <c r="K35" t="str">
+      <c r="K89" t="str">
         <v>WK</v>
       </c>
-      <c r="L35" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M35" t="str">
+      <c r="L89" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M89" t="str">
         <v>02-01  Explain the concept of sufficiency of a good tax.;02-02  Differentiate between the income effect and the substitution effect.</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="str">
+    <row r="90">
+      <c r="A90" t="str">
         <v>Problem 02-05 (Algo) [LO 2-2]</v>
       </c>
-      <c r="B36" t="str">
+      <c r="B90" t="str">
         <v>02-02</v>
       </c>
-      <c r="C36" t="str">
+      <c r="C90" t="str">
         <v>Behavioral Responses to Rate Changes</v>
       </c>
-      <c r="D36" t="str">
+      <c r="D90" t="str">
         <v>Analytical Thinking</v>
       </c>
-      <c r="E36" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F36" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G36" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H36" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I36" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J36" t="str">
+      <c r="E90" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F90" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G90" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H90" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I90" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J90" t="str">
         <v>Algorithimic</v>
       </c>
-      <c r="K36" t="str">
+      <c r="K90" t="str">
         <v>WK</v>
       </c>
-      <c r="L36" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M36" t="str">
+      <c r="L90" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M90" t="str">
         <v>02-02  Differentiate between the income effect and the substitution effect.</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="str">
+    <row r="91">
+      <c r="A91" t="str">
         <v>Problem 02-05 (Static) [LO 2-2]</v>
       </c>
-      <c r="B37" t="str">
+      <c r="B91" t="str">
         <v>02-02</v>
       </c>
-      <c r="C37" t="str">
+      <c r="C91" t="str">
         <v>Behavioral Responses to Rate Changes</v>
       </c>
-      <c r="D37" t="str">
+      <c r="D91" t="str">
         <v>Analytical Thinking</v>
       </c>
-      <c r="E37" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F37" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G37" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H37" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I37" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J37" t="str">
+      <c r="E91" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F91" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G91" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H91" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I91" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J91" t="str">
         <v>Static</v>
       </c>
-      <c r="K37" t="str">
+      <c r="K91" t="str">
         <v>WK</v>
       </c>
-      <c r="L37" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M37" t="str">
+      <c r="L91" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M91" t="str">
         <v>02-02  Differentiate between the income effect and the substitution effect.</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="str">
+    <row r="92">
+      <c r="A92" t="str">
         <v>Problem 02-06 (Algo) [LO 2-2]</v>
       </c>
-      <c r="B38" t="str">
+      <c r="B92" t="str">
         <v>02-02</v>
       </c>
-      <c r="C38" t="str">
+      <c r="C92" t="str">
         <v>Behavioral Responses to Rate Changes</v>
       </c>
-      <c r="D38" t="str">
-        <v>Knowledge Application</v>
-      </c>
-      <c r="E38" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F38" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G38" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H38" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I38" t="str">
+      <c r="D92" t="str">
+        <v>Knowledge Application</v>
+      </c>
+      <c r="E92" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F92" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G92" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H92" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I92" t="str">
         <v>10 min.</v>
       </c>
-      <c r="J38" t="str">
+      <c r="J92" t="str">
         <v>Algorithimic</v>
       </c>
-      <c r="K38" t="str">
+      <c r="K92" t="str">
         <v>WK</v>
       </c>
-      <c r="L38" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M38" t="str">
+      <c r="L92" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M92" t="str">
         <v>02-02  Differentiate between the income effect and the substitution effect.</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="str">
+    <row r="93">
+      <c r="A93" t="str">
         <v>Problem 02-06 (Static) [LO 2-2]</v>
       </c>
-      <c r="B39" t="str">
+      <c r="B93" t="str">
         <v>02-02</v>
       </c>
-      <c r="C39" t="str">
+      <c r="C93" t="str">
         <v>Behavioral Responses to Rate Changes</v>
       </c>
-      <c r="D39" t="str">
-        <v>Knowledge Application</v>
-      </c>
-      <c r="E39" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F39" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G39" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H39" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I39" t="str">
+      <c r="D93" t="str">
+        <v>Knowledge Application</v>
+      </c>
+      <c r="E93" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F93" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G93" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H93" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I93" t="str">
         <v>10 min.</v>
       </c>
-      <c r="J39" t="str">
+      <c r="J93" t="str">
         <v>Static</v>
       </c>
-      <c r="K39" t="str">
+      <c r="K93" t="str">
         <v>WK</v>
       </c>
-      <c r="L39" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M39" t="str">
+      <c r="L93" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M93" t="str">
         <v>02-02  Differentiate between the income effect and the substitution effect.</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="str">
+    <row r="94">
+      <c r="A94" t="str">
         <v>Problem 02-07 (Algo) [LO 2-2]</v>
       </c>
-      <c r="B40" t="str">
+      <c r="B94" t="str">
         <v>02-02</v>
       </c>
-      <c r="C40" t="str">
+      <c r="C94" t="str">
         <v>Behavioral Responses to Rate Changes</v>
       </c>
-      <c r="D40" t="str">
-        <v>Knowledge Application</v>
-      </c>
-      <c r="E40" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F40" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G40" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H40" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I40" t="str">
+      <c r="D94" t="str">
+        <v>Knowledge Application</v>
+      </c>
+      <c r="E94" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F94" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G94" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H94" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I94" t="str">
         <v>10 min.</v>
       </c>
-      <c r="J40" t="str">
+      <c r="J94" t="str">
         <v>Algorithimic</v>
       </c>
-      <c r="K40" t="str">
+      <c r="K94" t="str">
         <v>WK</v>
       </c>
-      <c r="L40" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M40" t="str">
+      <c r="L94" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M94" t="str">
         <v>02-02  Differentiate between the income effect and the substitution effect.</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="str">
+    <row r="95">
+      <c r="A95" t="str">
         <v>Problem 02-07 (Static) [LO 2-2]</v>
       </c>
-      <c r="B41" t="str">
+      <c r="B95" t="str">
         <v>02-02</v>
       </c>
-      <c r="C41" t="str">
+      <c r="C95" t="str">
         <v>Behavioral Responses to Rate Changes</v>
       </c>
-      <c r="D41" t="str">
-        <v>Knowledge Application</v>
-      </c>
-      <c r="E41" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F41" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G41" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H41" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I41" t="str">
+      <c r="D95" t="str">
+        <v>Knowledge Application</v>
+      </c>
+      <c r="E95" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F95" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G95" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H95" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I95" t="str">
         <v>10 min.</v>
       </c>
-      <c r="J41" t="str">
+      <c r="J95" t="str">
         <v>Static</v>
       </c>
-      <c r="K41" t="str">
+      <c r="K95" t="str">
         <v>WK</v>
       </c>
-      <c r="L41" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M41" t="str">
+      <c r="L95" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M95" t="str">
         <v>02-02  Differentiate between the income effect and the substitution effect.</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="str">
+    <row r="96">
+      <c r="A96" t="str">
         <v>Problem 02-08 (Algo) [LO 2-6, 2-7]</v>
       </c>
-      <c r="B42" t="str">
+      <c r="B96" t="str">
         <v>02-06, 02-07</v>
       </c>
-      <c r="C42" t="str">
+      <c r="C96" t="str">
         <v>Regressive Taxes, Marginal and Average Tax Rates</v>
       </c>
-      <c r="D42" t="str">
+      <c r="D96" t="str">
         <v>Analytical Thinking</v>
       </c>
-      <c r="E42" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F42" t="str">
+      <c r="E96" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F96" t="str">
         <v>Decision Making</v>
       </c>
-      <c r="G42" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H42" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I42" t="str">
+      <c r="G96" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H96" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I96" t="str">
         <v>10 min.</v>
       </c>
-      <c r="J42" t="str">
+      <c r="J96" t="str">
         <v>Algorithimic</v>
       </c>
-      <c r="K42" t="str">
+      <c r="K96" t="str">
         <v>WK</v>
       </c>
-      <c r="L42" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M42" t="str">
+      <c r="L96" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M96" t="str">
         <v>02-06  Differentiate between regressive, proportionate, and progressive rate structures.;02-07  Explain the difference between marginal and average tax rates.</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="str">
+    <row r="97">
+      <c r="A97" t="str">
         <v>Problem 02-08 (Static) [LO 2-6, 2-7]</v>
       </c>
-      <c r="B43" t="str">
+      <c r="B97" t="str">
         <v>02-06, 02-07</v>
       </c>
-      <c r="C43" t="str">
+      <c r="C97" t="str">
         <v>Regressive Taxes, Marginal and Average Tax Rates</v>
       </c>
-      <c r="D43" t="str">
+      <c r="D97" t="str">
         <v>Analytical Thinking</v>
       </c>
-      <c r="E43" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F43" t="str">
+      <c r="E97" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F97" t="str">
         <v>Decision Making</v>
       </c>
-      <c r="G43" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H43" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I43" t="str">
+      <c r="G97" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H97" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I97" t="str">
         <v>10 min.</v>
       </c>
-      <c r="J43" t="str">
+      <c r="J97" t="str">
         <v>Static</v>
       </c>
-      <c r="K43" t="str">
+      <c r="K97" t="str">
         <v>WK</v>
       </c>
-      <c r="L43" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M43" t="str">
+      <c r="L97" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M97" t="str">
         <v>02-06  Differentiate between regressive, proportionate, and progressive rate structures.;02-07  Explain the difference between marginal and average tax rates.</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="str">
+    <row r="98">
+      <c r="A98" t="str">
         <v>Problem 02-09 (Algo) [LO 2-6, 2-7]</v>
       </c>
-      <c r="B44" t="str">
+      <c r="B98" t="str">
         <v>02-06, 02-07</v>
       </c>
-      <c r="C44" t="str">
+      <c r="C98" t="str">
         <v>Regressive Taxes, Marginal and Average Tax Rates</v>
       </c>
-      <c r="D44" t="str">
+      <c r="D98" t="str">
         <v>Analytical Thinking</v>
       </c>
-      <c r="E44" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F44" t="str">
+      <c r="E98" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F98" t="str">
         <v>Decision Making</v>
       </c>
-      <c r="G44" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H44" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I44" t="str">
+      <c r="G98" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H98" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I98" t="str">
         <v>10 min.</v>
       </c>
-      <c r="J44" t="str">
+      <c r="J98" t="str">
         <v>Algorithimic</v>
       </c>
-      <c r="K44" t="str">
+      <c r="K98" t="str">
         <v>WK</v>
       </c>
-      <c r="L44" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M44" t="str">
+      <c r="L98" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M98" t="str">
         <v>02-06  Differentiate between regressive, proportionate, and progressive rate structures.;02-07  Explain the difference between marginal and average tax rates.</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="str">
+    <row r="99">
+      <c r="A99" t="str">
         <v>Problem 02-09 (Static) [LO 2-6, 2-7]</v>
       </c>
-      <c r="B45" t="str">
+      <c r="B99" t="str">
         <v>02-06, 02-07</v>
       </c>
-      <c r="C45" t="str">
+      <c r="C99" t="str">
         <v>Regressive Taxes, Marginal and Average Tax Rates</v>
       </c>
-      <c r="D45" t="str">
+      <c r="D99" t="str">
         <v>Analytical Thinking</v>
       </c>
-      <c r="E45" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F45" t="str">
+      <c r="E99" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F99" t="str">
         <v>Decision Making</v>
       </c>
-      <c r="G45" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H45" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I45" t="str">
+      <c r="G99" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H99" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I99" t="str">
         <v>10 min.</v>
       </c>
-      <c r="J45" t="str">
+      <c r="J99" t="str">
         <v>Static</v>
       </c>
-      <c r="K45" t="str">
+      <c r="K99" t="str">
         <v>WK</v>
       </c>
-      <c r="L45" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M45" t="str">
+      <c r="L99" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M99" t="str">
         <v>02-06  Differentiate between regressive, proportionate, and progressive rate structures.;02-07  Explain the difference between marginal and average tax rates.</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="str">
+    <row r="100">
+      <c r="A100" t="str">
         <v>Problem 02-10 (Algo) [LO 2-7]</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B100" t="str">
         <v>02-07</v>
       </c>
-      <c r="C46" t="str">
+      <c r="C100" t="str">
         <v>Marginal and Average Tax Rates</v>
       </c>
-      <c r="D46" t="str">
-        <v>Knowledge Application</v>
-      </c>
-      <c r="E46" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F46" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G46" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H46" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I46" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J46" t="str">
+      <c r="D100" t="str">
+        <v>Knowledge Application</v>
+      </c>
+      <c r="E100" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F100" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G100" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H100" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I100" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J100" t="str">
         <v>Algorithimic</v>
       </c>
-      <c r="K46" t="str">
+      <c r="K100" t="str">
         <v>WK</v>
       </c>
-      <c r="L46" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M46" t="str">
+      <c r="L100" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M100" t="str">
         <v>02-07  Explain the difference between marginal and average tax rates.</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="str">
+    <row r="101">
+      <c r="A101" t="str">
         <v>Problem 02-10 (Static) [LO 2-7]</v>
       </c>
-      <c r="B47" t="str">
+      <c r="B101" t="str">
         <v>02-07</v>
       </c>
-      <c r="C47" t="str">
+      <c r="C101" t="str">
         <v>Marginal and Average Tax Rates</v>
       </c>
-      <c r="D47" t="str">
-        <v>Knowledge Application</v>
-      </c>
-      <c r="E47" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F47" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G47" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H47" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I47" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J47" t="str">
+      <c r="D101" t="str">
+        <v>Knowledge Application</v>
+      </c>
+      <c r="E101" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F101" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G101" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H101" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I101" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J101" t="str">
         <v>Static</v>
       </c>
-      <c r="K47" t="str">
+      <c r="K101" t="str">
         <v>WK</v>
       </c>
-      <c r="L47" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M47" t="str">
+      <c r="L101" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M101" t="str">
         <v>02-07  Explain the difference between marginal and average tax rates.</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="str">
+    <row r="102">
+      <c r="A102" t="str">
         <v>Problem 02-11 (Algo) [LO 2-5]</v>
       </c>
-      <c r="B48" t="str">
+      <c r="B102" t="str">
         <v>02-05</v>
       </c>
-      <c r="C48" t="str">
+      <c r="C102" t="str">
         <v>Annual versus Lifetime Horizontal Equity</v>
       </c>
-      <c r="D48" t="str">
+      <c r="D102" t="str">
         <v>Analytical Thinking</v>
       </c>
-      <c r="E48" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F48" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G48" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H48" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I48" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J48" t="str">
+      <c r="E102" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F102" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G102" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H102" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I102" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J102" t="str">
         <v>Algorithimic</v>
       </c>
-      <c r="K48" t="str">
+      <c r="K102" t="str">
         <v>WK</v>
       </c>
-      <c r="L48" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M48" t="str">
+      <c r="L102" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M102" t="str">
         <v>02-05  Define horizontal and vertical equity.</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="str">
+    <row r="103">
+      <c r="A103" t="str">
         <v>Problem 02-11 (Static) [LO 2-5]</v>
       </c>
-      <c r="B49" t="str">
+      <c r="B103" t="str">
         <v>02-05</v>
       </c>
-      <c r="C49" t="str">
+      <c r="C103" t="str">
         <v>Annual versus Lifetime Horizontal Equity</v>
       </c>
-      <c r="D49" t="str">
+      <c r="D103" t="str">
         <v>Analytical Thinking</v>
       </c>
-      <c r="E49" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F49" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G49" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H49" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I49" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J49" t="str">
+      <c r="E103" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F103" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G103" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H103" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I103" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J103" t="str">
         <v>Static</v>
       </c>
-      <c r="K49" t="str">
+      <c r="K103" t="str">
         <v>WK</v>
       </c>
-      <c r="L49" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M49" t="str">
+      <c r="L103" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M103" t="str">
         <v>02-05  Define horizontal and vertical equity.</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="str">
+    <row r="104">
+      <c r="A104" t="str">
         <v>Problem 02-12 (Algo) [LO 2-7]</v>
       </c>
-      <c r="B50" t="str">
+      <c r="B104" t="str">
         <v>02-07</v>
       </c>
-      <c r="C50" t="str">
+      <c r="C104" t="str">
         <v>Marginal and Average Tax Rates</v>
       </c>
-      <c r="D50" t="str">
-        <v>Knowledge Application</v>
-      </c>
-      <c r="E50" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F50" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G50" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H50" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I50" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J50" t="str">
+      <c r="D104" t="str">
+        <v>Knowledge Application</v>
+      </c>
+      <c r="E104" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F104" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G104" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H104" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I104" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J104" t="str">
         <v>Algorithimic</v>
       </c>
-      <c r="K50" t="str">
+      <c r="K104" t="str">
         <v>WK</v>
       </c>
-      <c r="L50" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M50" t="str">
+      <c r="L104" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M104" t="str">
         <v>02-07  Explain the difference between marginal and average tax rates.</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="str">
+    <row r="105">
+      <c r="A105" t="str">
         <v>Problem 02-12 (Static) [LO 2-7]</v>
       </c>
-      <c r="B51" t="str">
+      <c r="B105" t="str">
         <v>02-07</v>
       </c>
-      <c r="C51" t="str">
+      <c r="C105" t="str">
         <v>Marginal and Average Tax Rates</v>
       </c>
-      <c r="D51" t="str">
-        <v>Knowledge Application</v>
-      </c>
-      <c r="E51" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F51" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G51" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H51" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I51" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J51" t="str">
+      <c r="D105" t="str">
+        <v>Knowledge Application</v>
+      </c>
+      <c r="E105" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F105" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G105" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H105" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I105" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J105" t="str">
         <v>Static</v>
       </c>
-      <c r="K51" t="str">
+      <c r="K105" t="str">
         <v>WK</v>
       </c>
-      <c r="L51" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M51" t="str">
+      <c r="L105" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M105" t="str">
         <v>02-07  Explain the difference between marginal and average tax rates.</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="str">
+    <row r="106">
+      <c r="A106" t="str">
         <v>Problem 02-13 (Algo) [LO 2-7]</v>
       </c>
-      <c r="B52" t="str">
+      <c r="B106" t="str">
         <v>02-07</v>
       </c>
-      <c r="C52" t="str">
+      <c r="C106" t="str">
         <v>Marginal and Average Tax Rates</v>
       </c>
-      <c r="D52" t="str">
-        <v>Knowledge Application</v>
-      </c>
-      <c r="E52" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F52" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G52" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H52" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I52" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J52" t="str">
+      <c r="D106" t="str">
+        <v>Knowledge Application</v>
+      </c>
+      <c r="E106" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F106" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G106" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H106" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I106" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J106" t="str">
         <v>Algorithimic</v>
       </c>
-      <c r="K52" t="str">
+      <c r="K106" t="str">
         <v>WK</v>
       </c>
-      <c r="L52" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M52" t="str">
+      <c r="L106" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M106" t="str">
         <v>02-07  Explain the difference between marginal and average tax rates.</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="str">
+    <row r="107">
+      <c r="A107" t="str">
         <v>Problem 02-13 (Static) [LO 2-7]</v>
       </c>
-      <c r="B53" t="str">
+      <c r="B107" t="str">
         <v>02-07</v>
       </c>
-      <c r="C53" t="str">
+      <c r="C107" t="str">
         <v>Marginal and Average Tax Rates</v>
       </c>
-      <c r="D53" t="str">
-        <v>Knowledge Application</v>
-      </c>
-      <c r="E53" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F53" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G53" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H53" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I53" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J53" t="str">
+      <c r="D107" t="str">
+        <v>Knowledge Application</v>
+      </c>
+      <c r="E107" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F107" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G107" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H107" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I107" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J107" t="str">
         <v>Static</v>
       </c>
-      <c r="K53" t="str">
+      <c r="K107" t="str">
         <v>WK</v>
       </c>
-      <c r="L53" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M53" t="str">
+      <c r="L107" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M107" t="str">
         <v>02-07  Explain the difference between marginal and average tax rates.</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="str">
+    <row r="108">
+      <c r="A108" t="str">
         <v>Problem 02-14 (Algo) [LO 2-5, 2-6]</v>
       </c>
-      <c r="B54" t="str">
+      <c r="B108" t="str">
         <v>02-06, 02-05</v>
       </c>
-      <c r="C54" t="str">
+      <c r="C108" t="str">
         <v>Income Tax Rate Structures, Annual versus Lifetime Horizontal Equity</v>
       </c>
-      <c r="D54" t="str">
+      <c r="D108" t="str">
         <v>Analytical Thinking</v>
       </c>
-      <c r="E54" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F54" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G54" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H54" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I54" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J54" t="str">
+      <c r="E108" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F108" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G108" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H108" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I108" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J108" t="str">
         <v>Algorithimic</v>
       </c>
-      <c r="K54" t="str">
+      <c r="K108" t="str">
         <v>WK</v>
       </c>
-      <c r="L54" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M54" t="str">
+      <c r="L108" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M108" t="str">
         <v>02-06  Differentiate between regressive, proportionate, and progressive rate structures.;02-05  Define horizontal and vertical equity.</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="str">
+    <row r="109">
+      <c r="A109" t="str">
         <v>Problem 02-14 (Static) [LO 2-5, 2-6]</v>
       </c>
-      <c r="B55" t="str">
+      <c r="B109" t="str">
         <v>02-06, 02-05</v>
       </c>
-      <c r="C55" t="str">
+      <c r="C109" t="str">
         <v>Income Tax Rate Structures, Annual versus Lifetime Horizontal Equity</v>
       </c>
-      <c r="D55" t="str">
+      <c r="D109" t="str">
         <v>Analytical Thinking</v>
       </c>
-      <c r="E55" t="str">
-        <v>Critical Thinking</v>
-      </c>
-      <c r="F55" t="str">
-        <v>Measurement</v>
-      </c>
-      <c r="G55" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H55" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I55" t="str">
-        <v>5 min.</v>
-      </c>
-      <c r="J55" t="str">
+      <c r="E109" t="str">
+        <v>Critical Thinking</v>
+      </c>
+      <c r="F109" t="str">
+        <v>Measurement</v>
+      </c>
+      <c r="G109" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H109" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I109" t="str">
+        <v>5 min.</v>
+      </c>
+      <c r="J109" t="str">
         <v>Static</v>
       </c>
-      <c r="K55" t="str">
+      <c r="K109" t="str">
         <v>WK</v>
       </c>
-      <c r="L55" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M55" t="str">
+      <c r="L109" t="str">
+        <v>automatic</v>
+      </c>
+      <c r="M109" t="str">
         <v>02-06  Differentiate between regressive, proportionate, and progressive rate structures.;02-05  Define horizontal and vertical equity.</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M55"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M109"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/Extracted.xlsx
+++ b/Extracted.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:M156"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -424,147 +424,2361 @@
         <v>LODescription</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Comprehensive Problem 4-55 Part-a through e</v>
+      </c>
+      <c r="B2" t="str">
+        <v>04-01, 04-02, 04-03</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Filing Status, Dependents of the Taxpayer, The Individual Income Tax Formula</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Analytical Thinking, Reflective Thinking</v>
+      </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H2" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I2" t="str">
+        <v>30 min.</v>
+      </c>
+      <c r="J2" t="str">
+        <v/>
+      </c>
+      <c r="K2" t="str">
+        <v>WK</v>
+      </c>
+      <c r="L2" t="str">
+        <v/>
+      </c>
+      <c r="M2" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Comprehensive Problem 4-55 Part f</v>
+      </c>
+      <c r="B3" t="str">
+        <v>04-01, 04-02, 04-03</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Filing Status, Dependents of the Taxpayer, The Individual Income Tax Formula</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Analytical Thinking, Reflective Thinking</v>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H3" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I3" t="str">
+        <v>30 min.</v>
+      </c>
+      <c r="J3" t="str">
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <v>Comprehensive Problem</v>
+      </c>
+      <c r="L3" t="str">
+        <v/>
+      </c>
+      <c r="M3" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Comprehensive Problem 4-56 Part-a</v>
+      </c>
+      <c r="B4" t="str">
+        <v>04-01, 04-02, 04-03</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Filing Status, Dependents of the Taxpayer, The Individual Income Tax Formula</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Analytical Thinking, Reflective Thinking</v>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H4" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I4" t="str">
+        <v>50 min.</v>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L4" t="str">
+        <v/>
+      </c>
+      <c r="M4" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Comprehensive Problem 4-56 Part b</v>
+      </c>
+      <c r="B5" t="str">
+        <v>04-01, 04-02, 04-03</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Filing Status, Dependents of the Taxpayer, The Individual Income Tax Formula</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Analytical Thinking, Reflective Thinking</v>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H5" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I5" t="str">
+        <v>50 min.</v>
+      </c>
+      <c r="J5" t="str">
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <v>Comprehensive Problem</v>
+      </c>
+      <c r="L5" t="str">
+        <v/>
+      </c>
+      <c r="M5" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Comprehensive Problem 4-56 Parts-c through f</v>
+      </c>
+      <c r="B6" t="str">
+        <v>04-01, 04-02, 04-03</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Filing Status, Dependents of the Taxpayer, The Individual Income Tax Formula</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Analytical Thinking, Reflective Thinking</v>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H6" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I6" t="str">
+        <v>50 min.</v>
+      </c>
+      <c r="J6" t="str">
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L6" t="str">
+        <v/>
+      </c>
+      <c r="M6" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Comprehensive Problem 4-55 Part-a through e (Static)</v>
+      </c>
+      <c r="B7" t="str">
+        <v>04-01, 04-02, 04-03</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Filing Status, Dependents of the Taxpayer, The Individual Income Tax Formula</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Analytical Thinking, Reflective Thinking</v>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H7" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I7" t="str">
+        <v>30 min.</v>
+      </c>
+      <c r="J7" t="str">
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <v>WK</v>
+      </c>
+      <c r="L7" t="str">
+        <v/>
+      </c>
+      <c r="M7" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Comprehensive Problem 4-55 Part f-1 [MUST MANUALLY GRADE] (Static)</v>
+      </c>
+      <c r="B8" t="str">
+        <v>04-01, 04-02, 04-03</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Filing Status, Dependents of the Taxpayer, The Individual Income Tax Formula</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Analytical Thinking, Reflective Thinking</v>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H8" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I8" t="str">
+        <v>30 min.</v>
+      </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <v>DO</v>
+      </c>
+      <c r="L8" t="str">
+        <v/>
+      </c>
+      <c r="M8" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Comprehensive Problem 4-55 Part f-2 [MUST MANUALLY GRADE] (Static)</v>
+      </c>
+      <c r="B9" t="str">
+        <v>04-01, 04-02, 04-03</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Filing Status, Dependents of the Taxpayer, The Individual Income Tax Formula</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Analytical Thinking, Reflective Thinking</v>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H9" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I9" t="str">
+        <v>30 min.</v>
+      </c>
+      <c r="J9" t="str">
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <v>DO</v>
+      </c>
+      <c r="L9" t="str">
+        <v/>
+      </c>
+      <c r="M9" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Comprehensive Problem 4-55 Part-a through e (Algo)</v>
+      </c>
+      <c r="B10" t="str">
+        <v>04-01, 04-02, 04-03</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Filing Status, Dependents of the Taxpayer, The Individual Income Tax Formula</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Analytical Thinking, Reflective Thinking</v>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H10" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I10" t="str">
+        <v>30 min.</v>
+      </c>
+      <c r="J10" t="str">
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <v>WK</v>
+      </c>
+      <c r="L10" t="str">
+        <v/>
+      </c>
+      <c r="M10" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Comprehensive Problem 4-55 Part f-1 [MUST MANUALLY GRADE] (Algo)</v>
+      </c>
+      <c r="B11" t="str">
+        <v>04-01, 04-02, 04-03</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Filing Status, Dependents of the Taxpayer, The Individual Income Tax Formula</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Analytical Thinking, Reflective Thinking</v>
+      </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H11" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I11" t="str">
+        <v>30 min.</v>
+      </c>
+      <c r="J11" t="str">
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <v>DO</v>
+      </c>
+      <c r="L11" t="str">
+        <v/>
+      </c>
+      <c r="M11" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Comprehensive Problem 4-55 Part f-2 [MUST MANUALLY GRADE] (Algo)</v>
+      </c>
+      <c r="B12" t="str">
+        <v>04-01, 04-02, 04-03</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Filing Status, Dependents of the Taxpayer, The Individual Income Tax Formula</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Analytical Thinking, Reflective Thinking</v>
+      </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H12" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I12" t="str">
+        <v>30 min.</v>
+      </c>
+      <c r="J12" t="str">
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <v>DO</v>
+      </c>
+      <c r="L12" t="str">
+        <v/>
+      </c>
+      <c r="M12" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Comprehensive Problem 4-56 Part-a (Static)</v>
+      </c>
+      <c r="B13" t="str">
+        <v>04-01, 04-02, 04-03</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Filing Status, Dependents of the Taxpayer, The Individual Income Tax Formula</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Analytical Thinking, Reflective Thinking</v>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H13" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I13" t="str">
+        <v>50 min.</v>
+      </c>
+      <c r="J13" t="str">
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L13" t="str">
+        <v/>
+      </c>
+      <c r="M13" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Comprehensive Problem 4-56 Part b-1 [MUST MANUALLY GRADE] (Static)</v>
+      </c>
+      <c r="B14" t="str">
+        <v>04-01, 04-02, 04-03</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Filing Status, Dependents of the Taxpayer, The Individual Income Tax Formula</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Analytical Thinking, Reflective Thinking</v>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H14" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I14" t="str">
+        <v>50 min.</v>
+      </c>
+      <c r="J14" t="str">
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <v>DO</v>
+      </c>
+      <c r="L14" t="str">
+        <v/>
+      </c>
+      <c r="M14" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Comprehensive Problem 4-56 Part b-2 [MUST MANUALLY GRADE] (Static)</v>
+      </c>
+      <c r="B15" t="str">
+        <v>04-01, 04-02, 04-03</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Filing Status, Dependents of the Taxpayer, The Individual Income Tax Formula</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Analytical Thinking, Reflective Thinking</v>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H15" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I15" t="str">
+        <v>50 min.</v>
+      </c>
+      <c r="J15" t="str">
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <v>DO</v>
+      </c>
+      <c r="L15" t="str">
+        <v/>
+      </c>
+      <c r="M15" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Comprehensive Problem 4-56 Parts-c through f (Static)</v>
+      </c>
+      <c r="B16" t="str">
+        <v>04-01, 04-02, 04-03</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Filing Status, Dependents of the Taxpayer, The Individual Income Tax Formula</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Analytical Thinking, Reflective Thinking</v>
+      </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H16" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I16" t="str">
+        <v>50 min.</v>
+      </c>
+      <c r="J16" t="str">
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L16" t="str">
+        <v/>
+      </c>
+      <c r="M16" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Comprehensive Problem 4-56 Part-a (Algo)</v>
+      </c>
+      <c r="B17" t="str">
+        <v>04-01, 04-02, 04-03</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Filing Status, Dependents of the Taxpayer, The Individual Income Tax Formula</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Analytical Thinking, Reflective Thinking</v>
+      </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H17" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I17" t="str">
+        <v>50 min.</v>
+      </c>
+      <c r="J17" t="str">
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L17" t="str">
+        <v/>
+      </c>
+      <c r="M17" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Comprehensive Problem 4-56 Part b-1 [MUST MANUALLY GRADE] (Algo)</v>
+      </c>
+      <c r="B18" t="str">
+        <v>04-01, 04-02, 04-03</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Filing Status, Dependents of the Taxpayer, The Individual Income Tax Formula</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Analytical Thinking, Reflective Thinking</v>
+      </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H18" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I18" t="str">
+        <v>50 min.</v>
+      </c>
+      <c r="J18" t="str">
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <v>DO</v>
+      </c>
+      <c r="L18" t="str">
+        <v/>
+      </c>
+      <c r="M18" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Comprehensive Problem 4-56 Part b-2 [MUST MANUALLY GRADE] (Algo)</v>
+      </c>
+      <c r="B19" t="str">
+        <v>04-01, 04-02, 04-03</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Filing Status, Dependents of the Taxpayer, The Individual Income Tax Formula</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Analytical Thinking, Reflective Thinking</v>
+      </c>
+      <c r="E19" t="str">
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H19" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I19" t="str">
+        <v>50 min.</v>
+      </c>
+      <c r="J19" t="str">
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <v>DO</v>
+      </c>
+      <c r="L19" t="str">
+        <v/>
+      </c>
+      <c r="M19" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Comprehensive Problem 4-56 Parts-c through f (Algo)</v>
+      </c>
+      <c r="B20" t="str">
+        <v>04-01, 04-02, 04-03</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Filing Status, Dependents of the Taxpayer, The Individual Income Tax Formula</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Analytical Thinking, Reflective Thinking</v>
+      </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H20" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I20" t="str">
+        <v>50 min.</v>
+      </c>
+      <c r="J20" t="str">
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L20" t="str">
+        <v/>
+      </c>
+      <c r="M20" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Comprehensive Problem 4-57 Part-a (Static)</v>
+      </c>
+      <c r="B21" t="str">
+        <v>04-01, 04-02, 04-03</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Filing Status, Dependents of the Taxpayer, The Individual Income Tax Formula</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Analytical Thinking, Reflective Thinking</v>
+      </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H21" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I21" t="str">
+        <v>50 min.</v>
+      </c>
+      <c r="J21" t="str">
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L21" t="str">
+        <v/>
+      </c>
+      <c r="M21" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Comprehensive Problem 4-57 Part-b (Static)</v>
+      </c>
+      <c r="B22" t="str">
+        <v>04-01, 04-02, 04-03</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Filing Status, Dependents of the Taxpayer, The Individual Income Tax Formula</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Analytical Thinking, Reflective Thinking</v>
+      </c>
+      <c r="E22" t="str">
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H22" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I22" t="str">
+        <v>50 min.</v>
+      </c>
+      <c r="J22" t="str">
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L22" t="str">
+        <v/>
+      </c>
+      <c r="M22" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Comprehensive Problem 4-57 Part-c (Static)</v>
+      </c>
+      <c r="B23" t="str">
+        <v>04-01, 04-02, 04-03</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Filing Status, Dependents of the Taxpayer, The Individual Income Tax Formula</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Analytical Thinking, Reflective Thinking</v>
+      </c>
+      <c r="E23" t="str">
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H23" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I23" t="str">
+        <v>50 min.</v>
+      </c>
+      <c r="J23" t="str">
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L23" t="str">
+        <v/>
+      </c>
+      <c r="M23" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Comprehensive Problem 4-57 Part-a (Algo)</v>
+      </c>
+      <c r="B24" t="str">
+        <v>04-01, 04-02, 04-03</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Filing Status, Dependents of the Taxpayer, The Individual Income Tax Formula</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Analytical Thinking, Reflective Thinking</v>
+      </c>
+      <c r="E24" t="str">
+        <v/>
+      </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H24" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I24" t="str">
+        <v>50 min.</v>
+      </c>
+      <c r="J24" t="str">
+        <v/>
+      </c>
+      <c r="K24" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L24" t="str">
+        <v/>
+      </c>
+      <c r="M24" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Comprehensive Problem 4-57 Part-b (Algo)</v>
+      </c>
+      <c r="B25" t="str">
+        <v>04-01, 04-02, 04-03</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Filing Status, Dependents of the Taxpayer, The Individual Income Tax Formula</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Analytical Thinking, Reflective Thinking</v>
+      </c>
+      <c r="E25" t="str">
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H25" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I25" t="str">
+        <v>50 min.</v>
+      </c>
+      <c r="J25" t="str">
+        <v/>
+      </c>
+      <c r="K25" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L25" t="str">
+        <v/>
+      </c>
+      <c r="M25" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Comprehensive Problem 4-57 Part-c (Algo)</v>
+      </c>
+      <c r="B26" t="str">
+        <v>04-01, 04-02, 04-03</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Filing Status, Dependents of the Taxpayer, The Individual Income Tax Formula</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Analytical Thinking, Reflective Thinking</v>
+      </c>
+      <c r="E26" t="str">
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H26" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I26" t="str">
+        <v>50 min.</v>
+      </c>
+      <c r="J26" t="str">
+        <v/>
+      </c>
+      <c r="K26" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L26" t="str">
+        <v/>
+      </c>
+      <c r="M26" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Comprehensive Problem 4-58 (LO 4-1, LO 4-2, LO 4-3) (Static)</v>
+      </c>
+      <c r="B27" t="str">
+        <v>04-01, 04-02, 04-03</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Filing Status, Dependents of the Taxpayer, The Individual Income Tax Formula</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Analytical Thinking, Reflective Thinking</v>
+      </c>
+      <c r="E27" t="str">
+        <v/>
+      </c>
+      <c r="F27" t="str">
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H27" t="str">
+        <v>1 Easy</v>
+      </c>
+      <c r="I27" t="str">
+        <v>10 min.</v>
+      </c>
+      <c r="J27" t="str">
+        <v/>
+      </c>
+      <c r="K27" t="str">
+        <v>Worksheet</v>
+      </c>
+      <c r="L27" t="str">
+        <v/>
+      </c>
+      <c r="M27" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Discussion Question 4-1 (LO 4-1)</v>
+      </c>
+      <c r="B28" t="str">
+        <v>04-01</v>
+      </c>
+      <c r="C28" t="str">
+        <v>The Individual Income Tax Formula</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Analytical Thinking</v>
+      </c>
+      <c r="E28" t="str">
+        <v/>
+      </c>
+      <c r="F28" t="str">
+        <v/>
+      </c>
+      <c r="G28" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H28" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I28" t="str">
+        <v>10 min.</v>
+      </c>
+      <c r="J28" t="str">
+        <v/>
+      </c>
+      <c r="K28" t="str">
+        <v>Essay</v>
+      </c>
+      <c r="L28" t="str">
+        <v/>
+      </c>
+      <c r="M28" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Discussion Question 4-2 (LO 4-1)</v>
+      </c>
+      <c r="B29" t="str">
+        <v>04-01</v>
+      </c>
+      <c r="C29" t="str">
+        <v>The Individual Income Tax Formula</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Analytical Thinking</v>
+      </c>
+      <c r="E29" t="str">
+        <v/>
+      </c>
+      <c r="F29" t="str">
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H29" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I29" t="str">
+        <v>10 min.</v>
+      </c>
+      <c r="J29" t="str">
+        <v/>
+      </c>
+      <c r="K29" t="str">
+        <v>Essay</v>
+      </c>
+      <c r="L29" t="str">
+        <v/>
+      </c>
+      <c r="M29" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Discussion Question 4-3 (LO 4-1)</v>
+      </c>
+      <c r="B30" t="str">
+        <v>04-01</v>
+      </c>
+      <c r="C30" t="str">
+        <v>The Individual Income Tax Formula</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Analytical Thinking</v>
+      </c>
+      <c r="E30" t="str">
+        <v/>
+      </c>
+      <c r="F30" t="str">
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H30" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I30" t="str">
+        <v>10 min.</v>
+      </c>
+      <c r="J30" t="str">
+        <v/>
+      </c>
+      <c r="K30" t="str">
+        <v>Essay</v>
+      </c>
+      <c r="L30" t="str">
+        <v/>
+      </c>
+      <c r="M30" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Discussion Question 4-4 (LO 4-1)</v>
+      </c>
+      <c r="B31" t="str">
+        <v>04-01</v>
+      </c>
+      <c r="C31" t="str">
+        <v>The Individual Income Tax Formula</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Analytical Thinking</v>
+      </c>
+      <c r="E31" t="str">
+        <v/>
+      </c>
+      <c r="F31" t="str">
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H31" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I31" t="str">
+        <v>20 min.</v>
+      </c>
+      <c r="J31" t="str">
+        <v/>
+      </c>
+      <c r="K31" t="str">
+        <v>Essay</v>
+      </c>
+      <c r="L31" t="str">
+        <v/>
+      </c>
+      <c r="M31" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Discussion Question 4-5 (LO 4-1)</v>
+      </c>
+      <c r="B32" t="str">
+        <v>04-01</v>
+      </c>
+      <c r="C32" t="str">
+        <v>The Individual Income Tax Formula</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Analytical Thinking</v>
+      </c>
+      <c r="E32" t="str">
+        <v/>
+      </c>
+      <c r="F32" t="str">
+        <v/>
+      </c>
+      <c r="G32" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H32" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I32" t="str">
+        <v>20 min.</v>
+      </c>
+      <c r="J32" t="str">
+        <v/>
+      </c>
+      <c r="K32" t="str">
+        <v>Essay</v>
+      </c>
+      <c r="L32" t="str">
+        <v/>
+      </c>
+      <c r="M32" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Discussion Question 4-6 (LO 4-1)</v>
+      </c>
+      <c r="B33" t="str">
+        <v>04-01</v>
+      </c>
+      <c r="C33" t="str">
+        <v>The Individual Income Tax Formula</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Analytical Thinking</v>
+      </c>
+      <c r="E33" t="str">
+        <v/>
+      </c>
+      <c r="F33" t="str">
+        <v/>
+      </c>
+      <c r="G33" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H33" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I33" t="str">
+        <v>20 min.</v>
+      </c>
+      <c r="J33" t="str">
+        <v/>
+      </c>
+      <c r="K33" t="str">
+        <v>Essay</v>
+      </c>
+      <c r="L33" t="str">
+        <v/>
+      </c>
+      <c r="M33" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Discussion Question 4-7 (LO 4-1)</v>
+      </c>
+      <c r="B34" t="str">
+        <v>04-01</v>
+      </c>
+      <c r="C34" t="str">
+        <v>The Individual Income Tax Formula</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Analytical Thinking</v>
+      </c>
+      <c r="E34" t="str">
+        <v/>
+      </c>
+      <c r="F34" t="str">
+        <v/>
+      </c>
+      <c r="G34" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H34" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I34" t="str">
+        <v>20 min.</v>
+      </c>
+      <c r="J34" t="str">
+        <v/>
+      </c>
+      <c r="K34" t="str">
+        <v>Essay</v>
+      </c>
+      <c r="L34" t="str">
+        <v/>
+      </c>
+      <c r="M34" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Discussion Question 4-8 (LO 4-1)</v>
+      </c>
+      <c r="B35" t="str">
+        <v>04-01</v>
+      </c>
+      <c r="C35" t="str">
+        <v>The Individual Income Tax Formula</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Analytical Thinking</v>
+      </c>
+      <c r="E35" t="str">
+        <v/>
+      </c>
+      <c r="F35" t="str">
+        <v/>
+      </c>
+      <c r="G35" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H35" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I35" t="str">
+        <v>20 min.</v>
+      </c>
+      <c r="J35" t="str">
+        <v/>
+      </c>
+      <c r="K35" t="str">
+        <v>Essay</v>
+      </c>
+      <c r="L35" t="str">
+        <v/>
+      </c>
+      <c r="M35" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Discussion Question 4-9 (LO 4-1)</v>
+      </c>
+      <c r="B36" t="str">
+        <v>04-01</v>
+      </c>
+      <c r="C36" t="str">
+        <v>The Individual Income Tax Formula</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Analytical Thinking</v>
+      </c>
+      <c r="E36" t="str">
+        <v/>
+      </c>
+      <c r="F36" t="str">
+        <v/>
+      </c>
+      <c r="G36" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H36" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I36" t="str">
+        <v>20 min.</v>
+      </c>
+      <c r="J36" t="str">
+        <v/>
+      </c>
+      <c r="K36" t="str">
+        <v>Essay</v>
+      </c>
+      <c r="L36" t="str">
+        <v/>
+      </c>
+      <c r="M36" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Discussion Question 4-10 (LO 4-1)</v>
+      </c>
+      <c r="B37" t="str">
+        <v>04-01</v>
+      </c>
+      <c r="C37" t="str">
+        <v>The Individual Income Tax Formula</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Analytical Thinking</v>
+      </c>
+      <c r="E37" t="str">
+        <v/>
+      </c>
+      <c r="F37" t="str">
+        <v/>
+      </c>
+      <c r="G37" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H37" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I37" t="str">
+        <v>20 min.</v>
+      </c>
+      <c r="J37" t="str">
+        <v/>
+      </c>
+      <c r="K37" t="str">
+        <v>Essay</v>
+      </c>
+      <c r="L37" t="str">
+        <v/>
+      </c>
+      <c r="M37" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Discussion Question 4-11 (LO 4-1)</v>
+      </c>
+      <c r="B38" t="str">
+        <v>04-01</v>
+      </c>
+      <c r="C38" t="str">
+        <v>The Individual Income Tax Formula</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Analytical Thinking</v>
+      </c>
+      <c r="E38" t="str">
+        <v/>
+      </c>
+      <c r="F38" t="str">
+        <v/>
+      </c>
+      <c r="G38" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H38" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I38" t="str">
+        <v>20 min.</v>
+      </c>
+      <c r="J38" t="str">
+        <v/>
+      </c>
+      <c r="K38" t="str">
+        <v>Essay</v>
+      </c>
+      <c r="L38" t="str">
+        <v/>
+      </c>
+      <c r="M38" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Discussion Question 4-12 (LO 4-1)</v>
+      </c>
+      <c r="B39" t="str">
+        <v>04-01</v>
+      </c>
+      <c r="C39" t="str">
+        <v>The Individual Income Tax Formula</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Analytical Thinking</v>
+      </c>
+      <c r="E39" t="str">
+        <v/>
+      </c>
+      <c r="F39" t="str">
+        <v/>
+      </c>
+      <c r="G39" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H39" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I39" t="str">
+        <v>20 min.</v>
+      </c>
+      <c r="J39" t="str">
+        <v/>
+      </c>
+      <c r="K39" t="str">
+        <v>Essay</v>
+      </c>
+      <c r="L39" t="str">
+        <v/>
+      </c>
+      <c r="M39" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Discussion Question 4-13 (LO 4-1)</v>
+      </c>
+      <c r="B40" t="str">
+        <v>04-01</v>
+      </c>
+      <c r="C40" t="str">
+        <v>The Individual Income Tax Formula</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Analytical Thinking</v>
+      </c>
+      <c r="E40" t="str">
+        <v/>
+      </c>
+      <c r="F40" t="str">
+        <v/>
+      </c>
+      <c r="G40" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H40" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I40" t="str">
+        <v>20 min.</v>
+      </c>
+      <c r="J40" t="str">
+        <v/>
+      </c>
+      <c r="K40" t="str">
+        <v>Essay</v>
+      </c>
+      <c r="L40" t="str">
+        <v/>
+      </c>
+      <c r="M40" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Discussion Question 4-14 (LO 4-1)</v>
+      </c>
+      <c r="B41" t="str">
+        <v>04-01</v>
+      </c>
+      <c r="C41" t="str">
+        <v>The Individual Income Tax Formula</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Analytical Thinking</v>
+      </c>
+      <c r="E41" t="str">
+        <v/>
+      </c>
+      <c r="F41" t="str">
+        <v/>
+      </c>
+      <c r="G41" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H41" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I41" t="str">
+        <v>10 min.</v>
+      </c>
+      <c r="J41" t="str">
+        <v/>
+      </c>
+      <c r="K41" t="str">
+        <v>Essay</v>
+      </c>
+      <c r="L41" t="str">
+        <v/>
+      </c>
+      <c r="M41" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Discussion Question 4-15 (LO 4-1)</v>
+      </c>
+      <c r="B42" t="str">
+        <v>04-01</v>
+      </c>
+      <c r="C42" t="str">
+        <v>The Individual Income Tax Formula</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Analytical Thinking</v>
+      </c>
+      <c r="E42" t="str">
+        <v/>
+      </c>
+      <c r="F42" t="str">
+        <v/>
+      </c>
+      <c r="G42" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H42" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I42" t="str">
+        <v>10 min.</v>
+      </c>
+      <c r="J42" t="str">
+        <v/>
+      </c>
+      <c r="K42" t="str">
+        <v>Essay</v>
+      </c>
+      <c r="L42" t="str">
+        <v/>
+      </c>
+      <c r="M42" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Discussion Question 4-16 (LO 4-1)</v>
+      </c>
+      <c r="B43" t="str">
+        <v>04-01</v>
+      </c>
+      <c r="C43" t="str">
+        <v>The Individual Income Tax Formula</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Analytical Thinking</v>
+      </c>
+      <c r="E43" t="str">
+        <v/>
+      </c>
+      <c r="F43" t="str">
+        <v/>
+      </c>
+      <c r="G43" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H43" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I43" t="str">
+        <v>10 min.</v>
+      </c>
+      <c r="J43" t="str">
+        <v/>
+      </c>
+      <c r="K43" t="str">
+        <v>Essay</v>
+      </c>
+      <c r="L43" t="str">
+        <v/>
+      </c>
+      <c r="M43" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Discussion Question 4-17 (LO 4-1)</v>
+      </c>
+      <c r="B44" t="str">
+        <v>04-01</v>
+      </c>
+      <c r="C44" t="str">
+        <v>The Individual Income Tax Formula</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Analytical Thinking</v>
+      </c>
+      <c r="E44" t="str">
+        <v/>
+      </c>
+      <c r="F44" t="str">
+        <v/>
+      </c>
+      <c r="G44" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H44" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I44" t="str">
+        <v>10 min.</v>
+      </c>
+      <c r="J44" t="str">
+        <v/>
+      </c>
+      <c r="K44" t="str">
+        <v>Essay</v>
+      </c>
+      <c r="L44" t="str">
+        <v/>
+      </c>
+      <c r="M44" t="str">
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Discussion Question 4-18 (LO 4-2)</v>
+      </c>
+      <c r="B45" t="str">
+        <v>04-02</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Dependents of the Taxpayer</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Analytical Thinking</v>
+      </c>
+      <c r="E45" t="str">
+        <v/>
+      </c>
+      <c r="F45" t="str">
+        <v/>
+      </c>
+      <c r="G45" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H45" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I45" t="str">
+        <v>10 min.</v>
+      </c>
+      <c r="J45" t="str">
+        <v/>
+      </c>
+      <c r="K45" t="str">
+        <v>Essay</v>
+      </c>
+      <c r="L45" t="str">
+        <v/>
+      </c>
+      <c r="M45" t="str">
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Discussion Question 4-19 (LO 4-2)</v>
+      </c>
+      <c r="B46" t="str">
+        <v>04-02</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Dependents of the Taxpayer</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Analytical Thinking</v>
+      </c>
+      <c r="E46" t="str">
+        <v/>
+      </c>
+      <c r="F46" t="str">
+        <v/>
+      </c>
+      <c r="G46" t="str">
+        <v>Analyze</v>
+      </c>
+      <c r="H46" t="str">
+        <v>3 Hard</v>
+      </c>
+      <c r="I46" t="str">
+        <v>25 min.</v>
+      </c>
+      <c r="J46" t="str">
+        <v/>
+      </c>
+      <c r="K46" t="str">
+        <v>Essay</v>
+      </c>
+      <c r="L46" t="str">
+        <v/>
+      </c>
+      <c r="M46" t="str">
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Discussion Question 4-20 (LO 4-2)</v>
+      </c>
+      <c r="B47" t="str">
+        <v>04-02</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Dependents of the Taxpayer</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Analytical Thinking</v>
+      </c>
+      <c r="E47" t="str">
+        <v/>
+      </c>
+      <c r="F47" t="str">
+        <v/>
+      </c>
+      <c r="G47" t="str">
+        <v>Analyze</v>
+      </c>
+      <c r="H47" t="str">
+        <v>3 Hard</v>
+      </c>
+      <c r="I47" t="str">
+        <v>25 min.</v>
+      </c>
+      <c r="J47" t="str">
+        <v/>
+      </c>
+      <c r="K47" t="str">
+        <v>Essay</v>
+      </c>
+      <c r="L47" t="str">
+        <v/>
+      </c>
+      <c r="M47" t="str">
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Discussion Question 4-21 (LO 4-2)</v>
+      </c>
+      <c r="B48" t="str">
+        <v>04-02</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Dependents of the Taxpayer</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Analytical Thinking</v>
+      </c>
+      <c r="E48" t="str">
+        <v/>
+      </c>
+      <c r="F48" t="str">
+        <v/>
+      </c>
+      <c r="G48" t="str">
+        <v>Analyze</v>
+      </c>
+      <c r="H48" t="str">
+        <v>3 Hard</v>
+      </c>
+      <c r="I48" t="str">
+        <v>25 min.</v>
+      </c>
+      <c r="J48" t="str">
+        <v/>
+      </c>
+      <c r="K48" t="str">
+        <v>Essay</v>
+      </c>
+      <c r="L48" t="str">
+        <v/>
+      </c>
+      <c r="M48" t="str">
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Discussion Question 4-22 (LO 4-2)</v>
+      </c>
+      <c r="B49" t="str">
+        <v>04-02</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Dependents of the Taxpayer</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Analytical Thinking</v>
+      </c>
+      <c r="E49" t="str">
+        <v/>
+      </c>
+      <c r="F49" t="str">
+        <v/>
+      </c>
+      <c r="G49" t="str">
+        <v>Analyze</v>
+      </c>
+      <c r="H49" t="str">
+        <v>3 Hard</v>
+      </c>
+      <c r="I49" t="str">
+        <v>25 min.</v>
+      </c>
+      <c r="J49" t="str">
+        <v/>
+      </c>
+      <c r="K49" t="str">
+        <v>Essay</v>
+      </c>
+      <c r="L49" t="str">
+        <v/>
+      </c>
+      <c r="M49" t="str">
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Discussion Question 4-23 (LO 4-2)</v>
+      </c>
+      <c r="B50" t="str">
+        <v>04-02</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Dependents of the Taxpayer</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Analytical Thinking</v>
+      </c>
+      <c r="E50" t="str">
+        <v/>
+      </c>
+      <c r="F50" t="str">
+        <v/>
+      </c>
+      <c r="G50" t="str">
+        <v>Analyze</v>
+      </c>
+      <c r="H50" t="str">
+        <v>3 Hard</v>
+      </c>
+      <c r="I50" t="str">
+        <v>20 min.</v>
+      </c>
+      <c r="J50" t="str">
+        <v/>
+      </c>
+      <c r="K50" t="str">
+        <v>Essay</v>
+      </c>
+      <c r="L50" t="str">
+        <v/>
+      </c>
+      <c r="M50" t="str">
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Discussion Question 4-24 (LO 4-3)</v>
+      </c>
+      <c r="B51" t="str">
+        <v>04-03</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Filing Status</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Analytical Thinking</v>
+      </c>
+      <c r="E51" t="str">
+        <v/>
+      </c>
+      <c r="F51" t="str">
+        <v/>
+      </c>
+      <c r="G51" t="str">
+        <v>Analyze</v>
+      </c>
+      <c r="H51" t="str">
+        <v>3 Hard</v>
+      </c>
+      <c r="I51" t="str">
+        <v>20 min.</v>
+      </c>
+      <c r="J51" t="str">
+        <v/>
+      </c>
+      <c r="K51" t="str">
+        <v>Essay</v>
+      </c>
+      <c r="L51" t="str">
+        <v/>
+      </c>
+      <c r="M51" t="str">
+        <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Discussion Question 4-25 (LO 4-3)</v>
+      </c>
+      <c r="B52" t="str">
+        <v>04-03</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Filing Status</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Analytical Thinking</v>
+      </c>
+      <c r="E52" t="str">
+        <v/>
+      </c>
+      <c r="F52" t="str">
+        <v/>
+      </c>
+      <c r="G52" t="str">
+        <v>Analyze</v>
+      </c>
+      <c r="H52" t="str">
+        <v>3 Hard</v>
+      </c>
+      <c r="I52" t="str">
+        <v>20 min.</v>
+      </c>
+      <c r="J52" t="str">
+        <v/>
+      </c>
+      <c r="K52" t="str">
+        <v>Essay</v>
+      </c>
+      <c r="L52" t="str">
+        <v/>
+      </c>
+      <c r="M52" t="str">
+        <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Discussion Question 4-26 (LO 4-3)</v>
+      </c>
+      <c r="B53" t="str">
+        <v>04-03</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Filing Status</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Analytical Thinking</v>
+      </c>
+      <c r="E53" t="str">
+        <v/>
+      </c>
+      <c r="F53" t="str">
+        <v/>
+      </c>
+      <c r="G53" t="str">
+        <v>Analyze</v>
+      </c>
+      <c r="H53" t="str">
+        <v>3 Hard</v>
+      </c>
+      <c r="I53" t="str">
+        <v>20 min.</v>
+      </c>
+      <c r="J53" t="str">
+        <v/>
+      </c>
+      <c r="K53" t="str">
+        <v>Essay</v>
+      </c>
+      <c r="L53" t="str">
+        <v/>
+      </c>
+      <c r="M53" t="str">
+        <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Discussion Question 4-27 (LO 4-3)</v>
+      </c>
+      <c r="B54" t="str">
+        <v>04-03</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Filing Status</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Analytical Thinking</v>
+      </c>
+      <c r="E54" t="str">
+        <v/>
+      </c>
+      <c r="F54" t="str">
+        <v/>
+      </c>
+      <c r="G54" t="str">
+        <v>Analyze</v>
+      </c>
+      <c r="H54" t="str">
+        <v>3 Hard</v>
+      </c>
+      <c r="I54" t="str">
+        <v>20 min.</v>
+      </c>
+      <c r="J54" t="str">
+        <v/>
+      </c>
+      <c r="K54" t="str">
+        <v>Essay</v>
+      </c>
+      <c r="L54" t="str">
+        <v/>
+      </c>
+      <c r="M54" t="str">
+        <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Discussion Question 4-28 (LO 4-3)</v>
+      </c>
+      <c r="B55" t="str">
+        <v>04-03</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Filing Status</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Analytical Thinking</v>
+      </c>
+      <c r="E55" t="str">
+        <v/>
+      </c>
+      <c r="F55" t="str">
+        <v/>
+      </c>
+      <c r="G55" t="str">
+        <v>Analyze</v>
+      </c>
+      <c r="H55" t="str">
+        <v>3 Hard</v>
+      </c>
+      <c r="I55" t="str">
+        <v>20 min.</v>
+      </c>
+      <c r="J55" t="str">
+        <v/>
+      </c>
+      <c r="K55" t="str">
+        <v>Essay</v>
+      </c>
+      <c r="L55" t="str">
+        <v/>
+      </c>
+      <c r="M55" t="str">
+        <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Problem 01-01 (Static) [LO 1-1]</v>
+        <v>Problem 4-29 Part-a (Static)</v>
       </c>
       <c r="B56" t="str">
-        <v>01-01</v>
+        <v>04-01</v>
       </c>
       <c r="C56" t="str">
-        <v>Some Basic Terminology</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D56" t="str">
-        <v>Knowledge Application</v>
+        <v>Analytical Thinking</v>
       </c>
       <c r="E56" t="str">
-        <v>Legal</v>
+        <v/>
       </c>
       <c r="F56" t="str">
-        <v>Decision Making</v>
+        <v/>
       </c>
       <c r="G56" t="str">
-        <v>Understand</v>
+        <v>Apply</v>
       </c>
       <c r="H56" t="str">
         <v>2 Medium</v>
       </c>
       <c r="I56" t="str">
-        <v>5 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J56" t="str">
-        <v>Static</v>
+        <v/>
       </c>
       <c r="K56" t="str">
-        <v>Select All That Apply</v>
+        <v>Problem</v>
       </c>
       <c r="L56" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M56" t="str">
-        <v>01-01  Define tax, taxpayer, incidence, and jurisdiction.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Problem 01-02 (Static) [LO 1-1, 1-5]</v>
+        <v>Problem 4-29 Part-b (Static)</v>
       </c>
       <c r="B57" t="str">
-        <v>01-01, 01-05</v>
+        <v>04-01</v>
       </c>
       <c r="C57" t="str">
-        <v>Some Basic Terminology, Federal Income Taxes</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D57" t="str">
-        <v>Knowledge Application</v>
+        <v>Analytical Thinking</v>
       </c>
       <c r="E57" t="str">
-        <v>Global, Legal</v>
+        <v/>
       </c>
       <c r="F57" t="str">
-        <v>Decision Making</v>
+        <v/>
       </c>
       <c r="G57" t="str">
-        <v>Understand</v>
+        <v>Apply</v>
       </c>
       <c r="H57" t="str">
         <v>2 Medium</v>
       </c>
       <c r="I57" t="str">
-        <v>5 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J57" t="str">
-        <v>Static</v>
+        <v/>
       </c>
       <c r="K57" t="str">
-        <v>Multiple Choice</v>
+        <v>Problem</v>
       </c>
       <c r="L57" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M57" t="str">
-        <v>01-01  Define tax, taxpayer, incidence, and jurisdiction.;01-05  Describe the taxes levied by the federal government.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Problem 01-03 (Static) [LO 1-1, 1-5]</v>
+        <v>Problem 4-29 Part-c (Static)</v>
       </c>
       <c r="B58" t="str">
-        <v>01-01, 01-05</v>
+        <v>04-01</v>
       </c>
       <c r="C58" t="str">
-        <v>Some Basic Terminology, Federal Income Taxes</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D58" t="str">
-        <v>Knowledge Application</v>
+        <v>Analytical Thinking</v>
       </c>
       <c r="E58" t="str">
-        <v>Global, Legal</v>
+        <v/>
       </c>
       <c r="F58" t="str">
-        <v>Decision Making</v>
+        <v/>
       </c>
       <c r="G58" t="str">
-        <v>Understand</v>
+        <v>Apply</v>
       </c>
       <c r="H58" t="str">
         <v>2 Medium</v>
       </c>
       <c r="I58" t="str">
-        <v>5 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J58" t="str">
-        <v>Static</v>
+        <v/>
       </c>
       <c r="K58" t="str">
-        <v>Multiple Choice</v>
+        <v>Problem</v>
       </c>
       <c r="L58" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M58" t="str">
-        <v>01-01  Define tax, taxpayer, incidence, and jurisdiction.;01-05  Describe the taxes levied by the federal government.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Problem 01-04 (Algo) [LO 1-2]</v>
+        <v>Problem 4-29 Part-a (Algo)</v>
       </c>
       <c r="B59" t="str">
-        <v>01-02</v>
+        <v>04-01</v>
       </c>
       <c r="C59" t="str">
-        <v>The Relationship between Base, Rate, and Revenue</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D59" t="str">
         <v>Analytical Thinking</v>
       </c>
       <c r="E59" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F59" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G59" t="str">
         <v>Apply</v>
@@ -573,39 +2787,39 @@
         <v>2 Medium</v>
       </c>
       <c r="I59" t="str">
-        <v>5 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J59" t="str">
-        <v>Algorithimic</v>
+        <v/>
       </c>
       <c r="K59" t="str">
-        <v>Worksheet</v>
+        <v>WK</v>
       </c>
       <c r="L59" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M59" t="str">
-        <v>01-02  Express the relationship between tax base, rate, and revenue as a formula.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Problem 01-04 (Static) [LO 1-2]</v>
+        <v>Problem 4-29 Part-b (Algo)</v>
       </c>
       <c r="B60" t="str">
-        <v>01-02</v>
+        <v>04-01</v>
       </c>
       <c r="C60" t="str">
-        <v>The Relationship between Base, Rate, and Revenue</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D60" t="str">
         <v>Analytical Thinking</v>
       </c>
       <c r="E60" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F60" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G60" t="str">
         <v>Apply</v>
@@ -614,39 +2828,39 @@
         <v>2 Medium</v>
       </c>
       <c r="I60" t="str">
-        <v>5 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J60" t="str">
-        <v>Static</v>
+        <v/>
       </c>
       <c r="K60" t="str">
-        <v>Worksheet</v>
+        <v>WK</v>
       </c>
       <c r="L60" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M60" t="str">
-        <v>01-02  Express the relationship between tax base, rate, and revenue as a formula.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Problem 01-05 (Algo) [LO 1-2, 1-3]</v>
+        <v>Problem 4-29 Part-c (Algo)</v>
       </c>
       <c r="B61" t="str">
-        <v>01-02, 01-03</v>
+        <v>04-01</v>
       </c>
       <c r="C61" t="str">
-        <v>Local Taxes</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D61" t="str">
-        <v>Knowledge Application</v>
+        <v>Analytical Thinking</v>
       </c>
       <c r="E61" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F61" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G61" t="str">
         <v>Apply</v>
@@ -655,121 +2869,121 @@
         <v>2 Medium</v>
       </c>
       <c r="I61" t="str">
-        <v>5 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J61" t="str">
-        <v>Algorithimic</v>
+        <v/>
       </c>
       <c r="K61" t="str">
-        <v>Worksheet</v>
+        <v>WK</v>
       </c>
       <c r="L61" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M61" t="str">
-        <v>01-02  Express the relationship between tax base, rate, and revenue as a formula.;01-03  Describe the taxes levied by local governments.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Problem 01-05 (Static) [LO 1-2, 1-3]</v>
+        <v>Problem 4-30 (LO 4-1) (Static)</v>
       </c>
       <c r="B62" t="str">
-        <v>01-02, 01-03</v>
+        <v>04-01</v>
       </c>
       <c r="C62" t="str">
-        <v>Local Taxes</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D62" t="str">
-        <v>Knowledge Application</v>
+        <v>Analytical Thinking</v>
       </c>
       <c r="E62" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F62" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G62" t="str">
         <v>Apply</v>
       </c>
       <c r="H62" t="str">
-        <v>2 Medium</v>
+        <v>1 Easy</v>
       </c>
       <c r="I62" t="str">
         <v>5 min.</v>
       </c>
       <c r="J62" t="str">
-        <v>Static</v>
+        <v/>
       </c>
       <c r="K62" t="str">
-        <v>Worksheet</v>
+        <v>Problem</v>
       </c>
       <c r="L62" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M62" t="str">
-        <v>01-02  Express the relationship between tax base, rate, and revenue as a formula.;01-03  Describe the taxes levied by local governments.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Problem 01-06 (Algo) [LO 1-2, 1-3]</v>
+        <v>Problem 4-30 (LO 4-1) (Algo)</v>
       </c>
       <c r="B63" t="str">
-        <v>01-02, 01-03</v>
+        <v>04-01</v>
       </c>
       <c r="C63" t="str">
-        <v>Local Taxes</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D63" t="str">
-        <v>Knowledge Application</v>
+        <v>Analytical Thinking</v>
       </c>
       <c r="E63" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F63" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G63" t="str">
         <v>Apply</v>
       </c>
       <c r="H63" t="str">
-        <v>2 Medium</v>
+        <v>1 Easy</v>
       </c>
       <c r="I63" t="str">
         <v>5 min.</v>
       </c>
       <c r="J63" t="str">
-        <v>Algorithimic</v>
+        <v/>
       </c>
       <c r="K63" t="str">
-        <v>Worksheet</v>
+        <v>WK</v>
       </c>
       <c r="L63" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M63" t="str">
-        <v>01-02  Express the relationship between tax base, rate, and revenue as a formula.;01-03  Describe the taxes levied by local governments.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Problem 01-06 (Static) [LO 1-2, 1-3]</v>
+        <v>Problem 4-31 Part-a (Static)</v>
       </c>
       <c r="B64" t="str">
-        <v>01-02, 01-03</v>
+        <v>04-01</v>
       </c>
       <c r="C64" t="str">
-        <v>Local Taxes</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D64" t="str">
-        <v>Knowledge Application</v>
+        <v>Analytical Thinking</v>
       </c>
       <c r="E64" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F64" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G64" t="str">
         <v>Apply</v>
@@ -778,39 +2992,39 @@
         <v>2 Medium</v>
       </c>
       <c r="I64" t="str">
-        <v>5 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J64" t="str">
-        <v>Static</v>
+        <v/>
       </c>
       <c r="K64" t="str">
-        <v>Worksheet</v>
+        <v>WK</v>
       </c>
       <c r="L64" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M64" t="str">
-        <v>01-02  Express the relationship between tax base, rate, and revenue as a formula.;01-03  Describe the taxes levied by local governments.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Problem 01-07 (Algo) [LO 1-3]</v>
+        <v>Problem 4-31 Parts b-1 to b-2 (Static)</v>
       </c>
       <c r="B65" t="str">
-        <v>01-03</v>
+        <v>04-01</v>
       </c>
       <c r="C65" t="str">
-        <v>Local Taxes</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D65" t="str">
         <v>Analytical Thinking</v>
       </c>
       <c r="E65" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F65" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G65" t="str">
         <v>Apply</v>
@@ -819,39 +3033,39 @@
         <v>2 Medium</v>
       </c>
       <c r="I65" t="str">
-        <v>5 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J65" t="str">
-        <v>Algorithimic</v>
+        <v/>
       </c>
       <c r="K65" t="str">
-        <v>Worksheet</v>
+        <v>WK</v>
       </c>
       <c r="L65" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M65" t="str">
-        <v>01-03  Describe the taxes levied by local governments.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Problem 01-07 (Static) [LO 1-3]</v>
+        <v>Problem 4-31 Part-a (Algo)</v>
       </c>
       <c r="B66" t="str">
-        <v>01-03</v>
+        <v>04-01</v>
       </c>
       <c r="C66" t="str">
-        <v>Local Taxes</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D66" t="str">
         <v>Analytical Thinking</v>
       </c>
       <c r="E66" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F66" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G66" t="str">
         <v>Apply</v>
@@ -860,39 +3074,39 @@
         <v>2 Medium</v>
       </c>
       <c r="I66" t="str">
-        <v>5 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J66" t="str">
-        <v>Static</v>
+        <v/>
       </c>
       <c r="K66" t="str">
-        <v>Worksheet</v>
+        <v>WK</v>
       </c>
       <c r="L66" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M66" t="str">
-        <v>01-03  Describe the taxes levied by local governments.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Problem 01-08 (Algo) [LO 1-4]</v>
+        <v>Problem 4-31 Parts b-1 to b-2 (Algo)</v>
       </c>
       <c r="B67" t="str">
-        <v>01-04</v>
+        <v>04-01</v>
       </c>
       <c r="C67" t="str">
-        <v>Retail Sales, Use, and Excise Taxes</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D67" t="str">
         <v>Analytical Thinking</v>
       </c>
       <c r="E67" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F67" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G67" t="str">
         <v>Apply</v>
@@ -901,367 +3115,367 @@
         <v>2 Medium</v>
       </c>
       <c r="I67" t="str">
-        <v>5 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J67" t="str">
-        <v>Algorithimic</v>
+        <v/>
       </c>
       <c r="K67" t="str">
-        <v>Worksheet</v>
+        <v>WK</v>
       </c>
       <c r="L67" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M67" t="str">
-        <v>01-04  Describe the taxes levied by state governments.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Problem 01-08 (Static) [LO 1-4]</v>
+        <v>Problem 4-32 (LO 4-1) (Static)</v>
       </c>
       <c r="B68" t="str">
-        <v>01-04</v>
+        <v>04-01</v>
       </c>
       <c r="C68" t="str">
-        <v>Retail Sales, Use, and Excise Taxes</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D68" t="str">
         <v>Analytical Thinking</v>
       </c>
       <c r="E68" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F68" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G68" t="str">
         <v>Apply</v>
       </c>
       <c r="H68" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I68" t="str">
-        <v>5 min.</v>
+        <v>25 min.</v>
       </c>
       <c r="J68" t="str">
-        <v>Static</v>
+        <v/>
       </c>
       <c r="K68" t="str">
-        <v>Worksheet</v>
+        <v>Problem</v>
       </c>
       <c r="L68" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M68" t="str">
-        <v>01-04  Describe the taxes levied by state governments.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Problem 01-09 (Algo) [LO 1-4]</v>
+        <v>Problem 4-32 (LO 4-1) (Algo)</v>
       </c>
       <c r="B69" t="str">
-        <v>01-04</v>
+        <v>04-01</v>
       </c>
       <c r="C69" t="str">
-        <v>Retail Sales, Use, and Excise Taxes</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D69" t="str">
         <v>Analytical Thinking</v>
       </c>
       <c r="E69" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F69" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G69" t="str">
         <v>Apply</v>
       </c>
       <c r="H69" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I69" t="str">
-        <v>5 min.</v>
+        <v>25 min.</v>
       </c>
       <c r="J69" t="str">
-        <v>Algorithimic</v>
+        <v/>
       </c>
       <c r="K69" t="str">
         <v>Worksheet</v>
       </c>
       <c r="L69" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M69" t="str">
-        <v>01-04  Describe the taxes levied by state governments.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Problem 01-09 (Static) [LO 1-4]</v>
+        <v>Problem 4-33 Part-a (Static)</v>
       </c>
       <c r="B70" t="str">
-        <v>01-04</v>
+        <v>04-01</v>
       </c>
       <c r="C70" t="str">
-        <v>Retail Sales, Use, and Excise Taxes</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D70" t="str">
-        <v>Analytical Thinking</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E70" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F70" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G70" t="str">
-        <v>Apply</v>
+        <v>Analyze</v>
       </c>
       <c r="H70" t="str">
         <v>2 Medium</v>
       </c>
       <c r="I70" t="str">
-        <v>5 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J70" t="str">
-        <v>Static</v>
+        <v/>
       </c>
       <c r="K70" t="str">
-        <v>Worksheet</v>
+        <v>WK</v>
       </c>
       <c r="L70" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M70" t="str">
-        <v>01-04  Describe the taxes levied by state governments.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Problem 01-10 (Algo) [LO 1-4]</v>
+        <v>Problem 4-33 Part-b (Static)</v>
       </c>
       <c r="B71" t="str">
-        <v>01-04</v>
+        <v>04-01</v>
       </c>
       <c r="C71" t="str">
-        <v>Retail Sales, Use, and Excise Taxes</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D71" t="str">
-        <v>Knowledge Application</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E71" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F71" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G71" t="str">
-        <v>Apply</v>
+        <v>Analyze</v>
       </c>
       <c r="H71" t="str">
         <v>2 Medium</v>
       </c>
       <c r="I71" t="str">
-        <v>5 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J71" t="str">
-        <v>Algorithimic</v>
+        <v/>
       </c>
       <c r="K71" t="str">
-        <v>Worksheet</v>
+        <v>WK</v>
       </c>
       <c r="L71" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M71" t="str">
-        <v>01-04  Describe the taxes levied by state governments.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Problem 01-10 (Static) [LO 1-4]</v>
+        <v>Problem 4-33 Part-a (Algo)</v>
       </c>
       <c r="B72" t="str">
-        <v>01-04</v>
+        <v>04-01</v>
       </c>
       <c r="C72" t="str">
-        <v>Retail Sales, Use, and Excise Taxes</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D72" t="str">
-        <v>Knowledge Application</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E72" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F72" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G72" t="str">
-        <v>Apply</v>
+        <v>Analyze</v>
       </c>
       <c r="H72" t="str">
         <v>2 Medium</v>
       </c>
       <c r="I72" t="str">
-        <v>5 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J72" t="str">
-        <v>Static</v>
+        <v/>
       </c>
       <c r="K72" t="str">
-        <v>Worksheet</v>
+        <v>WK</v>
       </c>
       <c r="L72" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M72" t="str">
-        <v>01-04  Describe the taxes levied by state governments.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Problem 01-11 (Algo) [LO 1-4]</v>
+        <v>Problem 4-33 Part-b (Algo)</v>
       </c>
       <c r="B73" t="str">
-        <v>01-04</v>
+        <v>04-01</v>
       </c>
       <c r="C73" t="str">
-        <v>Retail Sales, Use, and Excise Taxes</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D73" t="str">
-        <v>Knowledge Application</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E73" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F73" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G73" t="str">
-        <v>Apply</v>
+        <v>Analyze</v>
       </c>
       <c r="H73" t="str">
         <v>2 Medium</v>
       </c>
       <c r="I73" t="str">
-        <v>5 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J73" t="str">
-        <v>Algorithimic</v>
+        <v/>
       </c>
       <c r="K73" t="str">
-        <v>Worksheet</v>
+        <v>WK</v>
       </c>
       <c r="L73" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M73" t="str">
-        <v>01-04  Describe the taxes levied by state governments.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Problem 01-11 (Static) [LO 1-4]</v>
+        <v>Problem 4-34 (LO 4-1, LO 4-2) (Static)</v>
       </c>
       <c r="B74" t="str">
-        <v>01-04</v>
+        <v>04-01, 04-02</v>
       </c>
       <c r="C74" t="str">
-        <v>Retail Sales, Use, and Excise Taxes</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D74" t="str">
-        <v>Knowledge Application</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E74" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F74" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G74" t="str">
-        <v>Apply</v>
+        <v>Analyze</v>
       </c>
       <c r="H74" t="str">
         <v>2 Medium</v>
       </c>
       <c r="I74" t="str">
-        <v>5 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J74" t="str">
-        <v>Static</v>
+        <v/>
       </c>
       <c r="K74" t="str">
-        <v>Worksheet</v>
+        <v>Problem</v>
       </c>
       <c r="L74" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M74" t="str">
-        <v>01-04  Describe the taxes levied by state governments.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Problem 01-12 (Algo) [LO 1-4]</v>
+        <v>Problem 4-34 (LO 4-1, LO 4-2) (Algo)</v>
       </c>
       <c r="B75" t="str">
-        <v>01-04</v>
+        <v>04-01, 04-02</v>
       </c>
       <c r="C75" t="str">
-        <v>Retail Sales, Use, and Excise Taxes</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D75" t="str">
-        <v>Knowledge Application</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E75" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F75" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G75" t="str">
-        <v>Apply</v>
+        <v>Analyze</v>
       </c>
       <c r="H75" t="str">
         <v>2 Medium</v>
       </c>
       <c r="I75" t="str">
-        <v>5 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J75" t="str">
-        <v>Algorithimic</v>
+        <v/>
       </c>
       <c r="K75" t="str">
         <v>Worksheet</v>
       </c>
       <c r="L75" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M75" t="str">
-        <v>01-04  Describe the taxes levied by state governments.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Problem 01-12 (Static) [LO 1-4]</v>
+        <v>Problem 4-35 Part-a (Static)</v>
       </c>
       <c r="B76" t="str">
-        <v>01-04</v>
+        <v>04-02</v>
       </c>
       <c r="C76" t="str">
-        <v>Retail Sales, Use, and Excise Taxes</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D76" t="str">
-        <v>Knowledge Application</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E76" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F76" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G76" t="str">
         <v>Apply</v>
@@ -1270,39 +3484,39 @@
         <v>2 Medium</v>
       </c>
       <c r="I76" t="str">
-        <v>5 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J76" t="str">
-        <v>Static</v>
+        <v/>
       </c>
       <c r="K76" t="str">
-        <v>Worksheet</v>
+        <v>Problem</v>
       </c>
       <c r="L76" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M76" t="str">
-        <v>01-04  Describe the taxes levied by state governments.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Problem 01-13 (Static) [LO 1-3,1-4]</v>
+        <v>Problem 4-35 Part-b (Static)</v>
       </c>
       <c r="B77" t="str">
-        <v>01-03, 01-04</v>
+        <v>04-02</v>
       </c>
       <c r="C77" t="str">
-        <v>Local Taxes, Retail Sales, Use, and Excise Taxes</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D77" t="str">
-        <v>Analytical Thinking</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E77" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F77" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G77" t="str">
         <v>Apply</v>
@@ -1311,39 +3525,39 @@
         <v>2 Medium</v>
       </c>
       <c r="I77" t="str">
-        <v>5 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J77" t="str">
-        <v>Static</v>
+        <v/>
       </c>
       <c r="K77" t="str">
-        <v>Multiple Choice</v>
+        <v>Problem</v>
       </c>
       <c r="L77" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M77" t="str">
-        <v>01-03  Describe the taxes levied by local governments.;01-04  Describe the taxes levied by state governments.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Problem 01-14 (Algo) [LO 1-6]</v>
+        <v>Problem 4-35 Part-c (Static)</v>
       </c>
       <c r="B78" t="str">
-        <v>01-06</v>
+        <v>04-02</v>
       </c>
       <c r="C78" t="str">
-        <v>Taxes Levied by Foreign Jurisdictions</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D78" t="str">
-        <v>Knowledge Application</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E78" t="str">
-        <v>Critical Thinking, Global</v>
+        <v/>
       </c>
       <c r="F78" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G78" t="str">
         <v>Apply</v>
@@ -1352,39 +3566,39 @@
         <v>2 Medium</v>
       </c>
       <c r="I78" t="str">
-        <v>5 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J78" t="str">
-        <v>Algorithimic</v>
+        <v/>
       </c>
       <c r="K78" t="str">
-        <v>Worksheet</v>
+        <v>Problem</v>
       </c>
       <c r="L78" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M78" t="str">
-        <v>01-06  Explain the structure of the value-added tax levied by foreign governments.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Problem 01-14 (Static) [LO 1-6]</v>
+        <v>Problem 4-36 Part-a (Static)</v>
       </c>
       <c r="B79" t="str">
-        <v>01-06</v>
+        <v>04-02</v>
       </c>
       <c r="C79" t="str">
-        <v>Taxes Levied by Foreign Jurisdictions</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D79" t="str">
-        <v>Knowledge Application</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E79" t="str">
-        <v>Critical Thinking, Global</v>
+        <v/>
       </c>
       <c r="F79" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G79" t="str">
         <v>Apply</v>
@@ -1393,39 +3607,39 @@
         <v>2 Medium</v>
       </c>
       <c r="I79" t="str">
-        <v>5 min.</v>
+        <v>25 min.</v>
       </c>
       <c r="J79" t="str">
-        <v>Static</v>
+        <v/>
       </c>
       <c r="K79" t="str">
-        <v>Worksheet</v>
+        <v>Problem</v>
       </c>
       <c r="L79" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M79" t="str">
-        <v>01-06  Explain the structure of the value-added tax levied by foreign governments.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Problem 01-15 (Algo) [LO 1-6]</v>
+        <v>Problem 4-36 Part-b (Static)</v>
       </c>
       <c r="B80" t="str">
-        <v>01-06</v>
+        <v>04-02</v>
       </c>
       <c r="C80" t="str">
-        <v>Taxes Levied by Foreign Jurisdictions</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D80" t="str">
-        <v>Knowledge Application</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E80" t="str">
-        <v>Critical Thinking, Global</v>
+        <v/>
       </c>
       <c r="F80" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G80" t="str">
         <v>Apply</v>
@@ -1434,39 +3648,39 @@
         <v>2 Medium</v>
       </c>
       <c r="I80" t="str">
-        <v>5 min.</v>
+        <v>25 min.</v>
       </c>
       <c r="J80" t="str">
-        <v>Algorithimic</v>
+        <v/>
       </c>
       <c r="K80" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L80" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M80" t="str">
-        <v>01-06  Explain the structure of the value-added tax levied by foreign governments.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Problem 01-15 (Static) [LO 1-6]</v>
+        <v>Problem 4-36 Part-c (Static)</v>
       </c>
       <c r="B81" t="str">
-        <v>01-06</v>
+        <v>04-02</v>
       </c>
       <c r="C81" t="str">
-        <v>Taxes Levied by Foreign Jurisdictions</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D81" t="str">
-        <v>Knowledge Application</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E81" t="str">
-        <v>Critical Thinking, Global</v>
+        <v/>
       </c>
       <c r="F81" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G81" t="str">
         <v>Apply</v>
@@ -1475,285 +3689,285 @@
         <v>2 Medium</v>
       </c>
       <c r="I81" t="str">
-        <v>5 min.</v>
+        <v>25 min.</v>
       </c>
       <c r="J81" t="str">
-        <v>Static</v>
+        <v/>
       </c>
       <c r="K81" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L81" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M81" t="str">
-        <v>01-06  Explain the structure of the value-added tax levied by foreign governments.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Problem 02-01 (Algo) [LO 2-1]</v>
+        <v>Problem 4-36 Part-d (Static)</v>
       </c>
       <c r="B82" t="str">
-        <v>02-01</v>
+        <v>04-02</v>
       </c>
       <c r="C82" t="str">
-        <v>Static versus Dynamic Forecasting</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D82" t="str">
-        <v>Knowledge Application</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E82" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F82" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G82" t="str">
         <v>Apply</v>
       </c>
       <c r="H82" t="str">
-        <v>1 Easy</v>
+        <v>2 Medium</v>
       </c>
       <c r="I82" t="str">
-        <v>5 min.</v>
+        <v>25 min.</v>
       </c>
       <c r="J82" t="str">
-        <v>Algorithimic</v>
+        <v/>
       </c>
       <c r="K82" t="str">
-        <v>Worksheet</v>
+        <v>Problem</v>
       </c>
       <c r="L82" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M82" t="str">
-        <v>02-01  Explain the concept of sufficiency of a good tax.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Problem 02-01 (Static) [LO 2-1]</v>
+        <v>Problem 4-36 Part-a (Algo)</v>
       </c>
       <c r="B83" t="str">
-        <v>02-01</v>
+        <v>04-02</v>
       </c>
       <c r="C83" t="str">
-        <v>Static versus Dynamic Forecasting</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D83" t="str">
-        <v>Knowledge Application</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E83" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F83" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G83" t="str">
         <v>Apply</v>
       </c>
       <c r="H83" t="str">
-        <v>1 Easy</v>
+        <v>2 Medium</v>
       </c>
       <c r="I83" t="str">
-        <v>5 min.</v>
+        <v>25 min.</v>
       </c>
       <c r="J83" t="str">
-        <v>Static</v>
+        <v/>
       </c>
       <c r="K83" t="str">
-        <v>Worksheet</v>
+        <v>Problem</v>
       </c>
       <c r="L83" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M83" t="str">
-        <v>02-01  Explain the concept of sufficiency of a good tax.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Problem 02-02 (Algo) [LO 2-1]</v>
+        <v>Problem 4-36 Part-b (Algo)</v>
       </c>
       <c r="B84" t="str">
-        <v>02-01</v>
+        <v>04-02</v>
       </c>
       <c r="C84" t="str">
-        <v>Static versus Dynamic Forecasting</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D84" t="str">
-        <v>Knowledge Application</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E84" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F84" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G84" t="str">
         <v>Apply</v>
       </c>
       <c r="H84" t="str">
-        <v>1 Easy</v>
+        <v>2 Medium</v>
       </c>
       <c r="I84" t="str">
-        <v>5 min.</v>
+        <v>25 min.</v>
       </c>
       <c r="J84" t="str">
-        <v>Algorithimic</v>
+        <v/>
       </c>
       <c r="K84" t="str">
-        <v>Worksheet</v>
+        <v>Problem</v>
       </c>
       <c r="L84" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M84" t="str">
-        <v>02-01  Explain the concept of sufficiency of a good tax.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Problem 02-02 (Static) [LO 2-1]</v>
+        <v>Problem 4-36 Part-c (Algo)</v>
       </c>
       <c r="B85" t="str">
-        <v>02-01</v>
+        <v>04-02</v>
       </c>
       <c r="C85" t="str">
-        <v>Static versus Dynamic Forecasting</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D85" t="str">
-        <v>Knowledge Application</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E85" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F85" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G85" t="str">
         <v>Apply</v>
       </c>
       <c r="H85" t="str">
-        <v>1 Easy</v>
+        <v>2 Medium</v>
       </c>
       <c r="I85" t="str">
-        <v>5 min.</v>
+        <v>25 min.</v>
       </c>
       <c r="J85" t="str">
-        <v>Static</v>
+        <v/>
       </c>
       <c r="K85" t="str">
-        <v>Worksheet</v>
+        <v>Problem</v>
       </c>
       <c r="L85" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M85" t="str">
-        <v>02-01  Explain the concept of sufficiency of a good tax.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Problem 02-03 (Algo) [LO 2-1]</v>
+        <v>Problem 4-36 Part-d (Algo)</v>
       </c>
       <c r="B86" t="str">
-        <v>02-01</v>
+        <v>04-02</v>
       </c>
       <c r="C86" t="str">
-        <v>Static versus Dynamic Forecasting</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D86" t="str">
-        <v>Knowledge Application</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E86" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F86" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G86" t="str">
         <v>Apply</v>
       </c>
       <c r="H86" t="str">
-        <v>1 Easy</v>
+        <v>2 Medium</v>
       </c>
       <c r="I86" t="str">
-        <v>5 min.</v>
+        <v>25 min.</v>
       </c>
       <c r="J86" t="str">
-        <v>Algorithimic</v>
+        <v/>
       </c>
       <c r="K86" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L86" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M86" t="str">
-        <v>02-01  Explain the concept of sufficiency of a good tax.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Problem 02-03 (Static) [LO 2-1]</v>
+        <v>Problem 4-37 Part-a (Static)</v>
       </c>
       <c r="B87" t="str">
-        <v>02-01</v>
+        <v>04-02</v>
       </c>
       <c r="C87" t="str">
-        <v>Static versus Dynamic Forecasting</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D87" t="str">
-        <v>Knowledge Application</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E87" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F87" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G87" t="str">
         <v>Apply</v>
       </c>
       <c r="H87" t="str">
-        <v>1 Easy</v>
+        <v>2 Medium</v>
       </c>
       <c r="I87" t="str">
-        <v>5 min.</v>
+        <v>15 min.</v>
       </c>
       <c r="J87" t="str">
-        <v>Static</v>
+        <v/>
       </c>
       <c r="K87" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L87" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M87" t="str">
-        <v>02-01  Explain the concept of sufficiency of a good tax.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Problem 02-04 (Algo) [LO 2-1, 2-2]</v>
+        <v>Problem 4-37 Part-b (Static)</v>
       </c>
       <c r="B88" t="str">
-        <v>02-01, 02-02</v>
+        <v>04-02</v>
       </c>
       <c r="C88" t="str">
-        <v>Static versus Dynamic Forecasting, Behavioral Responses to Rate Changes</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D88" t="str">
-        <v>Analytical Thinking</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E88" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F88" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G88" t="str">
         <v>Apply</v>
@@ -1762,39 +3976,39 @@
         <v>2 Medium</v>
       </c>
       <c r="I88" t="str">
-        <v>5 min.</v>
+        <v>15 min.</v>
       </c>
       <c r="J88" t="str">
-        <v>Algorithimic</v>
+        <v/>
       </c>
       <c r="K88" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L88" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M88" t="str">
-        <v>02-01  Explain the concept of sufficiency of a good tax.;02-02  Differentiate between the income effect and the substitution effect.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Problem 02-04 (Static) [LO 2-1, 2-2]</v>
+        <v>Problem 4-37 Part-c (Static)</v>
       </c>
       <c r="B89" t="str">
-        <v>02-01, 02-02</v>
+        <v>04-02</v>
       </c>
       <c r="C89" t="str">
-        <v>Static versus Dynamic Forecasting, Behavioral Responses to Rate Changes</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D89" t="str">
-        <v>Analytical Thinking</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E89" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F89" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G89" t="str">
         <v>Apply</v>
@@ -1803,39 +4017,39 @@
         <v>2 Medium</v>
       </c>
       <c r="I89" t="str">
-        <v>5 min.</v>
+        <v>15 min.</v>
       </c>
       <c r="J89" t="str">
-        <v>Static</v>
+        <v/>
       </c>
       <c r="K89" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L89" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M89" t="str">
-        <v>02-01  Explain the concept of sufficiency of a good tax.;02-02  Differentiate between the income effect and the substitution effect.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Problem 02-05 (Algo) [LO 2-2]</v>
+        <v>Problem 4-37 Part-d (Static)</v>
       </c>
       <c r="B90" t="str">
-        <v>02-02</v>
+        <v>04-02</v>
       </c>
       <c r="C90" t="str">
-        <v>Behavioral Responses to Rate Changes</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D90" t="str">
-        <v>Analytical Thinking</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E90" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F90" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G90" t="str">
         <v>Apply</v>
@@ -1844,39 +4058,39 @@
         <v>2 Medium</v>
       </c>
       <c r="I90" t="str">
-        <v>5 min.</v>
+        <v>15 min.</v>
       </c>
       <c r="J90" t="str">
-        <v>Algorithimic</v>
+        <v/>
       </c>
       <c r="K90" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L90" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M90" t="str">
-        <v>02-02  Differentiate between the income effect and the substitution effect.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Problem 02-05 (Static) [LO 2-2]</v>
+        <v>Problem 4-38 Part-a (Static)</v>
       </c>
       <c r="B91" t="str">
-        <v>02-02</v>
+        <v>04-02</v>
       </c>
       <c r="C91" t="str">
-        <v>Behavioral Responses to Rate Changes</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D91" t="str">
-        <v>Analytical Thinking</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E91" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F91" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G91" t="str">
         <v>Apply</v>
@@ -1885,39 +4099,39 @@
         <v>2 Medium</v>
       </c>
       <c r="I91" t="str">
-        <v>5 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J91" t="str">
-        <v>Static</v>
+        <v/>
       </c>
       <c r="K91" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L91" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M91" t="str">
-        <v>02-02  Differentiate between the income effect and the substitution effect.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Problem 02-06 (Algo) [LO 2-2]</v>
+        <v>Problem 4-38 Part-b (Static)</v>
       </c>
       <c r="B92" t="str">
-        <v>02-02</v>
+        <v>04-02</v>
       </c>
       <c r="C92" t="str">
-        <v>Behavioral Responses to Rate Changes</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D92" t="str">
-        <v>Knowledge Application</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E92" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F92" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G92" t="str">
         <v>Apply</v>
@@ -1926,39 +4140,39 @@
         <v>2 Medium</v>
       </c>
       <c r="I92" t="str">
-        <v>10 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J92" t="str">
-        <v>Algorithimic</v>
+        <v/>
       </c>
       <c r="K92" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L92" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M92" t="str">
-        <v>02-02  Differentiate between the income effect and the substitution effect.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Problem 02-06 (Static) [LO 2-2]</v>
+        <v>Problem 4-38 Part-c (Static)</v>
       </c>
       <c r="B93" t="str">
-        <v>02-02</v>
+        <v>04-02</v>
       </c>
       <c r="C93" t="str">
-        <v>Behavioral Responses to Rate Changes</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D93" t="str">
-        <v>Knowledge Application</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E93" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F93" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G93" t="str">
         <v>Apply</v>
@@ -1967,39 +4181,39 @@
         <v>2 Medium</v>
       </c>
       <c r="I93" t="str">
-        <v>10 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J93" t="str">
-        <v>Static</v>
+        <v/>
       </c>
       <c r="K93" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L93" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M93" t="str">
-        <v>02-02  Differentiate between the income effect and the substitution effect.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Problem 02-07 (Algo) [LO 2-2]</v>
+        <v>Problem 4-38 Part-d (Static)</v>
       </c>
       <c r="B94" t="str">
-        <v>02-02</v>
+        <v>04-02</v>
       </c>
       <c r="C94" t="str">
-        <v>Behavioral Responses to Rate Changes</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D94" t="str">
-        <v>Knowledge Application</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E94" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F94" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G94" t="str">
         <v>Apply</v>
@@ -2008,39 +4222,39 @@
         <v>2 Medium</v>
       </c>
       <c r="I94" t="str">
-        <v>10 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J94" t="str">
-        <v>Algorithimic</v>
+        <v/>
       </c>
       <c r="K94" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L94" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M94" t="str">
-        <v>02-02  Differentiate between the income effect and the substitution effect.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Problem 02-07 (Static) [LO 2-2]</v>
+        <v>Problem 4-38 Part-a (Algo)</v>
       </c>
       <c r="B95" t="str">
-        <v>02-02</v>
+        <v>04-02</v>
       </c>
       <c r="C95" t="str">
-        <v>Behavioral Responses to Rate Changes</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D95" t="str">
-        <v>Knowledge Application</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E95" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F95" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G95" t="str">
         <v>Apply</v>
@@ -2049,39 +4263,39 @@
         <v>2 Medium</v>
       </c>
       <c r="I95" t="str">
-        <v>10 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J95" t="str">
-        <v>Static</v>
+        <v/>
       </c>
       <c r="K95" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L95" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M95" t="str">
-        <v>02-02  Differentiate between the income effect and the substitution effect.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Problem 02-08 (Algo) [LO 2-6, 2-7]</v>
+        <v>Problem 4-38 Part-b (Algo)</v>
       </c>
       <c r="B96" t="str">
-        <v>02-06, 02-07</v>
+        <v>04-02</v>
       </c>
       <c r="C96" t="str">
-        <v>Regressive Taxes, Marginal and Average Tax Rates</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D96" t="str">
-        <v>Analytical Thinking</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E96" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F96" t="str">
-        <v>Decision Making</v>
+        <v/>
       </c>
       <c r="G96" t="str">
         <v>Apply</v>
@@ -2090,39 +4304,39 @@
         <v>2 Medium</v>
       </c>
       <c r="I96" t="str">
-        <v>10 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J96" t="str">
-        <v>Algorithimic</v>
+        <v/>
       </c>
       <c r="K96" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L96" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M96" t="str">
-        <v>02-06  Differentiate between regressive, proportionate, and progressive rate structures.;02-07  Explain the difference between marginal and average tax rates.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Problem 02-08 (Static) [LO 2-6, 2-7]</v>
+        <v>Problem 4-38 Part-c (Algo)</v>
       </c>
       <c r="B97" t="str">
-        <v>02-06, 02-07</v>
+        <v>04-02</v>
       </c>
       <c r="C97" t="str">
-        <v>Regressive Taxes, Marginal and Average Tax Rates</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D97" t="str">
-        <v>Analytical Thinking</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E97" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F97" t="str">
-        <v>Decision Making</v>
+        <v/>
       </c>
       <c r="G97" t="str">
         <v>Apply</v>
@@ -2131,39 +4345,39 @@
         <v>2 Medium</v>
       </c>
       <c r="I97" t="str">
-        <v>10 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J97" t="str">
-        <v>Static</v>
+        <v/>
       </c>
       <c r="K97" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L97" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M97" t="str">
-        <v>02-06  Differentiate between regressive, proportionate, and progressive rate structures.;02-07  Explain the difference between marginal and average tax rates.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Problem 02-09 (Algo) [LO 2-6, 2-7]</v>
+        <v>Problem 4-38 Part-d (Algo)</v>
       </c>
       <c r="B98" t="str">
-        <v>02-06, 02-07</v>
+        <v>04-02</v>
       </c>
       <c r="C98" t="str">
-        <v>Regressive Taxes, Marginal and Average Tax Rates</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D98" t="str">
-        <v>Analytical Thinking</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E98" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F98" t="str">
-        <v>Decision Making</v>
+        <v/>
       </c>
       <c r="G98" t="str">
         <v>Apply</v>
@@ -2172,483 +4386,2410 @@
         <v>2 Medium</v>
       </c>
       <c r="I98" t="str">
-        <v>10 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J98" t="str">
-        <v>Algorithimic</v>
+        <v/>
       </c>
       <c r="K98" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L98" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M98" t="str">
-        <v>02-06  Differentiate between regressive, proportionate, and progressive rate structures.;02-07  Explain the difference between marginal and average tax rates.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Problem 02-09 (Static) [LO 2-6, 2-7]</v>
+        <v>Problem 4-39 Part-a (Static)</v>
       </c>
       <c r="B99" t="str">
-        <v>02-06, 02-07</v>
+        <v>04-02</v>
       </c>
       <c r="C99" t="str">
-        <v>Regressive Taxes, Marginal and Average Tax Rates</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D99" t="str">
-        <v>Analytical Thinking</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E99" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F99" t="str">
-        <v>Decision Making</v>
+        <v/>
       </c>
       <c r="G99" t="str">
         <v>Apply</v>
       </c>
       <c r="H99" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I99" t="str">
-        <v>10 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J99" t="str">
-        <v>Static</v>
+        <v/>
       </c>
       <c r="K99" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L99" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M99" t="str">
-        <v>02-06  Differentiate between regressive, proportionate, and progressive rate structures.;02-07  Explain the difference between marginal and average tax rates.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Problem 02-10 (Algo) [LO 2-7]</v>
+        <v>Problem 4-39 Part-b (Static)</v>
       </c>
       <c r="B100" t="str">
-        <v>02-07</v>
+        <v>04-02</v>
       </c>
       <c r="C100" t="str">
-        <v>Marginal and Average Tax Rates</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D100" t="str">
-        <v>Knowledge Application</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E100" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F100" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G100" t="str">
         <v>Apply</v>
       </c>
       <c r="H100" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I100" t="str">
-        <v>5 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J100" t="str">
-        <v>Algorithimic</v>
+        <v/>
       </c>
       <c r="K100" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L100" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M100" t="str">
-        <v>02-07  Explain the difference between marginal and average tax rates.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Problem 02-10 (Static) [LO 2-7]</v>
+        <v>Problem 4-39 Part-c (Static)</v>
       </c>
       <c r="B101" t="str">
-        <v>02-07</v>
+        <v>04-02</v>
       </c>
       <c r="C101" t="str">
-        <v>Marginal and Average Tax Rates</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D101" t="str">
-        <v>Knowledge Application</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E101" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F101" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G101" t="str">
         <v>Apply</v>
       </c>
       <c r="H101" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I101" t="str">
-        <v>5 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J101" t="str">
-        <v>Static</v>
+        <v/>
       </c>
       <c r="K101" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L101" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M101" t="str">
-        <v>02-07  Explain the difference between marginal and average tax rates.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Problem 02-11 (Algo) [LO 2-5]</v>
+        <v>Problem 4-39 Part-d (Static)</v>
       </c>
       <c r="B102" t="str">
-        <v>02-05</v>
+        <v>04-02</v>
       </c>
       <c r="C102" t="str">
-        <v>Annual versus Lifetime Horizontal Equity</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D102" t="str">
-        <v>Analytical Thinking</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E102" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F102" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G102" t="str">
         <v>Apply</v>
       </c>
       <c r="H102" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I102" t="str">
-        <v>5 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J102" t="str">
-        <v>Algorithimic</v>
+        <v/>
       </c>
       <c r="K102" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L102" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M102" t="str">
-        <v>02-05  Define horizontal and vertical equity.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Problem 02-11 (Static) [LO 2-5]</v>
+        <v>Problem 4-40 Part-a (Static)</v>
       </c>
       <c r="B103" t="str">
-        <v>02-05</v>
+        <v>04-02, 04-03</v>
       </c>
       <c r="C103" t="str">
-        <v>Annual versus Lifetime Horizontal Equity</v>
+        <v>Dependents of the Taxpayer, Filing Status</v>
       </c>
       <c r="D103" t="str">
-        <v>Analytical Thinking</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E103" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F103" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G103" t="str">
         <v>Apply</v>
       </c>
       <c r="H103" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I103" t="str">
-        <v>5 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J103" t="str">
-        <v>Static</v>
+        <v/>
       </c>
       <c r="K103" t="str">
-        <v>WK</v>
+        <v>Check All That Apply</v>
       </c>
       <c r="L103" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M103" t="str">
-        <v>02-05  Define horizontal and vertical equity.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Problem 02-12 (Algo) [LO 2-7]</v>
+        <v>Problem 4-40 Part-b (Static)</v>
       </c>
       <c r="B104" t="str">
-        <v>02-07</v>
+        <v>04-02, 04-03</v>
       </c>
       <c r="C104" t="str">
-        <v>Marginal and Average Tax Rates</v>
+        <v>Dependents of the Taxpayer, Filing Status</v>
       </c>
       <c r="D104" t="str">
-        <v>Knowledge Application</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E104" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F104" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G104" t="str">
         <v>Apply</v>
       </c>
       <c r="H104" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I104" t="str">
-        <v>5 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J104" t="str">
-        <v>Algorithimic</v>
+        <v/>
       </c>
       <c r="K104" t="str">
-        <v>WK</v>
+        <v>Check All That Apply</v>
       </c>
       <c r="L104" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M104" t="str">
-        <v>02-07  Explain the difference between marginal and average tax rates.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Problem 02-12 (Static) [LO 2-7]</v>
+        <v>Problem 4-40 Part-c (Static)</v>
       </c>
       <c r="B105" t="str">
-        <v>02-07</v>
+        <v>04-02, 04-03</v>
       </c>
       <c r="C105" t="str">
-        <v>Marginal and Average Tax Rates</v>
+        <v>Dependents of the Taxpayer, Filing Status</v>
       </c>
       <c r="D105" t="str">
-        <v>Knowledge Application</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E105" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F105" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G105" t="str">
         <v>Apply</v>
       </c>
       <c r="H105" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I105" t="str">
-        <v>5 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J105" t="str">
-        <v>Static</v>
+        <v/>
       </c>
       <c r="K105" t="str">
-        <v>WK</v>
+        <v>MC</v>
       </c>
       <c r="L105" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M105" t="str">
-        <v>02-07  Explain the difference between marginal and average tax rates.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Problem 02-13 (Algo) [LO 2-7]</v>
+        <v>Problem 4-42 Part-a (Static)</v>
       </c>
       <c r="B106" t="str">
-        <v>02-07</v>
+        <v>04-02, 04-03</v>
       </c>
       <c r="C106" t="str">
-        <v>Marginal and Average Tax Rates</v>
+        <v>Dependents of the Taxpayer, Filing Status</v>
       </c>
       <c r="D106" t="str">
-        <v>Knowledge Application</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E106" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F106" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G106" t="str">
         <v>Apply</v>
       </c>
       <c r="H106" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I106" t="str">
-        <v>5 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J106" t="str">
-        <v>Algorithimic</v>
+        <v/>
       </c>
       <c r="K106" t="str">
-        <v>WK</v>
+        <v>MC</v>
       </c>
       <c r="L106" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M106" t="str">
-        <v>02-07  Explain the difference between marginal and average tax rates.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Problem 02-13 (Static) [LO 2-7]</v>
+        <v>Problem 4-42 Part-b (Static)</v>
       </c>
       <c r="B107" t="str">
-        <v>02-07</v>
+        <v>04-02, 04-03</v>
       </c>
       <c r="C107" t="str">
-        <v>Marginal and Average Tax Rates</v>
+        <v>Dependents of the Taxpayer, Filing Status</v>
       </c>
       <c r="D107" t="str">
-        <v>Knowledge Application</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E107" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F107" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G107" t="str">
         <v>Apply</v>
       </c>
       <c r="H107" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I107" t="str">
-        <v>5 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J107" t="str">
-        <v>Static</v>
+        <v/>
       </c>
       <c r="K107" t="str">
-        <v>WK</v>
+        <v>MC</v>
       </c>
       <c r="L107" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M107" t="str">
-        <v>02-07  Explain the difference between marginal and average tax rates.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Problem 02-14 (Algo) [LO 2-5, 2-6]</v>
+        <v>Problem 4-43 Part-a (Static)</v>
       </c>
       <c r="B108" t="str">
-        <v>02-06, 02-05</v>
+        <v>04-02, 04-03</v>
       </c>
       <c r="C108" t="str">
-        <v>Income Tax Rate Structures, Annual versus Lifetime Horizontal Equity</v>
+        <v>Dependents of the Taxpayer, Filing Status</v>
       </c>
       <c r="D108" t="str">
-        <v>Analytical Thinking</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E108" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F108" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G108" t="str">
         <v>Apply</v>
       </c>
       <c r="H108" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I108" t="str">
-        <v>5 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J108" t="str">
-        <v>Algorithimic</v>
+        <v/>
       </c>
       <c r="K108" t="str">
-        <v>WK</v>
+        <v>MC</v>
       </c>
       <c r="L108" t="str">
-        <v>automatic</v>
+        <v/>
       </c>
       <c r="M108" t="str">
-        <v>02-06  Differentiate between regressive, proportionate, and progressive rate structures.;02-05  Define horizontal and vertical equity.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Problem 02-14 (Static) [LO 2-5, 2-6]</v>
+        <v>Problem 4-43 Part-b (Static)</v>
       </c>
       <c r="B109" t="str">
-        <v>02-06, 02-05</v>
+        <v>04-02, 04-03</v>
       </c>
       <c r="C109" t="str">
-        <v>Income Tax Rate Structures, Annual versus Lifetime Horizontal Equity</v>
+        <v>Dependents of the Taxpayer, Filing Status</v>
       </c>
       <c r="D109" t="str">
-        <v>Analytical Thinking</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E109" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F109" t="str">
-        <v>Measurement</v>
+        <v/>
       </c>
       <c r="G109" t="str">
         <v>Apply</v>
       </c>
       <c r="H109" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I109" t="str">
-        <v>5 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J109" t="str">
-        <v>Static</v>
+        <v/>
       </c>
       <c r="K109" t="str">
+        <v>MC</v>
+      </c>
+      <c r="L109" t="str">
+        <v/>
+      </c>
+      <c r="M109" t="str">
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Problem 4-43 Part-c (Static)</v>
+      </c>
+      <c r="B110" t="str">
+        <v>04-02, 04-03</v>
+      </c>
+      <c r="C110" t="str">
+        <v>Dependents of the Taxpayer, Filing Status</v>
+      </c>
+      <c r="D110" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E110" t="str">
+        <v/>
+      </c>
+      <c r="F110" t="str">
+        <v/>
+      </c>
+      <c r="G110" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H110" t="str">
+        <v>3 Hard</v>
+      </c>
+      <c r="I110" t="str">
+        <v>20 min.</v>
+      </c>
+      <c r="J110" t="str">
+        <v/>
+      </c>
+      <c r="K110" t="str">
+        <v>MC</v>
+      </c>
+      <c r="L110" t="str">
+        <v/>
+      </c>
+      <c r="M110" t="str">
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Problem 4-43 Part-d (Static)</v>
+      </c>
+      <c r="B111" t="str">
+        <v>04-02, 04-03</v>
+      </c>
+      <c r="C111" t="str">
+        <v>Dependents of the Taxpayer, Filing Status</v>
+      </c>
+      <c r="D111" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E111" t="str">
+        <v/>
+      </c>
+      <c r="F111" t="str">
+        <v/>
+      </c>
+      <c r="G111" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H111" t="str">
+        <v>3 Hard</v>
+      </c>
+      <c r="I111" t="str">
+        <v>20 min.</v>
+      </c>
+      <c r="J111" t="str">
+        <v/>
+      </c>
+      <c r="K111" t="str">
+        <v>MC</v>
+      </c>
+      <c r="L111" t="str">
+        <v/>
+      </c>
+      <c r="M111" t="str">
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Problem 4-43 Part-e (Static)</v>
+      </c>
+      <c r="B112" t="str">
+        <v>04-02, 04-03</v>
+      </c>
+      <c r="C112" t="str">
+        <v>Dependents of the Taxpayer, Filing Status</v>
+      </c>
+      <c r="D112" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E112" t="str">
+        <v/>
+      </c>
+      <c r="F112" t="str">
+        <v/>
+      </c>
+      <c r="G112" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H112" t="str">
+        <v>3 Hard</v>
+      </c>
+      <c r="I112" t="str">
+        <v>20 min.</v>
+      </c>
+      <c r="J112" t="str">
+        <v/>
+      </c>
+      <c r="K112" t="str">
+        <v>MC</v>
+      </c>
+      <c r="L112" t="str">
+        <v/>
+      </c>
+      <c r="M112" t="str">
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Problem 4-44 Part-a (Static)</v>
+      </c>
+      <c r="B113" t="str">
+        <v>04-02, 04-03</v>
+      </c>
+      <c r="C113" t="str">
+        <v>Dependents of the Taxpayer, Filing Status</v>
+      </c>
+      <c r="D113" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E113" t="str">
+        <v/>
+      </c>
+      <c r="F113" t="str">
+        <v/>
+      </c>
+      <c r="G113" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H113" t="str">
+        <v>3 Hard</v>
+      </c>
+      <c r="I113" t="str">
+        <v>20 min.</v>
+      </c>
+      <c r="J113" t="str">
+        <v/>
+      </c>
+      <c r="K113" t="str">
+        <v>Check All That Apply</v>
+      </c>
+      <c r="L113" t="str">
+        <v/>
+      </c>
+      <c r="M113" t="str">
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>Problem 4-44 Part-b (Static)</v>
+      </c>
+      <c r="B114" t="str">
+        <v>04-02, 04-03</v>
+      </c>
+      <c r="C114" t="str">
+        <v>Dependents of the Taxpayer, Filing Status</v>
+      </c>
+      <c r="D114" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E114" t="str">
+        <v/>
+      </c>
+      <c r="F114" t="str">
+        <v/>
+      </c>
+      <c r="G114" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H114" t="str">
+        <v>3 Hard</v>
+      </c>
+      <c r="I114" t="str">
+        <v>20 min.</v>
+      </c>
+      <c r="J114" t="str">
+        <v/>
+      </c>
+      <c r="K114" t="str">
+        <v>Check All That Apply</v>
+      </c>
+      <c r="L114" t="str">
+        <v/>
+      </c>
+      <c r="M114" t="str">
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>Problem 4-44 Part-c (Static)</v>
+      </c>
+      <c r="B115" t="str">
+        <v>04-02, 04-03</v>
+      </c>
+      <c r="C115" t="str">
+        <v>Dependents of the Taxpayer, Filing Status</v>
+      </c>
+      <c r="D115" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E115" t="str">
+        <v/>
+      </c>
+      <c r="F115" t="str">
+        <v/>
+      </c>
+      <c r="G115" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H115" t="str">
+        <v>3 Hard</v>
+      </c>
+      <c r="I115" t="str">
+        <v>20 min.</v>
+      </c>
+      <c r="J115" t="str">
+        <v/>
+      </c>
+      <c r="K115" t="str">
+        <v>MC</v>
+      </c>
+      <c r="L115" t="str">
+        <v/>
+      </c>
+      <c r="M115" t="str">
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>Problem 4-45 Part-a (Static)</v>
+      </c>
+      <c r="B116" t="str">
+        <v>04-03</v>
+      </c>
+      <c r="C116" t="str">
+        <v>Filing Status</v>
+      </c>
+      <c r="D116" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E116" t="str">
+        <v/>
+      </c>
+      <c r="F116" t="str">
+        <v/>
+      </c>
+      <c r="G116" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H116" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I116" t="str">
+        <v>10 min.</v>
+      </c>
+      <c r="J116" t="str">
+        <v/>
+      </c>
+      <c r="K116" t="str">
+        <v>Multiple Choice</v>
+      </c>
+      <c r="L116" t="str">
+        <v/>
+      </c>
+      <c r="M116" t="str">
+        <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Problem 4-45 Part-b (Static)</v>
+      </c>
+      <c r="B117" t="str">
+        <v>04-03</v>
+      </c>
+      <c r="C117" t="str">
+        <v>Filing Status</v>
+      </c>
+      <c r="D117" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E117" t="str">
+        <v/>
+      </c>
+      <c r="F117" t="str">
+        <v/>
+      </c>
+      <c r="G117" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H117" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I117" t="str">
+        <v>10 min.</v>
+      </c>
+      <c r="J117" t="str">
+        <v/>
+      </c>
+      <c r="K117" t="str">
+        <v>Multiple Choice</v>
+      </c>
+      <c r="L117" t="str">
+        <v/>
+      </c>
+      <c r="M117" t="str">
+        <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Problem 4-45 Part-c (Static)</v>
+      </c>
+      <c r="B118" t="str">
+        <v>04-03</v>
+      </c>
+      <c r="C118" t="str">
+        <v>Filing Status</v>
+      </c>
+      <c r="D118" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E118" t="str">
+        <v/>
+      </c>
+      <c r="F118" t="str">
+        <v/>
+      </c>
+      <c r="G118" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H118" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I118" t="str">
+        <v>10 min.</v>
+      </c>
+      <c r="J118" t="str">
+        <v/>
+      </c>
+      <c r="K118" t="str">
+        <v>Multiple Choice</v>
+      </c>
+      <c r="L118" t="str">
+        <v/>
+      </c>
+      <c r="M118" t="str">
+        <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Problem 4-46 Part-a (Static)</v>
+      </c>
+      <c r="B119" t="str">
+        <v>04-03</v>
+      </c>
+      <c r="C119" t="str">
+        <v>Filing Status</v>
+      </c>
+      <c r="D119" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E119" t="str">
+        <v/>
+      </c>
+      <c r="F119" t="str">
+        <v/>
+      </c>
+      <c r="G119" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H119" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I119" t="str">
+        <v>10 min.</v>
+      </c>
+      <c r="J119" t="str">
+        <v/>
+      </c>
+      <c r="K119" t="str">
+        <v>Check All That Apply</v>
+      </c>
+      <c r="L119" t="str">
+        <v/>
+      </c>
+      <c r="M119" t="str">
+        <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Problem 4-46 Part-b (Static)</v>
+      </c>
+      <c r="B120" t="str">
+        <v>04-03</v>
+      </c>
+      <c r="C120" t="str">
+        <v>Filing Status</v>
+      </c>
+      <c r="D120" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E120" t="str">
+        <v/>
+      </c>
+      <c r="F120" t="str">
+        <v/>
+      </c>
+      <c r="G120" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H120" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I120" t="str">
+        <v>10 min.</v>
+      </c>
+      <c r="J120" t="str">
+        <v/>
+      </c>
+      <c r="K120" t="str">
+        <v>Check All That Apply</v>
+      </c>
+      <c r="L120" t="str">
+        <v/>
+      </c>
+      <c r="M120" t="str">
+        <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Problem 4-46 Part-a (Algo)</v>
+      </c>
+      <c r="B121" t="str">
+        <v>04-03</v>
+      </c>
+      <c r="C121" t="str">
+        <v>Filing Status</v>
+      </c>
+      <c r="D121" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E121" t="str">
+        <v/>
+      </c>
+      <c r="F121" t="str">
+        <v/>
+      </c>
+      <c r="G121" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H121" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I121" t="str">
+        <v>10 min.</v>
+      </c>
+      <c r="J121" t="str">
+        <v/>
+      </c>
+      <c r="K121" t="str">
+        <v>Check All That Apply</v>
+      </c>
+      <c r="L121" t="str">
+        <v/>
+      </c>
+      <c r="M121" t="str">
+        <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>Problem 4-46 Part-b (Algo)</v>
+      </c>
+      <c r="B122" t="str">
+        <v>04-03</v>
+      </c>
+      <c r="C122" t="str">
+        <v>Filing Status</v>
+      </c>
+      <c r="D122" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E122" t="str">
+        <v/>
+      </c>
+      <c r="F122" t="str">
+        <v/>
+      </c>
+      <c r="G122" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H122" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I122" t="str">
+        <v>10 min.</v>
+      </c>
+      <c r="J122" t="str">
+        <v/>
+      </c>
+      <c r="K122" t="str">
+        <v>Check All That Apply</v>
+      </c>
+      <c r="L122" t="str">
+        <v/>
+      </c>
+      <c r="M122" t="str">
+        <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Problem 4-47 Part-a (Static)</v>
+      </c>
+      <c r="B123" t="str">
+        <v>04-03</v>
+      </c>
+      <c r="C123" t="str">
+        <v>Filing Status</v>
+      </c>
+      <c r="D123" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E123" t="str">
+        <v/>
+      </c>
+      <c r="F123" t="str">
+        <v/>
+      </c>
+      <c r="G123" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H123" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I123" t="str">
+        <v>20 min.</v>
+      </c>
+      <c r="J123" t="str">
+        <v/>
+      </c>
+      <c r="K123" t="str">
+        <v>Problem</v>
+      </c>
+      <c r="L123" t="str">
+        <v/>
+      </c>
+      <c r="M123" t="str">
+        <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Problem 4-47 Part-b (Static)</v>
+      </c>
+      <c r="B124" t="str">
+        <v>04-03</v>
+      </c>
+      <c r="C124" t="str">
+        <v>Filing Status</v>
+      </c>
+      <c r="D124" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E124" t="str">
+        <v/>
+      </c>
+      <c r="F124" t="str">
+        <v/>
+      </c>
+      <c r="G124" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H124" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I124" t="str">
+        <v>20 min.</v>
+      </c>
+      <c r="J124" t="str">
+        <v/>
+      </c>
+      <c r="K124" t="str">
+        <v>Problem</v>
+      </c>
+      <c r="L124" t="str">
+        <v/>
+      </c>
+      <c r="M124" t="str">
+        <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>Problem 4-47 Part-c (Static)</v>
+      </c>
+      <c r="B125" t="str">
+        <v>04-03</v>
+      </c>
+      <c r="C125" t="str">
+        <v>Filing Status</v>
+      </c>
+      <c r="D125" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E125" t="str">
+        <v/>
+      </c>
+      <c r="F125" t="str">
+        <v/>
+      </c>
+      <c r="G125" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H125" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I125" t="str">
+        <v>20 min.</v>
+      </c>
+      <c r="J125" t="str">
+        <v/>
+      </c>
+      <c r="K125" t="str">
+        <v>Problem</v>
+      </c>
+      <c r="L125" t="str">
+        <v/>
+      </c>
+      <c r="M125" t="str">
+        <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>Problem 4-47 Part-a (Algo)</v>
+      </c>
+      <c r="B126" t="str">
+        <v>04-03</v>
+      </c>
+      <c r="C126" t="str">
+        <v>Filing Status</v>
+      </c>
+      <c r="D126" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E126" t="str">
+        <v/>
+      </c>
+      <c r="F126" t="str">
+        <v/>
+      </c>
+      <c r="G126" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H126" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I126" t="str">
+        <v>20 min.</v>
+      </c>
+      <c r="J126" t="str">
+        <v/>
+      </c>
+      <c r="K126" t="str">
+        <v>Problem</v>
+      </c>
+      <c r="L126" t="str">
+        <v/>
+      </c>
+      <c r="M126" t="str">
+        <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>Problem 4-47 Part-b (Algo)</v>
+      </c>
+      <c r="B127" t="str">
+        <v>04-03</v>
+      </c>
+      <c r="C127" t="str">
+        <v>Filing Status</v>
+      </c>
+      <c r="D127" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E127" t="str">
+        <v/>
+      </c>
+      <c r="F127" t="str">
+        <v/>
+      </c>
+      <c r="G127" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H127" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I127" t="str">
+        <v>20 min.</v>
+      </c>
+      <c r="J127" t="str">
+        <v/>
+      </c>
+      <c r="K127" t="str">
+        <v>Problem</v>
+      </c>
+      <c r="L127" t="str">
+        <v/>
+      </c>
+      <c r="M127" t="str">
+        <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>Problem 4-47 Part-c (Algo)</v>
+      </c>
+      <c r="B128" t="str">
+        <v>04-03</v>
+      </c>
+      <c r="C128" t="str">
+        <v>Filing Status</v>
+      </c>
+      <c r="D128" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E128" t="str">
+        <v/>
+      </c>
+      <c r="F128" t="str">
+        <v/>
+      </c>
+      <c r="G128" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H128" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I128" t="str">
+        <v>20 min.</v>
+      </c>
+      <c r="J128" t="str">
+        <v/>
+      </c>
+      <c r="K128" t="str">
+        <v>Problem</v>
+      </c>
+      <c r="L128" t="str">
+        <v/>
+      </c>
+      <c r="M128" t="str">
+        <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>Problem 4-48 Part-a (Static)</v>
+      </c>
+      <c r="B129" t="str">
+        <v>04-03</v>
+      </c>
+      <c r="C129" t="str">
+        <v>Filing Status</v>
+      </c>
+      <c r="D129" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E129" t="str">
+        <v/>
+      </c>
+      <c r="F129" t="str">
+        <v/>
+      </c>
+      <c r="G129" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H129" t="str">
+        <v>3 Hard</v>
+      </c>
+      <c r="I129" t="str">
+        <v>35 min.</v>
+      </c>
+      <c r="J129" t="str">
+        <v/>
+      </c>
+      <c r="K129" t="str">
+        <v>Problem</v>
+      </c>
+      <c r="L129" t="str">
+        <v/>
+      </c>
+      <c r="M129" t="str">
+        <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>Problem 4-48 Part-b (Static)</v>
+      </c>
+      <c r="B130" t="str">
+        <v>04-03</v>
+      </c>
+      <c r="C130" t="str">
+        <v>Filing Status</v>
+      </c>
+      <c r="D130" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E130" t="str">
+        <v/>
+      </c>
+      <c r="F130" t="str">
+        <v/>
+      </c>
+      <c r="G130" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H130" t="str">
+        <v>3 Hard</v>
+      </c>
+      <c r="I130" t="str">
+        <v>35 min.</v>
+      </c>
+      <c r="J130" t="str">
+        <v/>
+      </c>
+      <c r="K130" t="str">
+        <v>Problem</v>
+      </c>
+      <c r="L130" t="str">
+        <v/>
+      </c>
+      <c r="M130" t="str">
+        <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>Problem 4-48 Part-c (Static)</v>
+      </c>
+      <c r="B131" t="str">
+        <v>04-03</v>
+      </c>
+      <c r="C131" t="str">
+        <v>Filing Status</v>
+      </c>
+      <c r="D131" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E131" t="str">
+        <v/>
+      </c>
+      <c r="F131" t="str">
+        <v/>
+      </c>
+      <c r="G131" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H131" t="str">
+        <v>3 Hard</v>
+      </c>
+      <c r="I131" t="str">
+        <v>35 min.</v>
+      </c>
+      <c r="J131" t="str">
+        <v/>
+      </c>
+      <c r="K131" t="str">
+        <v>Problem</v>
+      </c>
+      <c r="L131" t="str">
+        <v/>
+      </c>
+      <c r="M131" t="str">
+        <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>Problem 4-48 Part-d (Static)</v>
+      </c>
+      <c r="B132" t="str">
+        <v>04-03</v>
+      </c>
+      <c r="C132" t="str">
+        <v>Filing Status</v>
+      </c>
+      <c r="D132" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E132" t="str">
+        <v/>
+      </c>
+      <c r="F132" t="str">
+        <v/>
+      </c>
+      <c r="G132" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H132" t="str">
+        <v>3 Hard</v>
+      </c>
+      <c r="I132" t="str">
+        <v>35 min.</v>
+      </c>
+      <c r="J132" t="str">
+        <v/>
+      </c>
+      <c r="K132" t="str">
+        <v>Problem</v>
+      </c>
+      <c r="L132" t="str">
+        <v/>
+      </c>
+      <c r="M132" t="str">
+        <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>Problem 4-48 Part-a (Algo)</v>
+      </c>
+      <c r="B133" t="str">
+        <v>04-03</v>
+      </c>
+      <c r="C133" t="str">
+        <v>Filing Status</v>
+      </c>
+      <c r="D133" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E133" t="str">
+        <v/>
+      </c>
+      <c r="F133" t="str">
+        <v/>
+      </c>
+      <c r="G133" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H133" t="str">
+        <v>3 Hard</v>
+      </c>
+      <c r="I133" t="str">
+        <v>35 min.</v>
+      </c>
+      <c r="J133" t="str">
+        <v/>
+      </c>
+      <c r="K133" t="str">
+        <v>Problem</v>
+      </c>
+      <c r="L133" t="str">
+        <v/>
+      </c>
+      <c r="M133" t="str">
+        <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>Problem 4-48 Part-b (Algo)</v>
+      </c>
+      <c r="B134" t="str">
+        <v>04-03</v>
+      </c>
+      <c r="C134" t="str">
+        <v>Filing Status</v>
+      </c>
+      <c r="D134" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E134" t="str">
+        <v/>
+      </c>
+      <c r="F134" t="str">
+        <v/>
+      </c>
+      <c r="G134" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H134" t="str">
+        <v>3 Hard</v>
+      </c>
+      <c r="I134" t="str">
+        <v>35 min.</v>
+      </c>
+      <c r="J134" t="str">
+        <v/>
+      </c>
+      <c r="K134" t="str">
+        <v>Problem</v>
+      </c>
+      <c r="L134" t="str">
+        <v/>
+      </c>
+      <c r="M134" t="str">
+        <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>Problem 4-48 Part-c (Algo)</v>
+      </c>
+      <c r="B135" t="str">
+        <v>04-03</v>
+      </c>
+      <c r="C135" t="str">
+        <v>Filing Status</v>
+      </c>
+      <c r="D135" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E135" t="str">
+        <v/>
+      </c>
+      <c r="F135" t="str">
+        <v/>
+      </c>
+      <c r="G135" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H135" t="str">
+        <v>3 Hard</v>
+      </c>
+      <c r="I135" t="str">
+        <v>35 min.</v>
+      </c>
+      <c r="J135" t="str">
+        <v/>
+      </c>
+      <c r="K135" t="str">
+        <v>Problem</v>
+      </c>
+      <c r="L135" t="str">
+        <v/>
+      </c>
+      <c r="M135" t="str">
+        <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Problem 4-48 Part-d (Algo)</v>
+      </c>
+      <c r="B136" t="str">
+        <v>04-03</v>
+      </c>
+      <c r="C136" t="str">
+        <v>Filing Status</v>
+      </c>
+      <c r="D136" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E136" t="str">
+        <v/>
+      </c>
+      <c r="F136" t="str">
+        <v/>
+      </c>
+      <c r="G136" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H136" t="str">
+        <v>3 Hard</v>
+      </c>
+      <c r="I136" t="str">
+        <v>35 min.</v>
+      </c>
+      <c r="J136" t="str">
+        <v/>
+      </c>
+      <c r="K136" t="str">
+        <v>Problem</v>
+      </c>
+      <c r="L136" t="str">
+        <v/>
+      </c>
+      <c r="M136" t="str">
+        <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>Problem 4-49 Part-a (Static)</v>
+      </c>
+      <c r="B137" t="str">
+        <v>04-03</v>
+      </c>
+      <c r="C137" t="str">
+        <v>Filing Status</v>
+      </c>
+      <c r="D137" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E137" t="str">
+        <v/>
+      </c>
+      <c r="F137" t="str">
+        <v/>
+      </c>
+      <c r="G137" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H137" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I137" t="str">
+        <v>25 min.</v>
+      </c>
+      <c r="J137" t="str">
+        <v/>
+      </c>
+      <c r="K137" t="str">
         <v>WK</v>
       </c>
-      <c r="L109" t="str">
-        <v>automatic</v>
-      </c>
-      <c r="M109" t="str">
-        <v>02-06  Differentiate between regressive, proportionate, and progressive rate structures.;02-05  Define horizontal and vertical equity.</v>
+      <c r="L137" t="str">
+        <v/>
+      </c>
+      <c r="M137" t="str">
+        <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>Problem 4-49 Part-b (Static)</v>
+      </c>
+      <c r="B138" t="str">
+        <v>04-03</v>
+      </c>
+      <c r="C138" t="str">
+        <v>Filing Status</v>
+      </c>
+      <c r="D138" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E138" t="str">
+        <v/>
+      </c>
+      <c r="F138" t="str">
+        <v/>
+      </c>
+      <c r="G138" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H138" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I138" t="str">
+        <v>25 min.</v>
+      </c>
+      <c r="J138" t="str">
+        <v/>
+      </c>
+      <c r="K138" t="str">
+        <v>WK</v>
+      </c>
+      <c r="L138" t="str">
+        <v/>
+      </c>
+      <c r="M138" t="str">
+        <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>Problem 4-49 Part-c (Static)</v>
+      </c>
+      <c r="B139" t="str">
+        <v>04-03</v>
+      </c>
+      <c r="C139" t="str">
+        <v>Filing Status</v>
+      </c>
+      <c r="D139" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E139" t="str">
+        <v/>
+      </c>
+      <c r="F139" t="str">
+        <v/>
+      </c>
+      <c r="G139" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H139" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I139" t="str">
+        <v>25 min.</v>
+      </c>
+      <c r="J139" t="str">
+        <v/>
+      </c>
+      <c r="K139" t="str">
+        <v>WK</v>
+      </c>
+      <c r="L139" t="str">
+        <v/>
+      </c>
+      <c r="M139" t="str">
+        <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>Problem 4-49 Part-d (Static)</v>
+      </c>
+      <c r="B140" t="str">
+        <v>04-03</v>
+      </c>
+      <c r="C140" t="str">
+        <v>Filing Status</v>
+      </c>
+      <c r="D140" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E140" t="str">
+        <v/>
+      </c>
+      <c r="F140" t="str">
+        <v/>
+      </c>
+      <c r="G140" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H140" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I140" t="str">
+        <v>25 min.</v>
+      </c>
+      <c r="J140" t="str">
+        <v/>
+      </c>
+      <c r="K140" t="str">
+        <v>WK</v>
+      </c>
+      <c r="L140" t="str">
+        <v/>
+      </c>
+      <c r="M140" t="str">
+        <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>Problem 4-49 Part-e (Static)</v>
+      </c>
+      <c r="B141" t="str">
+        <v>04-03</v>
+      </c>
+      <c r="C141" t="str">
+        <v>Filing Status</v>
+      </c>
+      <c r="D141" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E141" t="str">
+        <v/>
+      </c>
+      <c r="F141" t="str">
+        <v/>
+      </c>
+      <c r="G141" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H141" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I141" t="str">
+        <v>25 min.</v>
+      </c>
+      <c r="J141" t="str">
+        <v/>
+      </c>
+      <c r="K141" t="str">
+        <v>WK</v>
+      </c>
+      <c r="L141" t="str">
+        <v/>
+      </c>
+      <c r="M141" t="str">
+        <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>Problem 4-50 Part-a (Static)</v>
+      </c>
+      <c r="B142" t="str">
+        <v>04-02, 04-03</v>
+      </c>
+      <c r="C142" t="str">
+        <v>Dependents of the Taxpayer, Filing Status</v>
+      </c>
+      <c r="D142" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E142" t="str">
+        <v/>
+      </c>
+      <c r="F142" t="str">
+        <v/>
+      </c>
+      <c r="G142" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H142" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I142" t="str">
+        <v>25 min.</v>
+      </c>
+      <c r="J142" t="str">
+        <v/>
+      </c>
+      <c r="K142" t="str">
+        <v>Problem</v>
+      </c>
+      <c r="L142" t="str">
+        <v/>
+      </c>
+      <c r="M142" t="str">
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>Problem 4-50 Part-b (Static)</v>
+      </c>
+      <c r="B143" t="str">
+        <v>04-02, 04-03</v>
+      </c>
+      <c r="C143" t="str">
+        <v>Dependents of the Taxpayer, Filing Status</v>
+      </c>
+      <c r="D143" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E143" t="str">
+        <v/>
+      </c>
+      <c r="F143" t="str">
+        <v/>
+      </c>
+      <c r="G143" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H143" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I143" t="str">
+        <v>25 min.</v>
+      </c>
+      <c r="J143" t="str">
+        <v/>
+      </c>
+      <c r="K143" t="str">
+        <v>Problem</v>
+      </c>
+      <c r="L143" t="str">
+        <v/>
+      </c>
+      <c r="M143" t="str">
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>Problem 4-50 Part-c (Static)</v>
+      </c>
+      <c r="B144" t="str">
+        <v>04-02, 04-03</v>
+      </c>
+      <c r="C144" t="str">
+        <v>Dependents of the Taxpayer, Filing Status</v>
+      </c>
+      <c r="D144" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E144" t="str">
+        <v/>
+      </c>
+      <c r="F144" t="str">
+        <v/>
+      </c>
+      <c r="G144" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H144" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I144" t="str">
+        <v>25 min.</v>
+      </c>
+      <c r="J144" t="str">
+        <v/>
+      </c>
+      <c r="K144" t="str">
+        <v>Problem</v>
+      </c>
+      <c r="L144" t="str">
+        <v/>
+      </c>
+      <c r="M144" t="str">
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>Problem 4-50 Part-d (Static)</v>
+      </c>
+      <c r="B145" t="str">
+        <v>04-02, 04-03</v>
+      </c>
+      <c r="C145" t="str">
+        <v>Dependents of the Taxpayer, Filing Status</v>
+      </c>
+      <c r="D145" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E145" t="str">
+        <v/>
+      </c>
+      <c r="F145" t="str">
+        <v/>
+      </c>
+      <c r="G145" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H145" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I145" t="str">
+        <v>25 min.</v>
+      </c>
+      <c r="J145" t="str">
+        <v/>
+      </c>
+      <c r="K145" t="str">
+        <v>Problem</v>
+      </c>
+      <c r="L145" t="str">
+        <v/>
+      </c>
+      <c r="M145" t="str">
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>Problem 4-50 Part-e (Static)</v>
+      </c>
+      <c r="B146" t="str">
+        <v>04-02, 04-03</v>
+      </c>
+      <c r="C146" t="str">
+        <v>Dependents of the Taxpayer, Filing Status</v>
+      </c>
+      <c r="D146" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E146" t="str">
+        <v/>
+      </c>
+      <c r="F146" t="str">
+        <v/>
+      </c>
+      <c r="G146" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H146" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I146" t="str">
+        <v>25 min.</v>
+      </c>
+      <c r="J146" t="str">
+        <v/>
+      </c>
+      <c r="K146" t="str">
+        <v>Multiple Choice</v>
+      </c>
+      <c r="L146" t="str">
+        <v/>
+      </c>
+      <c r="M146" t="str">
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>Problem 4-51 Part-a (Static)</v>
+      </c>
+      <c r="B147" t="str">
+        <v>04-02, 04-03</v>
+      </c>
+      <c r="C147" t="str">
+        <v>Dependents of the Taxpayer, Filing Status</v>
+      </c>
+      <c r="D147" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E147" t="str">
+        <v/>
+      </c>
+      <c r="F147" t="str">
+        <v/>
+      </c>
+      <c r="G147" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H147" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I147" t="str">
+        <v>25 min.</v>
+      </c>
+      <c r="J147" t="str">
+        <v/>
+      </c>
+      <c r="K147" t="str">
+        <v>Problem</v>
+      </c>
+      <c r="L147" t="str">
+        <v/>
+      </c>
+      <c r="M147" t="str">
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>Problem 4-51 Part-b (Static)</v>
+      </c>
+      <c r="B148" t="str">
+        <v>04-02, 04-03</v>
+      </c>
+      <c r="C148" t="str">
+        <v>Dependents of the Taxpayer, Filing Status</v>
+      </c>
+      <c r="D148" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E148" t="str">
+        <v/>
+      </c>
+      <c r="F148" t="str">
+        <v/>
+      </c>
+      <c r="G148" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H148" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I148" t="str">
+        <v>25 min.</v>
+      </c>
+      <c r="J148" t="str">
+        <v/>
+      </c>
+      <c r="K148" t="str">
+        <v>Problem</v>
+      </c>
+      <c r="L148" t="str">
+        <v/>
+      </c>
+      <c r="M148" t="str">
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>Problem 4-51 Part-c (Static)</v>
+      </c>
+      <c r="B149" t="str">
+        <v>04-02, 04-03</v>
+      </c>
+      <c r="C149" t="str">
+        <v>Dependents of the Taxpayer, Filing Status</v>
+      </c>
+      <c r="D149" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E149" t="str">
+        <v/>
+      </c>
+      <c r="F149" t="str">
+        <v/>
+      </c>
+      <c r="G149" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H149" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I149" t="str">
+        <v>25 min.</v>
+      </c>
+      <c r="J149" t="str">
+        <v/>
+      </c>
+      <c r="K149" t="str">
+        <v>Problem</v>
+      </c>
+      <c r="L149" t="str">
+        <v/>
+      </c>
+      <c r="M149" t="str">
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>Problem 4-51 Part-d (Static)</v>
+      </c>
+      <c r="B150" t="str">
+        <v>04-02, 04-03</v>
+      </c>
+      <c r="C150" t="str">
+        <v>Dependents of the Taxpayer, Filing Status</v>
+      </c>
+      <c r="D150" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E150" t="str">
+        <v/>
+      </c>
+      <c r="F150" t="str">
+        <v/>
+      </c>
+      <c r="G150" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H150" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I150" t="str">
+        <v>25 min.</v>
+      </c>
+      <c r="J150" t="str">
+        <v/>
+      </c>
+      <c r="K150" t="str">
+        <v>Problem</v>
+      </c>
+      <c r="L150" t="str">
+        <v/>
+      </c>
+      <c r="M150" t="str">
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>Problem 4-51 Part-e (Static)</v>
+      </c>
+      <c r="B151" t="str">
+        <v>04-02, 04-03</v>
+      </c>
+      <c r="C151" t="str">
+        <v>Dependents of the Taxpayer, Filing Status</v>
+      </c>
+      <c r="D151" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E151" t="str">
+        <v/>
+      </c>
+      <c r="F151" t="str">
+        <v/>
+      </c>
+      <c r="G151" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H151" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I151" t="str">
+        <v>25 min.</v>
+      </c>
+      <c r="J151" t="str">
+        <v/>
+      </c>
+      <c r="K151" t="str">
+        <v>Problem</v>
+      </c>
+      <c r="L151" t="str">
+        <v/>
+      </c>
+      <c r="M151" t="str">
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>Problem 4-52 Part-a (Static)</v>
+      </c>
+      <c r="B152" t="str">
+        <v>04-03</v>
+      </c>
+      <c r="C152" t="str">
+        <v>Filing Status</v>
+      </c>
+      <c r="D152" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E152" t="str">
+        <v/>
+      </c>
+      <c r="F152" t="str">
+        <v/>
+      </c>
+      <c r="G152" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H152" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I152" t="str">
+        <v>15 min.</v>
+      </c>
+      <c r="J152" t="str">
+        <v/>
+      </c>
+      <c r="K152" t="str">
+        <v>WK</v>
+      </c>
+      <c r="L152" t="str">
+        <v/>
+      </c>
+      <c r="M152" t="str">
+        <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>Problem 4-52 Part-b (Static)</v>
+      </c>
+      <c r="B153" t="str">
+        <v>04-03</v>
+      </c>
+      <c r="C153" t="str">
+        <v>Filing Status</v>
+      </c>
+      <c r="D153" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E153" t="str">
+        <v/>
+      </c>
+      <c r="F153" t="str">
+        <v/>
+      </c>
+      <c r="G153" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H153" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I153" t="str">
+        <v>15 min.</v>
+      </c>
+      <c r="J153" t="str">
+        <v/>
+      </c>
+      <c r="K153" t="str">
+        <v>WK</v>
+      </c>
+      <c r="L153" t="str">
+        <v/>
+      </c>
+      <c r="M153" t="str">
+        <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>Problem 4-52 Part-a (Algo)</v>
+      </c>
+      <c r="B154" t="str">
+        <v>04-03</v>
+      </c>
+      <c r="C154" t="str">
+        <v>Filing Status</v>
+      </c>
+      <c r="D154" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E154" t="str">
+        <v/>
+      </c>
+      <c r="F154" t="str">
+        <v/>
+      </c>
+      <c r="G154" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H154" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I154" t="str">
+        <v>15 min.</v>
+      </c>
+      <c r="J154" t="str">
+        <v/>
+      </c>
+      <c r="K154" t="str">
+        <v>WK</v>
+      </c>
+      <c r="L154" t="str">
+        <v/>
+      </c>
+      <c r="M154" t="str">
+        <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>Problem 4-52 Part-b (Algo)</v>
+      </c>
+      <c r="B155" t="str">
+        <v>04-03</v>
+      </c>
+      <c r="C155" t="str">
+        <v>Filing Status</v>
+      </c>
+      <c r="D155" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E155" t="str">
+        <v/>
+      </c>
+      <c r="F155" t="str">
+        <v/>
+      </c>
+      <c r="G155" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H155" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I155" t="str">
+        <v>15 min.</v>
+      </c>
+      <c r="J155" t="str">
+        <v/>
+      </c>
+      <c r="K155" t="str">
+        <v>WK</v>
+      </c>
+      <c r="L155" t="str">
+        <v/>
+      </c>
+      <c r="M155" t="str">
+        <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>Problem 4-54 (LO 4-3) (Static)</v>
+      </c>
+      <c r="B156" t="str">
+        <v>04-03</v>
+      </c>
+      <c r="C156" t="str">
+        <v>Filing Status</v>
+      </c>
+      <c r="D156" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E156" t="str">
+        <v/>
+      </c>
+      <c r="F156" t="str">
+        <v/>
+      </c>
+      <c r="G156" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H156" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I156" t="str">
+        <v>15 min.</v>
+      </c>
+      <c r="J156" t="str">
+        <v/>
+      </c>
+      <c r="K156" t="str">
+        <v>MC</v>
+      </c>
+      <c r="L156" t="str">
+        <v/>
+      </c>
+      <c r="M156" t="str">
+        <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M109"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M156"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2690,1036 +6831,2493 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>AP1-1</v>
+        <v xml:space="preserve">D4-1 </v>
       </c>
       <c r="B2" t="str">
-        <v>LO 01-01</v>
+        <v xml:space="preserve"> 04-01</v>
       </c>
       <c r="C2" t="str">
-        <v>Some Basic Terminology</v>
+        <v xml:space="preserve"> The Individual Income Tax Formula</v>
       </c>
       <c r="D2" t="str">
-        <v>Knowledge Application</v>
+        <v>Analytical Thinking</v>
       </c>
       <c r="E2" t="str">
-        <v>Legal</v>
+        <v>NA</v>
       </c>
       <c r="F2" t="str">
-        <v>Decision Making</v>
+        <v>NA</v>
       </c>
       <c r="G2" t="str">
-        <v>2 - Understand</v>
+        <v>Apply</v>
       </c>
       <c r="H2" t="str">
-        <v>Medium</v>
+        <v>2 Medium</v>
       </c>
       <c r="I2" t="str">
-        <v>01-05</v>
+        <v>10 min</v>
       </c>
       <c r="J2" t="str">
         <v>s</v>
       </c>
       <c r="K2" t="str">
-        <v>Select All That Apply</v>
-      </c>
-    </row>
-    <row r="3" xml:space="preserve">
+        <v>Essay</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="str">
-        <v>AP1-2</v>
+        <v xml:space="preserve">D4-2 </v>
       </c>
       <c r="B3" t="str">
-        <v>LO 01-01; LO 01-05</v>
-      </c>
-      <c r="C3" t="str" xml:space="preserve">
-        <v xml:space="preserve">Some Basic Terminology_x000d_
-Federal Income Taxes</v>
+        <v xml:space="preserve"> 04-01</v>
+      </c>
+      <c r="C3" t="str">
+        <v xml:space="preserve"> The Individual Income Tax Formula</v>
       </c>
       <c r="D3" t="str">
-        <v>Knowledge Application</v>
-      </c>
-      <c r="E3" t="str" xml:space="preserve">
-        <v xml:space="preserve">Legal_x000d_
-Global</v>
+        <v>Analytical Thinking</v>
+      </c>
+      <c r="E3" t="str">
+        <v>NA</v>
       </c>
       <c r="F3" t="str">
-        <v>Decision Making</v>
+        <v>NA</v>
       </c>
       <c r="G3" t="str">
-        <v>2 - Understand</v>
+        <v>Apply</v>
       </c>
       <c r="H3" t="str">
-        <v>Medium</v>
+        <v>2 Medium</v>
       </c>
       <c r="I3" t="str">
-        <v>01-05</v>
+        <v>10 min</v>
       </c>
       <c r="J3" t="str">
         <v>s</v>
       </c>
       <c r="K3" t="str">
-        <v>Multiple Choice</v>
-      </c>
-    </row>
-    <row r="4" xml:space="preserve">
+        <v>Essay</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="str">
-        <v>AP1-3</v>
+        <v xml:space="preserve">D4-3 </v>
       </c>
       <c r="B4" t="str">
-        <v>LO 01-01; LO 01-05</v>
-      </c>
-      <c r="C4" t="str" xml:space="preserve">
-        <v xml:space="preserve">Some Basic Terminology_x000d_
-Federal Income Taxes</v>
+        <v xml:space="preserve"> 04-01</v>
+      </c>
+      <c r="C4" t="str">
+        <v xml:space="preserve"> The Individual Income Tax Formula</v>
       </c>
       <c r="D4" t="str">
-        <v>Knowledge Application</v>
-      </c>
-      <c r="E4" t="str" xml:space="preserve">
-        <v xml:space="preserve">Legal_x000d_
-Global</v>
+        <v>Analytical Thinking</v>
+      </c>
+      <c r="E4" t="str">
+        <v>NA</v>
       </c>
       <c r="F4" t="str">
-        <v>Decision Making</v>
+        <v>NA</v>
       </c>
       <c r="G4" t="str">
-        <v>2 - Understand</v>
+        <v>Apply</v>
       </c>
       <c r="H4" t="str">
-        <v>Medium</v>
+        <v>2 Medium</v>
       </c>
       <c r="I4" t="str">
-        <v>01-05</v>
+        <v>10 min</v>
       </c>
       <c r="J4" t="str">
         <v>s</v>
       </c>
       <c r="K4" t="str">
-        <v>Multiple Choice</v>
+        <v>Essay</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>AP1-4</v>
+        <v xml:space="preserve">D4-4 </v>
       </c>
       <c r="B5" t="str">
-        <v>LO 01-02</v>
+        <v xml:space="preserve"> 04-01 </v>
       </c>
       <c r="C5" t="str">
-        <v>The Relationship between Base, Rate, and Revenue</v>
+        <v xml:space="preserve"> The Individual Income Tax Formula</v>
       </c>
       <c r="D5" t="str">
         <v>Analytical Thinking</v>
       </c>
       <c r="E5" t="str">
-        <v>Critical Thinking</v>
+        <v>NA</v>
       </c>
       <c r="F5" t="str">
-        <v>Measurement</v>
+        <v>NA</v>
       </c>
       <c r="G5" t="str">
-        <v>3 - Apply</v>
+        <v>Apply</v>
       </c>
       <c r="H5" t="str">
-        <v>Medium</v>
+        <v>2 Medium</v>
       </c>
       <c r="I5" t="str">
-        <v>01-05</v>
+        <v>20 min</v>
       </c>
       <c r="J5" t="str">
-        <v>b</v>
+        <v>s</v>
       </c>
       <c r="K5" t="str">
-        <v>Worksheet</v>
+        <v>Essay</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>AP1-5</v>
+        <v xml:space="preserve">D4-5 </v>
       </c>
       <c r="B6" t="str">
-        <v>LO 01-02; LO 01-03</v>
+        <v xml:space="preserve"> 04-01 </v>
       </c>
       <c r="C6" t="str">
-        <v>Local Taxes</v>
+        <v xml:space="preserve"> The Individual Income Tax Formula</v>
       </c>
       <c r="D6" t="str">
-        <v>Knowledge Application</v>
+        <v>Analytical Thinking</v>
       </c>
       <c r="E6" t="str">
-        <v>Critical Thinking</v>
+        <v>NA</v>
       </c>
       <c r="F6" t="str">
-        <v>Measurement</v>
+        <v>NA</v>
       </c>
       <c r="G6" t="str">
-        <v>3 - Apply</v>
+        <v>Apply</v>
       </c>
       <c r="H6" t="str">
-        <v>Medium</v>
+        <v>2 Medium</v>
       </c>
       <c r="I6" t="str">
-        <v>01-05</v>
+        <v>20 min</v>
       </c>
       <c r="J6" t="str">
-        <v>b</v>
+        <v>s</v>
       </c>
       <c r="K6" t="str">
-        <v>Worksheet</v>
+        <v>Essay</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>AP1-6</v>
+        <v xml:space="preserve">D4-6 </v>
       </c>
       <c r="B7" t="str">
-        <v>LO 01-02; LO 01-03</v>
+        <v xml:space="preserve"> 04-01 </v>
       </c>
       <c r="C7" t="str">
-        <v>Local Taxes</v>
+        <v xml:space="preserve"> The Individual Income Tax Formula</v>
       </c>
       <c r="D7" t="str">
-        <v>Knowledge Application</v>
+        <v>Analytical Thinking</v>
       </c>
       <c r="E7" t="str">
-        <v>Critical Thinking</v>
+        <v>NA</v>
       </c>
       <c r="F7" t="str">
-        <v>Measurement</v>
+        <v>NA</v>
       </c>
       <c r="G7" t="str">
-        <v>3 - Apply</v>
+        <v>Apply</v>
       </c>
       <c r="H7" t="str">
-        <v>Medium</v>
+        <v>2 Medium</v>
       </c>
       <c r="I7" t="str">
-        <v>01-05</v>
+        <v>20 min</v>
       </c>
       <c r="J7" t="str">
-        <v>b</v>
+        <v>s</v>
       </c>
       <c r="K7" t="str">
-        <v>Worksheet</v>
+        <v>Essay</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>AP1-7</v>
+        <v xml:space="preserve">D4-7 </v>
       </c>
       <c r="B8" t="str">
-        <v>LO 01-03</v>
+        <v xml:space="preserve"> 04-01 </v>
       </c>
       <c r="C8" t="str">
-        <v>Local Taxes</v>
+        <v xml:space="preserve"> The Individual Income Tax Formula</v>
       </c>
       <c r="D8" t="str">
         <v>Analytical Thinking</v>
       </c>
       <c r="E8" t="str">
-        <v>Critical Thinking</v>
+        <v>NA</v>
       </c>
       <c r="F8" t="str">
-        <v>Measurement</v>
+        <v>NA</v>
       </c>
       <c r="G8" t="str">
-        <v>3 - Apply</v>
+        <v>Apply</v>
       </c>
       <c r="H8" t="str">
-        <v>Medium</v>
+        <v>2 Medium</v>
       </c>
       <c r="I8" t="str">
-        <v>01-05</v>
+        <v>20 min</v>
       </c>
       <c r="J8" t="str">
-        <v>b</v>
+        <v>s</v>
       </c>
       <c r="K8" t="str">
-        <v>Worksheet</v>
+        <v>Essay</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>AP1-8</v>
+        <v xml:space="preserve">D4-8 </v>
       </c>
       <c r="B9" t="str">
-        <v>LO 01-04</v>
+        <v xml:space="preserve"> 04-01 </v>
       </c>
       <c r="C9" t="str">
-        <v>Retail Sales, Use, and Excise Taxes</v>
+        <v xml:space="preserve"> The Individual Income Tax Formula</v>
       </c>
       <c r="D9" t="str">
         <v>Analytical Thinking</v>
       </c>
       <c r="E9" t="str">
-        <v>Critical Thinking</v>
+        <v>NA</v>
       </c>
       <c r="F9" t="str">
-        <v>Measurement</v>
+        <v>NA</v>
       </c>
       <c r="G9" t="str">
-        <v>3 - Apply</v>
+        <v>Apply</v>
       </c>
       <c r="H9" t="str">
-        <v>Medium</v>
+        <v>2 Medium</v>
       </c>
       <c r="I9" t="str">
-        <v>01-05</v>
+        <v>20 min</v>
       </c>
       <c r="J9" t="str">
-        <v>b</v>
+        <v>s</v>
       </c>
       <c r="K9" t="str">
-        <v>Worksheet</v>
+        <v>Essay</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>AP1-9</v>
+        <v xml:space="preserve">D4-9 </v>
       </c>
       <c r="B10" t="str">
-        <v>LO 01-04</v>
+        <v xml:space="preserve"> 04-01 </v>
       </c>
       <c r="C10" t="str">
-        <v>Retail Sales, Use, and Excise Taxes</v>
+        <v xml:space="preserve"> The Individual Income Tax Formula</v>
       </c>
       <c r="D10" t="str">
         <v>Analytical Thinking</v>
       </c>
       <c r="E10" t="str">
-        <v>Critical Thinking</v>
+        <v>NA</v>
       </c>
       <c r="F10" t="str">
-        <v>Measurement</v>
+        <v>NA</v>
       </c>
       <c r="G10" t="str">
-        <v>3 - Apply</v>
+        <v>Apply</v>
       </c>
       <c r="H10" t="str">
-        <v>Medium</v>
+        <v>2 Medium</v>
       </c>
       <c r="I10" t="str">
-        <v>01-05</v>
+        <v>20 min</v>
       </c>
       <c r="J10" t="str">
-        <v>b</v>
+        <v>s</v>
       </c>
       <c r="K10" t="str">
-        <v>Worksheet</v>
+        <v>Essay</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>AP1-10</v>
+        <v>D4-10</v>
       </c>
       <c r="B11" t="str">
-        <v>LO 01-04</v>
+        <v xml:space="preserve"> 04-01 </v>
       </c>
       <c r="C11" t="str">
-        <v>Retail Sales, Use, and Excise Taxes</v>
+        <v xml:space="preserve"> The Individual Income Tax Formula</v>
       </c>
       <c r="D11" t="str">
-        <v>Knowledge Application</v>
+        <v>Analytical Thinking</v>
       </c>
       <c r="E11" t="str">
-        <v>Critical Thinking</v>
+        <v>NA</v>
       </c>
       <c r="F11" t="str">
-        <v>Measurement</v>
+        <v>NA</v>
       </c>
       <c r="G11" t="str">
-        <v>3 - Apply</v>
+        <v>Apply</v>
       </c>
       <c r="H11" t="str">
-        <v>Medium</v>
+        <v>2 Medium</v>
       </c>
       <c r="I11" t="str">
-        <v>01-05</v>
+        <v>20 min</v>
       </c>
       <c r="J11" t="str">
-        <v>b</v>
+        <v>s</v>
       </c>
       <c r="K11" t="str">
-        <v>Worksheet</v>
+        <v>Essay</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>AP1-11</v>
+        <v>D4-11</v>
       </c>
       <c r="B12" t="str">
-        <v>LO 01-04</v>
+        <v xml:space="preserve"> 04-01 </v>
       </c>
       <c r="C12" t="str">
-        <v>Retail Sales, Use, and Excise Taxes</v>
+        <v xml:space="preserve"> The Individual Income Tax Formula</v>
       </c>
       <c r="D12" t="str">
-        <v>Knowledge Application</v>
+        <v>Analytical Thinking</v>
       </c>
       <c r="E12" t="str">
-        <v>Critical Thinking</v>
+        <v>NA</v>
       </c>
       <c r="F12" t="str">
-        <v>Measurement</v>
+        <v>NA</v>
       </c>
       <c r="G12" t="str">
-        <v>3 - Apply</v>
+        <v>Apply</v>
       </c>
       <c r="H12" t="str">
-        <v>Medium</v>
+        <v>2 Medium</v>
       </c>
       <c r="I12" t="str">
-        <v>01-05</v>
+        <v>20 min</v>
       </c>
       <c r="J12" t="str">
-        <v>b</v>
+        <v>s</v>
       </c>
       <c r="K12" t="str">
-        <v>Worksheet</v>
+        <v>Essay</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>AP1-12</v>
+        <v>D4-12</v>
       </c>
       <c r="B13" t="str">
-        <v>LO 01-04</v>
+        <v xml:space="preserve"> 04-01 </v>
       </c>
       <c r="C13" t="str">
-        <v>Retail Sales, Use, and Excise Taxes</v>
+        <v xml:space="preserve"> The Individual Income Tax Formula</v>
       </c>
       <c r="D13" t="str">
-        <v>Knowledge Application</v>
+        <v>Analytical Thinking</v>
       </c>
       <c r="E13" t="str">
-        <v>Critical Thinking</v>
+        <v>NA</v>
       </c>
       <c r="F13" t="str">
-        <v>Measurement</v>
+        <v>NA</v>
       </c>
       <c r="G13" t="str">
-        <v>3 - Apply</v>
+        <v>Apply</v>
       </c>
       <c r="H13" t="str">
-        <v>Medium</v>
+        <v>2 Medium</v>
       </c>
       <c r="I13" t="str">
-        <v>01-05</v>
+        <v>20 min</v>
       </c>
       <c r="J13" t="str">
-        <v>b</v>
+        <v>s</v>
       </c>
       <c r="K13" t="str">
-        <v>Worksheet</v>
+        <v>Essay</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>AP1-13</v>
+        <v>D4-13</v>
       </c>
       <c r="B14" t="str">
-        <v>LO 01-03; LO 01-04</v>
+        <v xml:space="preserve"> 04-01 </v>
       </c>
       <c r="C14" t="str">
-        <v>Local Taxes; Retail Sales, Use, and Excise Taxes</v>
+        <v xml:space="preserve"> The Individual Income Tax Formula</v>
       </c>
       <c r="D14" t="str">
         <v>Analytical Thinking</v>
       </c>
       <c r="E14" t="str">
-        <v>Critical Thinking</v>
+        <v>NA</v>
       </c>
       <c r="F14" t="str">
-        <v>Measurement</v>
+        <v>NA</v>
       </c>
       <c r="G14" t="str">
-        <v>3 - Apply</v>
+        <v>Apply</v>
       </c>
       <c r="H14" t="str">
-        <v>Medium</v>
+        <v>2 Medium</v>
       </c>
       <c r="I14" t="str">
-        <v>01-05</v>
+        <v>20 min</v>
       </c>
       <c r="J14" t="str">
         <v>s</v>
       </c>
       <c r="K14" t="str">
-        <v>Multiple Choice</v>
-      </c>
-    </row>
-    <row r="15" xml:space="preserve">
+        <v>Essay</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="str">
-        <v>AP1-14</v>
+        <v>D4-14</v>
       </c>
       <c r="B15" t="str">
-        <v>LO 01-06</v>
+        <v xml:space="preserve"> 04-01</v>
       </c>
       <c r="C15" t="str">
-        <v>Taxes Levied by Foreign Jurisdictions</v>
+        <v xml:space="preserve"> The Individual Income Tax Formula</v>
       </c>
       <c r="D15" t="str">
-        <v>Knowledge Application</v>
-      </c>
-      <c r="E15" t="str" xml:space="preserve">
-        <v xml:space="preserve">Critical Thinking_x000d_
-Global</v>
+        <v>Analytical Thinking</v>
+      </c>
+      <c r="E15" t="str">
+        <v>NA</v>
       </c>
       <c r="F15" t="str">
-        <v>Measurement</v>
+        <v>NA</v>
       </c>
       <c r="G15" t="str">
-        <v>3 - Apply</v>
+        <v>Apply</v>
       </c>
       <c r="H15" t="str">
-        <v>Medium</v>
+        <v>2 Medium</v>
       </c>
       <c r="I15" t="str">
-        <v>01-05</v>
+        <v>10 min</v>
       </c>
       <c r="J15" t="str">
-        <v>b</v>
+        <v>s</v>
       </c>
       <c r="K15" t="str">
-        <v>Worksheet</v>
-      </c>
-    </row>
-    <row r="16" xml:space="preserve">
+        <v>Essay</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="str">
-        <v>AP1-15</v>
+        <v>D4-15</v>
       </c>
       <c r="B16" t="str">
-        <v>LO 01-06</v>
+        <v xml:space="preserve"> 04-01 </v>
       </c>
       <c r="C16" t="str">
-        <v>Taxes Levied by Foreign Jurisdictions</v>
+        <v xml:space="preserve"> The Individual Income Tax Formula</v>
       </c>
       <c r="D16" t="str">
-        <v>Knowledge Application</v>
-      </c>
-      <c r="E16" t="str" xml:space="preserve">
-        <v xml:space="preserve">Critical Thinking_x000d_
-Global</v>
+        <v>Analytical Thinking</v>
+      </c>
+      <c r="E16" t="str">
+        <v>NA</v>
       </c>
       <c r="F16" t="str">
-        <v>Measurement</v>
+        <v>NA</v>
       </c>
       <c r="G16" t="str">
-        <v>3 - Apply</v>
+        <v>Apply</v>
       </c>
       <c r="H16" t="str">
-        <v>Medium</v>
+        <v>2 Medium</v>
       </c>
       <c r="I16" t="str">
-        <v>01-05</v>
+        <v>10 min</v>
       </c>
       <c r="J16" t="str">
-        <v>b</v>
+        <v>s</v>
       </c>
       <c r="K16" t="str">
-        <v>Worksheet</v>
+        <v>Essay</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>AP2-1</v>
+        <v>D4-16</v>
       </c>
       <c r="B17" t="str">
-        <v>LO 02-01</v>
+        <v xml:space="preserve"> 04-01 </v>
       </c>
       <c r="C17" t="str">
-        <v>Static versus Dynamic Forcasting</v>
+        <v xml:space="preserve"> The Individual Income Tax Formula</v>
       </c>
       <c r="D17" t="str">
-        <v>Knowledge Application</v>
+        <v>Analytical Thinking</v>
       </c>
       <c r="E17" t="str">
-        <v>Critical Thinking</v>
+        <v>NA</v>
       </c>
       <c r="F17" t="str">
-        <v>Measurement</v>
+        <v>NA</v>
       </c>
       <c r="G17" t="str">
-        <v>3 - Apply</v>
+        <v>Apply</v>
       </c>
       <c r="H17" t="str">
-        <v>Easy</v>
+        <v>2 Medium</v>
       </c>
       <c r="I17" t="str">
-        <v>01-05</v>
+        <v>10 min</v>
       </c>
       <c r="J17" t="str">
-        <v>b</v>
+        <v>s</v>
       </c>
       <c r="K17" t="str">
-        <v>Worksheet</v>
+        <v>Essay</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>AP2-2</v>
+        <v>D4-17</v>
       </c>
       <c r="B18" t="str">
-        <v>LO 02-01</v>
+        <v xml:space="preserve"> 04-01 </v>
       </c>
       <c r="C18" t="str">
-        <v>Static versus Dynamic Forcasting</v>
+        <v xml:space="preserve"> The Individual Income Tax Formula</v>
       </c>
       <c r="D18" t="str">
-        <v>Knowledge Application</v>
+        <v>Analytical Thinking</v>
       </c>
       <c r="E18" t="str">
-        <v>Critical Thinking</v>
+        <v>NA</v>
       </c>
       <c r="F18" t="str">
-        <v>Measurement</v>
+        <v>NA</v>
       </c>
       <c r="G18" t="str">
-        <v>3 - Apply</v>
+        <v>Apply</v>
       </c>
       <c r="H18" t="str">
-        <v>Easy</v>
+        <v>2 Medium</v>
       </c>
       <c r="I18" t="str">
-        <v>01-05</v>
+        <v>10 min</v>
       </c>
       <c r="J18" t="str">
-        <v>b</v>
+        <v>s</v>
       </c>
       <c r="K18" t="str">
-        <v>Worksheet</v>
+        <v>Essay</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>AP2-3</v>
+        <v>D4-18</v>
       </c>
       <c r="B19" t="str">
-        <v>LO 02-01</v>
+        <v xml:space="preserve"> 04-02 </v>
       </c>
       <c r="C19" t="str">
-        <v>Static versus Dynamic Forcasting</v>
+        <v xml:space="preserve"> Personal and Dependency Exemptions</v>
       </c>
       <c r="D19" t="str">
-        <v>Knowledge Application</v>
+        <v>Analytical Thinking</v>
       </c>
       <c r="E19" t="str">
-        <v>Critical Thinking</v>
+        <v>NA</v>
       </c>
       <c r="F19" t="str">
-        <v>Measurement</v>
+        <v>NA</v>
       </c>
       <c r="G19" t="str">
-        <v>3 - Apply</v>
+        <v>Apply</v>
       </c>
       <c r="H19" t="str">
-        <v>Easy</v>
+        <v>2 Medium</v>
       </c>
       <c r="I19" t="str">
-        <v>01-05</v>
+        <v>10 min</v>
       </c>
       <c r="J19" t="str">
-        <v>b</v>
+        <v>s</v>
       </c>
       <c r="K19" t="str">
-        <v>Worksheet</v>
+        <v>Essay</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>AP2-4</v>
+        <v>D4-19</v>
       </c>
       <c r="B20" t="str">
-        <v>LO 02-01; LO 02-02</v>
+        <v xml:space="preserve"> 04-02 </v>
       </c>
       <c r="C20" t="str">
-        <v>Static versus Dynamic Forecasting; Behavioral Repsponses to Rate Changes</v>
+        <v xml:space="preserve"> Personal and Dependency Exemptions</v>
       </c>
       <c r="D20" t="str">
         <v>Analytical Thinking</v>
       </c>
       <c r="E20" t="str">
-        <v>Critical Thinking</v>
+        <v>NA</v>
       </c>
       <c r="F20" t="str">
-        <v>Measurement</v>
+        <v>NA</v>
       </c>
       <c r="G20" t="str">
-        <v>3 - Apply</v>
+        <v>Analyze</v>
       </c>
       <c r="H20" t="str">
-        <v>Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I20" t="str">
-        <v>01-05</v>
+        <v>25 min</v>
       </c>
       <c r="J20" t="str">
-        <v>b</v>
+        <v>s</v>
       </c>
       <c r="K20" t="str">
-        <v>Worksheet</v>
+        <v>Essay</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>AP2-5</v>
+        <v>D4-20</v>
       </c>
       <c r="B21" t="str">
-        <v>LO 02-02</v>
+        <v xml:space="preserve"> 04-02 </v>
       </c>
       <c r="C21" t="str">
-        <v>Behavioral Repsponses to Rate Changes</v>
+        <v xml:space="preserve"> Personal and Dependency Exemptions</v>
       </c>
       <c r="D21" t="str">
         <v>Analytical Thinking</v>
       </c>
       <c r="E21" t="str">
-        <v>Critical Thinking</v>
+        <v>NA</v>
       </c>
       <c r="F21" t="str">
-        <v>Measurement</v>
+        <v>NA</v>
       </c>
       <c r="G21" t="str">
-        <v>3 - Apply</v>
+        <v>Analyze</v>
       </c>
       <c r="H21" t="str">
-        <v>Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I21" t="str">
-        <v>01-05</v>
+        <v>25 min</v>
       </c>
       <c r="J21" t="str">
-        <v>b</v>
+        <v>s</v>
       </c>
       <c r="K21" t="str">
-        <v>Worksheet</v>
-      </c>
-    </row>
-    <row r="22" xml:space="preserve">
+        <v>Essay</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="str">
-        <v>AP2-6</v>
+        <v>D4-21</v>
       </c>
       <c r="B22" t="str">
-        <v>LO 02-02; LO 02-02</v>
-      </c>
-      <c r="C22" t="str" xml:space="preserve">
-        <v xml:space="preserve">Static versus Dynamic Forcasting_x000d_
-Behavioral Responses to Rate Changes</v>
+        <v xml:space="preserve"> 04-02 </v>
+      </c>
+      <c r="C22" t="str">
+        <v xml:space="preserve"> Personal and Dependency Exemptions</v>
       </c>
       <c r="D22" t="str">
-        <v>Knowledge Application</v>
+        <v>Analytical Thinking</v>
       </c>
       <c r="E22" t="str">
-        <v>Critical Thinking</v>
+        <v>NA</v>
       </c>
       <c r="F22" t="str">
-        <v>Measurement</v>
+        <v>NA</v>
       </c>
       <c r="G22" t="str">
-        <v>3 - Apply</v>
+        <v>Analyze</v>
       </c>
       <c r="H22" t="str">
-        <v>Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I22" t="str">
-        <v>06-10</v>
+        <v>25 min</v>
       </c>
       <c r="J22" t="str">
-        <v>b</v>
+        <v>s</v>
       </c>
       <c r="K22" t="str">
-        <v>Worksheet</v>
-      </c>
-    </row>
-    <row r="23" xml:space="preserve">
+        <v>Essay</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="str">
-        <v>AP2-7</v>
+        <v>D4-22</v>
       </c>
       <c r="B23" t="str">
-        <v>LO 02-02; LO 02-02</v>
-      </c>
-      <c r="C23" t="str" xml:space="preserve">
-        <v xml:space="preserve">Static versus Dynamic Forcasting_x000d_
-Behavioral Responses to Rate Changes</v>
+        <v xml:space="preserve"> 04-02 </v>
+      </c>
+      <c r="C23" t="str">
+        <v xml:space="preserve"> Personal and Dependency Exemptions</v>
       </c>
       <c r="D23" t="str">
-        <v>Knowledge Application</v>
+        <v>Analytical Thinking</v>
       </c>
       <c r="E23" t="str">
-        <v>Critical Thinking</v>
+        <v>NA</v>
       </c>
       <c r="F23" t="str">
-        <v>Measurement</v>
+        <v>NA</v>
       </c>
       <c r="G23" t="str">
-        <v>3 - Apply</v>
+        <v>Analyze</v>
       </c>
       <c r="H23" t="str">
-        <v>Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I23" t="str">
-        <v>06-10</v>
+        <v>25 min</v>
       </c>
       <c r="J23" t="str">
-        <v>b</v>
+        <v>s</v>
       </c>
       <c r="K23" t="str">
-        <v>Worksheet</v>
-      </c>
-    </row>
-    <row r="24" xml:space="preserve">
+        <v>Essay</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" t="str">
-        <v>AP2-8</v>
+        <v>D4-23</v>
       </c>
       <c r="B24" t="str">
-        <v>LO 02-06; LO 02-07</v>
-      </c>
-      <c r="C24" t="str" xml:space="preserve">
-        <v xml:space="preserve">Regressive Taxes_x000d_
-Marginal and Average Tax Rates</v>
+        <v xml:space="preserve"> 04-02 </v>
+      </c>
+      <c r="C24" t="str">
+        <v xml:space="preserve"> Personal and Dependency Exemptions</v>
       </c>
       <c r="D24" t="str">
         <v>Analytical Thinking</v>
       </c>
       <c r="E24" t="str">
-        <v>Critical Thinking</v>
+        <v>NA</v>
       </c>
       <c r="F24" t="str">
-        <v>Decision Making</v>
+        <v>NA</v>
       </c>
       <c r="G24" t="str">
-        <v>3 - Apply</v>
+        <v>Analyze</v>
       </c>
       <c r="H24" t="str">
-        <v>Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I24" t="str">
-        <v>06-10</v>
+        <v>20 min</v>
       </c>
       <c r="J24" t="str">
-        <v>b</v>
+        <v>s</v>
       </c>
       <c r="K24" t="str">
-        <v>Worksheet</v>
-      </c>
-    </row>
-    <row r="25" xml:space="preserve">
+        <v>Essay</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" t="str">
-        <v>AP2-9</v>
+        <v>D4-24</v>
       </c>
       <c r="B25" t="str">
-        <v>LO 02-06; LO 02-07</v>
-      </c>
-      <c r="C25" t="str" xml:space="preserve">
-        <v xml:space="preserve">Regressive Taxes_x000d_
-Marginal and Average Tax Rates</v>
+        <v xml:space="preserve"> 04-03</v>
+      </c>
+      <c r="C25" t="str">
+        <v xml:space="preserve"> Filing Status</v>
       </c>
       <c r="D25" t="str">
         <v>Analytical Thinking</v>
       </c>
       <c r="E25" t="str">
-        <v>Critical Thinking</v>
+        <v>NA</v>
       </c>
       <c r="F25" t="str">
-        <v>Decision Making</v>
+        <v>NA</v>
       </c>
       <c r="G25" t="str">
-        <v>3 - Apply</v>
+        <v>Analyze</v>
       </c>
       <c r="H25" t="str">
-        <v>Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I25" t="str">
-        <v>06-10</v>
+        <v>20 min</v>
       </c>
       <c r="J25" t="str">
-        <v>b</v>
+        <v>s</v>
       </c>
       <c r="K25" t="str">
-        <v>Worksheet</v>
-      </c>
-    </row>
-    <row r="26" xml:space="preserve">
+        <v>Essay</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" t="str">
-        <v>AP2-10</v>
+        <v>D4-25</v>
       </c>
       <c r="B26" t="str">
-        <v>LO 02-07</v>
-      </c>
-      <c r="C26" t="str" xml:space="preserve">
-        <v xml:space="preserve">Marginal and Average Tax Rates_x000d_
-</v>
+        <v xml:space="preserve"> 04-03</v>
+      </c>
+      <c r="C26" t="str">
+        <v xml:space="preserve"> Filing Status</v>
       </c>
       <c r="D26" t="str">
-        <v>Knowledge Application</v>
+        <v>Analytical Thinking</v>
       </c>
       <c r="E26" t="str">
-        <v>Critical Thinking</v>
+        <v>NA</v>
       </c>
       <c r="F26" t="str">
-        <v>Measurement</v>
+        <v>NA</v>
       </c>
       <c r="G26" t="str">
-        <v>3 - Apply</v>
+        <v>Analyze</v>
       </c>
       <c r="H26" t="str">
-        <v>Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I26" t="str">
-        <v>01-05</v>
+        <v>20 min</v>
       </c>
       <c r="J26" t="str">
-        <v>b</v>
+        <v>s</v>
       </c>
       <c r="K26" t="str">
-        <v>Worksheet</v>
+        <v>Essay</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>AP2-11</v>
+        <v>D4-26</v>
       </c>
       <c r="B27" t="str">
-        <v>LO 02-05</v>
+        <v xml:space="preserve"> 04-03 </v>
       </c>
       <c r="C27" t="str">
-        <v>Annual versus Lifetime Horizontal Equity</v>
+        <v xml:space="preserve"> Filing Status</v>
       </c>
       <c r="D27" t="str">
         <v>Analytical Thinking</v>
       </c>
       <c r="E27" t="str">
-        <v>Critical Thinking</v>
+        <v>NA</v>
       </c>
       <c r="F27" t="str">
-        <v>Measurement</v>
+        <v>NA</v>
       </c>
       <c r="G27" t="str">
-        <v>3 - Apply</v>
+        <v>Analyze</v>
       </c>
       <c r="H27" t="str">
-        <v>Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I27" t="str">
-        <v>01-05</v>
+        <v>20 min</v>
       </c>
       <c r="J27" t="str">
-        <v>b</v>
+        <v>s</v>
       </c>
       <c r="K27" t="str">
-        <v>Worksheet</v>
-      </c>
-    </row>
-    <row r="28" xml:space="preserve">
+        <v>Essay</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" t="str">
-        <v>AP2-12</v>
+        <v>D4-27</v>
       </c>
       <c r="B28" t="str">
-        <v>LO 02-07</v>
-      </c>
-      <c r="C28" t="str" xml:space="preserve">
-        <v xml:space="preserve">Marginal and Average Tax Rates_x000d_
-</v>
+        <v xml:space="preserve"> 04-03 </v>
+      </c>
+      <c r="C28" t="str">
+        <v xml:space="preserve"> Filing Status</v>
       </c>
       <c r="D28" t="str">
-        <v>Knowledge Application</v>
+        <v>Analytical Thinking</v>
       </c>
       <c r="E28" t="str">
-        <v>Critical Thinking</v>
+        <v>NA</v>
       </c>
       <c r="F28" t="str">
-        <v>Measurement</v>
+        <v>NA</v>
       </c>
       <c r="G28" t="str">
-        <v>3 - Apply</v>
+        <v>Analyze</v>
       </c>
       <c r="H28" t="str">
-        <v>Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I28" t="str">
-        <v>01-05</v>
+        <v>20 min</v>
       </c>
       <c r="J28" t="str">
-        <v>b</v>
+        <v>s</v>
       </c>
       <c r="K28" t="str">
-        <v>Worksheet</v>
-      </c>
-    </row>
-    <row r="29" xml:space="preserve">
+        <v>Essay</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="str">
-        <v>AP2-13</v>
+        <v>D4-28</v>
       </c>
       <c r="B29" t="str">
-        <v>LO 02-07</v>
-      </c>
-      <c r="C29" t="str" xml:space="preserve">
-        <v xml:space="preserve">Marginal and Average Tax Rates_x000d_
-</v>
+        <v xml:space="preserve"> 04-03 </v>
+      </c>
+      <c r="C29" t="str">
+        <v xml:space="preserve"> Filing Status</v>
       </c>
       <c r="D29" t="str">
-        <v>Knowledge Application</v>
+        <v>Analytical Thinking</v>
       </c>
       <c r="E29" t="str">
-        <v>Critical Thinking</v>
+        <v>NA</v>
       </c>
       <c r="F29" t="str">
-        <v>Measurement</v>
+        <v>NA</v>
       </c>
       <c r="G29" t="str">
-        <v>3 - Apply</v>
+        <v>Analyze</v>
       </c>
       <c r="H29" t="str">
-        <v>Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I29" t="str">
-        <v>01-05</v>
+        <v>20 min</v>
       </c>
       <c r="J29" t="str">
-        <v>b</v>
+        <v>s</v>
       </c>
       <c r="K29" t="str">
-        <v>Worksheet</v>
+        <v>Essay</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>AP2-14</v>
+        <v xml:space="preserve">P4-29 </v>
       </c>
       <c r="B30" t="str">
-        <v>LO 02-05; LO 02-06</v>
+        <v xml:space="preserve"> 04-01 </v>
       </c>
       <c r="C30" t="str">
-        <v>Annual versus Lifetime Horizontal Equity; Income Tax Rate Structures</v>
+        <v xml:space="preserve"> The Individual Income Tax Formula</v>
       </c>
       <c r="D30" t="str">
         <v>Analytical Thinking</v>
       </c>
       <c r="E30" t="str">
-        <v>Critical Thinking</v>
+        <v>NA</v>
       </c>
       <c r="F30" t="str">
-        <v>Measurement</v>
+        <v>NA</v>
       </c>
       <c r="G30" t="str">
-        <v>3 - Apply</v>
+        <v>Apply</v>
       </c>
       <c r="H30" t="str">
-        <v>Medium</v>
+        <v>2 Medium</v>
       </c>
       <c r="I30" t="str">
-        <v>01-05</v>
+        <v>20 min</v>
       </c>
       <c r="J30" t="str">
         <v>b</v>
       </c>
       <c r="K30" t="str">
-        <v>Worksheet</v>
+        <v>Problem</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>P4-30</v>
+      </c>
+      <c r="B31" t="str">
+        <v xml:space="preserve"> 04-01 </v>
+      </c>
+      <c r="C31" t="str">
+        <v xml:space="preserve"> The Individual Income Tax Formula</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Analytical Thinking</v>
+      </c>
+      <c r="E31" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F31" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G31" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H31" t="str">
+        <v>1 Easy</v>
+      </c>
+      <c r="I31" t="str">
+        <v>5 min</v>
+      </c>
+      <c r="J31" t="str">
+        <v>b</v>
+      </c>
+      <c r="K31" t="str">
+        <v>Problem</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>P4-31</v>
+      </c>
+      <c r="B32" t="str">
+        <v xml:space="preserve"> 04-01 </v>
+      </c>
+      <c r="C32" t="str">
+        <v xml:space="preserve"> The Individual Income Tax Formula</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Analytical Thinking</v>
+      </c>
+      <c r="E32" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F32" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G32" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H32" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I32" t="str">
+        <v>20 min</v>
+      </c>
+      <c r="J32" t="str">
+        <v>b</v>
+      </c>
+      <c r="K32" t="str">
+        <v>Problem</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>P4-32</v>
+      </c>
+      <c r="B33" t="str">
+        <v xml:space="preserve"> 04-01 </v>
+      </c>
+      <c r="C33" t="str">
+        <v xml:space="preserve"> The Individual Income Tax Formula</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Analytical Thinking</v>
+      </c>
+      <c r="E33" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F33" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G33" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H33" t="str">
+        <v>3 Hard</v>
+      </c>
+      <c r="I33" t="str">
+        <v>25 min</v>
+      </c>
+      <c r="J33" t="str">
+        <v>b</v>
+      </c>
+      <c r="K33" t="str">
+        <v>Problem</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>P4-33</v>
+      </c>
+      <c r="B34" t="str">
+        <v xml:space="preserve"> 04-01 </v>
+      </c>
+      <c r="C34" t="str">
+        <v xml:space="preserve"> The Individual Income Tax Formula</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E34" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F34" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G34" t="str">
+        <v>Analyze</v>
+      </c>
+      <c r="H34" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I34" t="str">
+        <v>20 min</v>
+      </c>
+      <c r="J34" t="str">
+        <v>b</v>
+      </c>
+      <c r="K34" t="str">
+        <v>Problem</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>P4-34</v>
+      </c>
+      <c r="B35" t="str">
+        <v xml:space="preserve"> 04-01,  04-02 </v>
+      </c>
+      <c r="C35" t="str">
+        <v xml:space="preserve"> The Individual Income Tax Formula</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E35" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F35" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G35" t="str">
+        <v>Analyze</v>
+      </c>
+      <c r="H35" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I35" t="str">
+        <v>20 min</v>
+      </c>
+      <c r="J35" t="str">
+        <v>b</v>
+      </c>
+      <c r="K35" t="str">
+        <v>Problem</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>P4-35</v>
+      </c>
+      <c r="B36" t="str">
+        <v xml:space="preserve"> 04-02 </v>
+      </c>
+      <c r="C36" t="str">
+        <v xml:space="preserve"> Personal and Dependency Exemptions</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E36" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F36" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G36" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H36" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I36" t="str">
+        <v>20 min</v>
+      </c>
+      <c r="J36" t="str">
+        <v>s</v>
+      </c>
+      <c r="K36" t="str">
+        <v>Problem</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>P4-36</v>
+      </c>
+      <c r="B37" t="str">
+        <v xml:space="preserve"> 04-02 </v>
+      </c>
+      <c r="C37" t="str">
+        <v xml:space="preserve"> Personal and Dependency Exemptions</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E37" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F37" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G37" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H37" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I37" t="str">
+        <v>25 min</v>
+      </c>
+      <c r="J37" t="str">
+        <v>b</v>
+      </c>
+      <c r="K37" t="str">
+        <v>Problem</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>P4-37</v>
+      </c>
+      <c r="B38" t="str">
+        <v xml:space="preserve"> 04-02 </v>
+      </c>
+      <c r="C38" t="str">
+        <v xml:space="preserve"> Personal and Dependency Exemptions</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E38" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F38" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G38" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H38" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I38" t="str">
+        <v>15 min</v>
+      </c>
+      <c r="J38" t="str">
+        <v>s</v>
+      </c>
+      <c r="K38" t="str">
+        <v>Problem</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>P4-38</v>
+      </c>
+      <c r="B39" t="str">
+        <v xml:space="preserve"> 04-02 </v>
+      </c>
+      <c r="C39" t="str">
+        <v xml:space="preserve"> Personal and Dependency Exemptions</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E39" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F39" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G39" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H39" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I39" t="str">
+        <v>20 min</v>
+      </c>
+      <c r="J39" t="str">
+        <v>b</v>
+      </c>
+      <c r="K39" t="str">
+        <v>Problem</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>P4-39</v>
+      </c>
+      <c r="B40" t="str">
+        <v xml:space="preserve"> 04-02 </v>
+      </c>
+      <c r="C40" t="str">
+        <v xml:space="preserve"> Personal and Dependency Exemptions</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E40" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F40" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G40" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H40" t="str">
+        <v>3 Hard</v>
+      </c>
+      <c r="I40" t="str">
+        <v>20 min</v>
+      </c>
+      <c r="J40" t="str">
+        <v>s</v>
+      </c>
+      <c r="K40" t="str">
+        <v>Problem</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>P4-40</v>
+      </c>
+      <c r="B41" t="str">
+        <v xml:space="preserve"> 04-02,  04-03</v>
+      </c>
+      <c r="C41" t="str">
+        <v xml:space="preserve"> Filing Status, Personal and Dependency Exemptions</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E41" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F41" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G41" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H41" t="str">
+        <v>3 Hard</v>
+      </c>
+      <c r="I41" t="str">
+        <v>20 min</v>
+      </c>
+      <c r="J41" t="str">
+        <v>s</v>
+      </c>
+      <c r="K41" t="str">
+        <v>Check All that Apply</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>P4-42</v>
+      </c>
+      <c r="B42" t="str">
+        <v xml:space="preserve"> 04-02,  04-03 </v>
+      </c>
+      <c r="C42" t="str">
+        <v xml:space="preserve"> Filing Status, Personal and Dependency Exemptions</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E42" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F42" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G42" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H42" t="str">
+        <v>3 Hard</v>
+      </c>
+      <c r="I42" t="str">
+        <v>20 min</v>
+      </c>
+      <c r="J42" t="str">
+        <v>s</v>
+      </c>
+      <c r="K42" t="str">
+        <v>Check All that Apply</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>P4-43</v>
+      </c>
+      <c r="B43" t="str">
+        <v xml:space="preserve"> 04-02,  04-03 </v>
+      </c>
+      <c r="C43" t="str">
+        <v xml:space="preserve"> Filing Status, Personal and Dependency Exemptions</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E43" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F43" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G43" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H43" t="str">
+        <v>3 Hard</v>
+      </c>
+      <c r="I43" t="str">
+        <v>20 min</v>
+      </c>
+      <c r="J43" t="str">
+        <v>s</v>
+      </c>
+      <c r="K43" t="str">
+        <v>Check All that Apply</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>P4-44</v>
+      </c>
+      <c r="B44" t="str">
+        <v xml:space="preserve"> 04-02,  04-03 </v>
+      </c>
+      <c r="C44" t="str">
+        <v xml:space="preserve"> Filing Status, Personal and Dependency Exemptions</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E44" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F44" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G44" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H44" t="str">
+        <v>3 Hard</v>
+      </c>
+      <c r="I44" t="str">
+        <v>20 min</v>
+      </c>
+      <c r="J44" t="str">
+        <v>s</v>
+      </c>
+      <c r="K44" t="str">
+        <v>Check All that Apply</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>P4-45</v>
+      </c>
+      <c r="B45" t="str">
+        <v xml:space="preserve"> 04-03 </v>
+      </c>
+      <c r="C45" t="str">
+        <v xml:space="preserve"> Filing Status</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E45" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F45" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G45" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H45" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I45" t="str">
+        <v>10 min</v>
+      </c>
+      <c r="J45" t="str">
+        <v>s</v>
+      </c>
+      <c r="K45" t="str">
+        <v>Check All that Apply</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>P4-46</v>
+      </c>
+      <c r="B46" t="str">
+        <v xml:space="preserve"> 04-03 </v>
+      </c>
+      <c r="C46" t="str">
+        <v xml:space="preserve"> Filing Status</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E46" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F46" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G46" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H46" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I46" t="str">
+        <v>10 min</v>
+      </c>
+      <c r="J46" t="str">
+        <v>b</v>
+      </c>
+      <c r="K46" t="str">
+        <v>Check All that Apply</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>P4-47</v>
+      </c>
+      <c r="B47" t="str">
+        <v xml:space="preserve"> 04-03 </v>
+      </c>
+      <c r="C47" t="str">
+        <v xml:space="preserve"> Filing Status</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E47" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F47" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G47" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H47" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I47" t="str">
+        <v>20 min</v>
+      </c>
+      <c r="J47" t="str">
+        <v>b</v>
+      </c>
+      <c r="K47" t="str">
+        <v>Problem</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>P4-48</v>
+      </c>
+      <c r="B48" t="str">
+        <v xml:space="preserve"> 04-03 </v>
+      </c>
+      <c r="C48" t="str">
+        <v xml:space="preserve"> Filing Status</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E48" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F48" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G48" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H48" t="str">
+        <v>3 Hard</v>
+      </c>
+      <c r="I48" t="str">
+        <v>35 min</v>
+      </c>
+      <c r="J48" t="str">
+        <v>b</v>
+      </c>
+      <c r="K48" t="str">
+        <v>Problem</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>P4-49</v>
+      </c>
+      <c r="B49" t="str">
+        <v xml:space="preserve"> 04-03 </v>
+      </c>
+      <c r="C49" t="str">
+        <v xml:space="preserve"> Filing Status</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E49" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F49" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G49" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H49" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I49" t="str">
+        <v>25 min</v>
+      </c>
+      <c r="J49" t="str">
+        <v>s</v>
+      </c>
+      <c r="K49" t="str">
+        <v>Problem</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>P4-50</v>
+      </c>
+      <c r="B50" t="str">
+        <v xml:space="preserve"> 04-02,  04-03 </v>
+      </c>
+      <c r="C50" t="str">
+        <v xml:space="preserve"> Filing Status, Personal and Dependency Exemptions</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E50" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F50" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G50" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H50" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I50" t="str">
+        <v>25 min</v>
+      </c>
+      <c r="J50" t="str">
+        <v>s</v>
+      </c>
+      <c r="K50" t="str">
+        <v>Problem</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>P4-51</v>
+      </c>
+      <c r="B51" t="str">
+        <v xml:space="preserve"> 04-02,  04-03 </v>
+      </c>
+      <c r="C51" t="str">
+        <v xml:space="preserve"> Filing Status, Personal and Dependency Exemptions</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E51" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F51" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G51" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H51" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I51" t="str">
+        <v>25 min</v>
+      </c>
+      <c r="J51" t="str">
+        <v>s</v>
+      </c>
+      <c r="K51" t="str">
+        <v>Problem</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>P4-52</v>
+      </c>
+      <c r="B52" t="str">
+        <v xml:space="preserve"> 04-03 </v>
+      </c>
+      <c r="C52" t="str">
+        <v xml:space="preserve"> Filing Status</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E52" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F52" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G52" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H52" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I52" t="str">
+        <v>15 min</v>
+      </c>
+      <c r="J52" t="str">
+        <v>b</v>
+      </c>
+      <c r="K52" t="str">
+        <v>Problem</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>P4-54</v>
+      </c>
+      <c r="B53" t="str">
+        <v xml:space="preserve"> 04-03 </v>
+      </c>
+      <c r="C53" t="str">
+        <v xml:space="preserve"> Filing Status</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E53" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F53" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G53" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H53" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I53" t="str">
+        <v>15 min</v>
+      </c>
+      <c r="J53" t="str">
+        <v>s</v>
+      </c>
+      <c r="K53" t="str">
+        <v>Multiple Choice</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v xml:space="preserve">CP4-55 </v>
+      </c>
+      <c r="B54" t="str">
+        <v xml:space="preserve"> 04-01,  04-02,  04-03</v>
+      </c>
+      <c r="C54" t="str">
+        <v xml:space="preserve"> Filing Status,  Personal and Dependency Exemptions,  The Individual Income Tax Formula</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Analytical Thinking, Reflective Thinking</v>
+      </c>
+      <c r="E54" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F54" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G54" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H54" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I54" t="str">
+        <v>30 min</v>
+      </c>
+      <c r="J54" t="str">
+        <v>b</v>
+      </c>
+      <c r="K54" t="str">
+        <v>Comprehensive Problem</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>CP4-56</v>
+      </c>
+      <c r="B55" t="str">
+        <v xml:space="preserve"> 04-01,  04-02,  04-03</v>
+      </c>
+      <c r="C55" t="str">
+        <v xml:space="preserve"> Filing Status,  Personal and Dependency Exemptions,  The Individual Income Tax Formula</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Analytical Thinking, Reflective Thinking</v>
+      </c>
+      <c r="E55" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F55" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G55" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H55" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I55" t="str">
+        <v>50 min</v>
+      </c>
+      <c r="J55" t="str">
+        <v>b</v>
+      </c>
+      <c r="K55" t="str">
+        <v>Comprehensive Problem</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>CP4-57</v>
+      </c>
+      <c r="B56" t="str">
+        <v xml:space="preserve"> 04-01,  04-02,  04-03</v>
+      </c>
+      <c r="C56" t="str">
+        <v xml:space="preserve"> Filing Status,  Personal and Dependency Exemptions,  The Individual Income Tax Formula</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Analytical Thinking, Reflective Thinking</v>
+      </c>
+      <c r="E56" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F56" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G56" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H56" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I56" t="str">
+        <v>50 min</v>
+      </c>
+      <c r="J56" t="str">
+        <v>b</v>
+      </c>
+      <c r="K56" t="str">
+        <v>Comprehensive Problem</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>CP4-58</v>
+      </c>
+      <c r="B57" t="str">
+        <v xml:space="preserve"> 04-01,  04-02,  04-03</v>
+      </c>
+      <c r="C57" t="str">
+        <v xml:space="preserve"> Filing Status,  Personal and Dependency Exemptions, The Individual Income Tax Formula</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Analytical Thinking, Reflective Thinking</v>
+      </c>
+      <c r="E57" t="str">
+        <v>NA</v>
+      </c>
+      <c r="F57" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G57" t="str">
+        <v>Apply</v>
+      </c>
+      <c r="H57" t="str">
+        <v>1 Easy</v>
+      </c>
+      <c r="I57" t="str">
+        <v>10 min</v>
+      </c>
+      <c r="J57" t="str">
+        <v>b</v>
+      </c>
+      <c r="K57" t="str">
+        <v>Comprehensive Problem</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>TF4-01</v>
+      </c>
+      <c r="B58" t="str">
+        <v xml:space="preserve"> 04-01</v>
+      </c>
+      <c r="C58" t="str">
+        <v xml:space="preserve"> The Individual Income Tax Formula</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E58" t="str">
+        <v>BB Critical Thinking</v>
+      </c>
+      <c r="F58" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G58" t="str">
+        <v>Understand</v>
+      </c>
+      <c r="H58" t="str">
+        <v>1 Easy</v>
+      </c>
+      <c r="I58" t="str">
+        <v>10 min</v>
+      </c>
+      <c r="J58" t="str">
+        <v>s</v>
+      </c>
+      <c r="K58" t="str">
+        <v>True / False</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>TF4-02</v>
+      </c>
+      <c r="B59" t="str">
+        <v xml:space="preserve"> 04-01</v>
+      </c>
+      <c r="C59" t="str">
+        <v xml:space="preserve"> The Individual Income Tax Formula</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E59" t="str">
+        <v>BB Critical Thinking</v>
+      </c>
+      <c r="F59" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G59" t="str">
+        <v>Understand</v>
+      </c>
+      <c r="H59" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I59" t="str">
+        <v>15 min</v>
+      </c>
+      <c r="J59" t="str">
+        <v>s</v>
+      </c>
+      <c r="K59" t="str">
+        <v>True / False</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>TF4-03</v>
+      </c>
+      <c r="B60" t="str">
+        <v xml:space="preserve"> 04-02</v>
+      </c>
+      <c r="C60" t="str">
+        <v xml:space="preserve"> Personal and Dependency Exemptions</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E60" t="str">
+        <v>BB Critical Thinking</v>
+      </c>
+      <c r="F60" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G60" t="str">
+        <v>Understand</v>
+      </c>
+      <c r="H60" t="str">
+        <v>3 Hard</v>
+      </c>
+      <c r="I60" t="str">
+        <v>15 min</v>
+      </c>
+      <c r="J60" t="str">
+        <v>s</v>
+      </c>
+      <c r="K60" t="str">
+        <v>True / False</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>TF4-04</v>
+      </c>
+      <c r="B61" t="str">
+        <v xml:space="preserve"> 04-02</v>
+      </c>
+      <c r="C61" t="str">
+        <v xml:space="preserve"> Personal and Dependency Exemptions</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E61" t="str">
+        <v>BB Critical Thinking</v>
+      </c>
+      <c r="F61" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G61" t="str">
+        <v>Understand</v>
+      </c>
+      <c r="H61" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I61" t="str">
+        <v>15 min</v>
+      </c>
+      <c r="J61" t="str">
+        <v>s</v>
+      </c>
+      <c r="K61" t="str">
+        <v>True / False</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>TF4-05</v>
+      </c>
+      <c r="B62" t="str">
+        <v xml:space="preserve"> 04-03</v>
+      </c>
+      <c r="C62" t="str">
+        <v xml:space="preserve"> Filing Status</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E62" t="str">
+        <v>BB Critical Thinking</v>
+      </c>
+      <c r="F62" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G62" t="str">
+        <v>Understand</v>
+      </c>
+      <c r="H62" t="str">
+        <v>1 Easy</v>
+      </c>
+      <c r="I62" t="str">
+        <v>10 min</v>
+      </c>
+      <c r="J62" t="str">
+        <v>s</v>
+      </c>
+      <c r="K62" t="str">
+        <v>True / False</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>TF4-06</v>
+      </c>
+      <c r="B63" t="str">
+        <v xml:space="preserve"> 04-03</v>
+      </c>
+      <c r="C63" t="str">
+        <v xml:space="preserve"> Filing Status</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E63" t="str">
+        <v>BB Critical Thinking</v>
+      </c>
+      <c r="F63" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G63" t="str">
+        <v>Analyze</v>
+      </c>
+      <c r="H63" t="str">
+        <v>3 Hard</v>
+      </c>
+      <c r="I63" t="str">
+        <v>35 min</v>
+      </c>
+      <c r="J63" t="str">
+        <v>s</v>
+      </c>
+      <c r="K63" t="str">
+        <v>True / False</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>MC4-07</v>
+      </c>
+      <c r="B64" t="str">
+        <v xml:space="preserve"> 04-03</v>
+      </c>
+      <c r="C64" t="str">
+        <v xml:space="preserve"> Filing Status</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E64" t="str">
+        <v>BB Critical Thinking</v>
+      </c>
+      <c r="F64" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G64" t="str">
+        <v>Analyze</v>
+      </c>
+      <c r="H64" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I64" t="str">
+        <v>15 min</v>
+      </c>
+      <c r="J64" t="str">
+        <v>s</v>
+      </c>
+      <c r="K64" t="str">
+        <v>Multiple Choice</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>MC4-08</v>
+      </c>
+      <c r="B65" t="str">
+        <v xml:space="preserve"> 04-01</v>
+      </c>
+      <c r="C65" t="str">
+        <v xml:space="preserve"> The Individual Income Tax Formula</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Analytical Thinking, Reflective Thinking</v>
+      </c>
+      <c r="E65" t="str">
+        <v>BB Critical Thinking</v>
+      </c>
+      <c r="F65" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G65" t="str">
+        <v>Analyze</v>
+      </c>
+      <c r="H65" t="str">
+        <v>1 Easy</v>
+      </c>
+      <c r="I65" t="str">
+        <v>10 min</v>
+      </c>
+      <c r="J65" t="str">
+        <v>s</v>
+      </c>
+      <c r="K65" t="str">
+        <v>Multiple Choice</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>MC4-09</v>
+      </c>
+      <c r="B66" t="str">
+        <v xml:space="preserve"> 04-01</v>
+      </c>
+      <c r="C66" t="str">
+        <v xml:space="preserve"> The Individual Income Tax Formula</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E66" t="str">
+        <v>BB Critical Thinking</v>
+      </c>
+      <c r="F66" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G66" t="str">
+        <v>Understand</v>
+      </c>
+      <c r="H66" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I66" t="str">
+        <v>10 min</v>
+      </c>
+      <c r="J66" t="str">
+        <v>s</v>
+      </c>
+      <c r="K66" t="str">
+        <v>Multiple Choice</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>MC4-10</v>
+      </c>
+      <c r="B67" t="str">
+        <v xml:space="preserve"> 04-01</v>
+      </c>
+      <c r="C67" t="str">
+        <v xml:space="preserve"> The Individual Income Tax Formula</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E67" t="str">
+        <v>BB Critical Thinking</v>
+      </c>
+      <c r="F67" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G67" t="str">
+        <v>Understand</v>
+      </c>
+      <c r="H67" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I67" t="str">
+        <v>10 min</v>
+      </c>
+      <c r="J67" t="str">
+        <v>s</v>
+      </c>
+      <c r="K67" t="str">
+        <v>Multiple Choice</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>MC4-11</v>
+      </c>
+      <c r="B68" t="str">
+        <v xml:space="preserve"> 04-02</v>
+      </c>
+      <c r="C68" t="str">
+        <v xml:space="preserve"> Personal and Dependency Exemptions</v>
+      </c>
+      <c r="D68" t="str">
+        <v>Analytical Thinking, Reflective Thinking</v>
+      </c>
+      <c r="E68" t="str">
+        <v>BB Critical Thinking</v>
+      </c>
+      <c r="F68" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G68" t="str">
+        <v>Analyze</v>
+      </c>
+      <c r="H68" t="str">
+        <v>3 Hard</v>
+      </c>
+      <c r="I68" t="str">
+        <v>25 min</v>
+      </c>
+      <c r="J68" t="str">
+        <v>s</v>
+      </c>
+      <c r="K68" t="str">
+        <v>Multiple Choice</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>MC4-12</v>
+      </c>
+      <c r="B69" t="str">
+        <v xml:space="preserve"> 04-03</v>
+      </c>
+      <c r="C69" t="str">
+        <v xml:space="preserve"> Filing Status</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E69" t="str">
+        <v>BB Critical Thinking</v>
+      </c>
+      <c r="F69" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G69" t="str">
+        <v>Understand</v>
+      </c>
+      <c r="H69" t="str">
+        <v>3 Hard</v>
+      </c>
+      <c r="I69" t="str">
+        <v>20 min</v>
+      </c>
+      <c r="J69" t="str">
+        <v>s</v>
+      </c>
+      <c r="K69" t="str">
+        <v>Multiple Choice</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>MC4-13</v>
+      </c>
+      <c r="B70" t="str">
+        <v xml:space="preserve"> 04-03</v>
+      </c>
+      <c r="C70" t="str">
+        <v xml:space="preserve"> Filing Status</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E70" t="str">
+        <v>BB Critical Thinking</v>
+      </c>
+      <c r="F70" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G70" t="str">
+        <v>Analyze</v>
+      </c>
+      <c r="H70" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I70" t="str">
+        <v>15 min</v>
+      </c>
+      <c r="J70" t="str">
+        <v>s</v>
+      </c>
+      <c r="K70" t="str">
+        <v>Multiple Choice</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>MC4-14</v>
+      </c>
+      <c r="B71" t="str">
+        <v xml:space="preserve"> 04-03</v>
+      </c>
+      <c r="C71" t="str">
+        <v xml:space="preserve"> Filing Status</v>
+      </c>
+      <c r="D71" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E71" t="str">
+        <v>BB Critical Thinking</v>
+      </c>
+      <c r="F71" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G71" t="str">
+        <v>Analyze</v>
+      </c>
+      <c r="H71" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I71" t="str">
+        <v>10 min</v>
+      </c>
+      <c r="J71" t="str">
+        <v>s</v>
+      </c>
+      <c r="K71" t="str">
+        <v>Multiple Choice</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>MC4-15</v>
+      </c>
+      <c r="B72" t="str">
+        <v xml:space="preserve"> 04-03</v>
+      </c>
+      <c r="C72" t="str">
+        <v xml:space="preserve"> Filing Status</v>
+      </c>
+      <c r="D72" t="str">
+        <v>Reflective Thinking</v>
+      </c>
+      <c r="E72" t="str">
+        <v>BB Critical Thinking</v>
+      </c>
+      <c r="F72" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G72" t="str">
+        <v>Analyze</v>
+      </c>
+      <c r="H72" t="str">
+        <v>2 Medium</v>
+      </c>
+      <c r="I72" t="str">
+        <v>15 min</v>
+      </c>
+      <c r="J72" t="str">
+        <v>s</v>
+      </c>
+      <c r="K72" t="str">
+        <v>Multiple Choice</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K30"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K72"/>
   </ignoredErrors>
 </worksheet>
 </file>
